--- a/data/extraction_grid_article.xlsx
+++ b/data/extraction_grid_article.xlsx
@@ -991,9 +991,6 @@
     <t xml:space="preserve">Energy, industry, housing, transport, shipping, land use, waste </t>
   </si>
   <si>
-    <t>Energy, industry, housing, transport, food system, solvent</t>
-  </si>
-  <si>
     <t>include_mortality</t>
   </si>
   <si>
@@ -1121,36 +1118,6 @@
     <t>Energy, transport, housing</t>
   </si>
   <si>
-    <t>Residential, industry, transport, food system, energy</t>
-  </si>
-  <si>
-    <t>Energy, transport, industry, food system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy &amp; Diet/food system &amp; Transport </t>
-  </si>
-  <si>
-    <t>Energy, industry, transport, food system, waste, housing</t>
-  </si>
-  <si>
-    <t>food system, energy, industry, transportation, residential/commercial, solvents, waste, and shipping</t>
-  </si>
-  <si>
-    <t>food system, energy, industry, transport, services</t>
-  </si>
-  <si>
-    <t>Energy, transport, residential, commercial, industry, food system</t>
-  </si>
-  <si>
-    <t>Energy, industry, transport, housing, food system, waste</t>
-  </si>
-  <si>
-    <t>Energy, industry, transport, food system, housing</t>
-  </si>
-  <si>
-    <t>food system, energy, industry, transport, residential, commercial, solvent, waste, shipping, natural burning</t>
-  </si>
-  <si>
     <t>Air pollution
 (Warm temperature -&gt; not a cobenefit)</t>
   </si>
@@ -1272,6 +1239,39 @@
   </si>
   <si>
     <t>VSL + COI (Hospital admission costs)</t>
+  </si>
+  <si>
+    <t>Energy, industry, transport, AFOLU, housing</t>
+  </si>
+  <si>
+    <t>AFOLU, energy, industry, transportation, residential/commercial, solvents, waste, and shipping</t>
+  </si>
+  <si>
+    <t>Energy, transport, residential, commercial, industry, AFOLU</t>
+  </si>
+  <si>
+    <t>AFOLU, energy, industry, transport, services</t>
+  </si>
+  <si>
+    <t>Residential, industry, transport, AFOLU, energy</t>
+  </si>
+  <si>
+    <t>AFOLU, energy, industry, transport, residential, commercial, solvent, waste, shipping, natural burning</t>
+  </si>
+  <si>
+    <t>Energy, transport, industry, AFOLU</t>
+  </si>
+  <si>
+    <t>Energy, industry, transport, AFOLU, waste, housing</t>
+  </si>
+  <si>
+    <t>Energy, industry, housing, transport, AFOLU, solvent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy &amp; Diet/AFOLU &amp; Transport </t>
+  </si>
+  <si>
+    <t>Energy, industry, transport, housing, AFOLU, waste</t>
   </si>
 </sst>
 </file>
@@ -2385,9 +2385,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E26" sqref="E26"/>
+      <selection pane="topRight" activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2491,7 +2491,7 @@
         <v>120</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>123</v>
@@ -2515,7 +2515,7 @@
         <v>259</v>
       </c>
       <c r="AG1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -2580,7 +2580,7 @@
         <v>41</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="Z2" s="13" t="s">
         <v>264</v>
@@ -2604,7 +2604,7 @@
         <v>269</v>
       </c>
       <c r="AG2" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:33" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -2673,10 +2673,10 @@
         <v>41</v>
       </c>
       <c r="Y3" s="6" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="Z3" s="6" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="AA3" s="12" t="s">
         <v>171</v>
@@ -2697,7 +2697,7 @@
         <v>274</v>
       </c>
       <c r="AG3" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:33" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -2753,7 +2753,7 @@
       <c r="T4" s="20"/>
       <c r="U4" s="30"/>
       <c r="V4" s="31" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="W4" s="26" t="s">
         <v>41</v>
@@ -2762,7 +2762,7 @@
         <v>41</v>
       </c>
       <c r="Y4" s="26" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="Z4" s="45" t="s">
         <v>135</v>
@@ -2786,15 +2786,15 @@
         <v>275</v>
       </c>
       <c r="AG4" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:33" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C5" s="54">
         <v>2023</v>
@@ -2841,10 +2841,10 @@
         <v>41</v>
       </c>
       <c r="Y5" s="52" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="Z5" s="50" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AA5" s="47" t="s">
         <v>173</v>
@@ -2856,24 +2856,24 @@
         <v>294</v>
       </c>
       <c r="AD5" s="49" t="s">
+        <v>319</v>
+      </c>
+      <c r="AE5" s="49" t="s">
         <v>320</v>
-      </c>
-      <c r="AE5" s="49" t="s">
-        <v>321</v>
       </c>
       <c r="AF5" s="47" t="s">
         <v>260</v>
       </c>
       <c r="AG5" s="47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="15" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C6" s="54">
         <v>2023</v>
@@ -2920,7 +2920,7 @@
         <v>41</v>
       </c>
       <c r="Y6" s="51" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="Z6" s="50" t="s">
         <v>134</v>
@@ -2935,16 +2935,16 @@
         <v>294</v>
       </c>
       <c r="AD6" s="58" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AE6" s="49" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF6" s="47" t="s">
         <v>260</v>
       </c>
       <c r="AG6" s="47" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:33" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3009,7 +3009,7 @@
         <v>41</v>
       </c>
       <c r="Y7" s="14" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="Z7" s="12" t="s">
         <v>127</v>
@@ -3033,7 +3033,7 @@
         <v>260</v>
       </c>
       <c r="AG7" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:33" s="15" customFormat="1" ht="144" x14ac:dyDescent="0.3">
@@ -3098,7 +3098,7 @@
         <v>121</v>
       </c>
       <c r="Y8" s="6" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="Z8" s="13" t="s">
         <v>127</v>
@@ -3119,15 +3119,15 @@
         <v>190</v>
       </c>
       <c r="AF8" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="AG8" s="12" t="s">
         <v>307</v>
-      </c>
-      <c r="AG8" s="12" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:33" s="27" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>2</v>
@@ -3187,7 +3187,7 @@
         <v>41</v>
       </c>
       <c r="Y9" s="26" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="Z9" s="26" t="s">
         <v>273</v>
@@ -3211,12 +3211,12 @@
         <v>272</v>
       </c>
       <c r="AG9" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:33" s="15" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>14</v>
@@ -3276,7 +3276,7 @@
         <v>41</v>
       </c>
       <c r="Y10" s="26" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="Z10" s="26" t="s">
         <v>127</v>
@@ -3300,21 +3300,21 @@
         <v>272</v>
       </c>
       <c r="AG10" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:33" s="27" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="52" t="s">
+        <v>330</v>
+      </c>
+      <c r="B11" s="53" t="s">
         <v>331</v>
-      </c>
-      <c r="B11" s="53" t="s">
-        <v>332</v>
       </c>
       <c r="C11" s="54">
         <v>2023</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E11" s="54" t="s">
         <v>279</v>
@@ -3355,7 +3355,7 @@
         <v>41</v>
       </c>
       <c r="Y11" s="26" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="Z11" s="50" t="s">
         <v>127</v>
@@ -3367,19 +3367,19 @@
         <v>167</v>
       </c>
       <c r="AC11" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="AD11" s="49" t="s">
         <v>334</v>
-      </c>
-      <c r="AD11" s="49" t="s">
-        <v>335</v>
       </c>
       <c r="AE11" s="49" t="s">
         <v>190</v>
       </c>
       <c r="AF11" s="52" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="AG11" s="52" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:33" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -3444,7 +3444,7 @@
         <v>41</v>
       </c>
       <c r="Y12" s="26" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="Z12" s="26" t="s">
         <v>127</v>
@@ -3468,15 +3468,15 @@
         <v>298</v>
       </c>
       <c r="AG12" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:33" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="B13" s="53" t="s">
         <v>327</v>
-      </c>
-      <c r="B13" s="53" t="s">
-        <v>328</v>
       </c>
       <c r="C13" s="59">
         <v>2023</v>
@@ -3514,7 +3514,7 @@
       <c r="T13" s="47"/>
       <c r="U13" s="55"/>
       <c r="V13" s="52" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="W13" s="55" t="s">
         <v>41</v>
@@ -3523,7 +3523,7 @@
         <v>41</v>
       </c>
       <c r="Y13" s="6" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="Z13" s="50" t="s">
         <v>124</v>
@@ -3538,14 +3538,14 @@
         <v>294</v>
       </c>
       <c r="AD13" s="49" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AE13" s="49" t="s">
         <v>190</v>
       </c>
       <c r="AF13" s="47"/>
       <c r="AG13" s="47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:33" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3601,7 +3601,7 @@
       <c r="T14" s="20"/>
       <c r="U14" s="30"/>
       <c r="V14" s="22" t="s">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="W14" s="26" t="s">
         <v>41</v>
@@ -3610,7 +3610,7 @@
         <v>41</v>
       </c>
       <c r="Y14" s="26" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="Z14" s="25" t="s">
         <v>124</v>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="AF14" s="20"/>
       <c r="AG14" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:33" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3693,7 +3693,7 @@
         <v>41</v>
       </c>
       <c r="Y15" s="26" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="Z15" s="6" t="s">
         <v>35</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="AF15" s="12"/>
       <c r="AG15" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:33" s="15" customFormat="1" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3780,7 +3780,7 @@
         <v>41</v>
       </c>
       <c r="Y16" s="26" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="Z16" s="26" t="s">
         <v>127</v>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="AF16" s="20"/>
       <c r="AG16" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:33" s="27" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3867,7 +3867,7 @@
         <v>157</v>
       </c>
       <c r="Y17" s="14" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="Z17" s="6" t="s">
         <v>35</v>
@@ -3889,12 +3889,12 @@
       </c>
       <c r="AF17" s="20"/>
       <c r="AG17" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:33" s="15" customFormat="1" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>23</v>
@@ -3943,7 +3943,7 @@
       <c r="T18" s="12"/>
       <c r="U18" s="6"/>
       <c r="V18" s="14" t="s">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="W18" s="5" t="s">
         <v>41</v>
@@ -3952,7 +3952,7 @@
         <v>41</v>
       </c>
       <c r="Y18" s="6" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="Z18" s="6" t="s">
         <v>128</v>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="AF18" s="20"/>
       <c r="AG18" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:33" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -4041,7 +4041,7 @@
         <v>41</v>
       </c>
       <c r="Y19" s="6" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="Z19" s="26" t="s">
         <v>124</v>
@@ -4063,7 +4063,7 @@
       </c>
       <c r="AF19" s="20"/>
       <c r="AG19" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:33" s="15" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
@@ -4128,7 +4128,7 @@
         <v>41</v>
       </c>
       <c r="Y20" s="30" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="Z20" s="26" t="s">
         <v>134</v>
@@ -4152,7 +4152,7 @@
         <v>283</v>
       </c>
       <c r="AG20" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:33" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -4217,7 +4217,7 @@
         <v>41</v>
       </c>
       <c r="Y21" s="26" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="Z21" s="20" t="s">
         <v>125</v>
@@ -4241,7 +4241,7 @@
         <v>265</v>
       </c>
       <c r="AG21" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:33" s="15" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
@@ -4306,7 +4306,7 @@
         <v>41</v>
       </c>
       <c r="Y22" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="Z22" s="12" t="s">
         <v>263</v>
@@ -4315,7 +4315,7 @@
         <v>172</v>
       </c>
       <c r="AB22" s="14" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="AC22" s="5" t="s">
         <v>294</v>
@@ -4330,7 +4330,7 @@
         <v>262</v>
       </c>
       <c r="AG22" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:33" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -4395,7 +4395,7 @@
         <v>41</v>
       </c>
       <c r="Y23" s="26" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="Z23" s="26" t="s">
         <v>133</v>
@@ -4419,7 +4419,7 @@
         <v>271</v>
       </c>
       <c r="AG23" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:33" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4484,7 +4484,7 @@
         <v>41</v>
       </c>
       <c r="Y24" s="6" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="Z24" s="6" t="s">
         <v>127</v>
@@ -4508,7 +4508,7 @@
         <v>260</v>
       </c>
       <c r="AG24" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:33" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -4573,7 +4573,7 @@
         <v>41</v>
       </c>
       <c r="Y25" s="6" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="Z25" s="20" t="s">
         <v>127</v>
@@ -4597,7 +4597,7 @@
         <v>260</v>
       </c>
       <c r="AG25" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:33" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -4651,7 +4651,7 @@
       <c r="T26" s="12"/>
       <c r="U26" s="14"/>
       <c r="V26" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="W26" s="16" t="s">
         <v>164</v>
@@ -4660,7 +4660,7 @@
         <v>122</v>
       </c>
       <c r="Y26" s="13" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="Z26" s="13" t="s">
         <v>35</v>
@@ -4682,27 +4682,27 @@
       </c>
       <c r="AF26" s="12"/>
       <c r="AG26" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:33" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B27" s="53" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C27" s="54">
         <v>2023</v>
       </c>
       <c r="D27" s="49" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E27" s="51" t="s">
         <v>277</v>
       </c>
       <c r="F27" s="49" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G27" s="49">
         <v>127</v>
@@ -4737,7 +4737,7 @@
         <v>41</v>
       </c>
       <c r="Y27" s="52" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="Z27" s="50" t="s">
         <v>124</v>
@@ -4752,14 +4752,14 @@
         <v>294</v>
       </c>
       <c r="AD27" s="49" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AE27" s="49" t="s">
         <v>288</v>
       </c>
       <c r="AF27" s="47"/>
       <c r="AG27" s="47" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="1:33" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -4822,7 +4822,7 @@
         <v>41</v>
       </c>
       <c r="Y28" s="6" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="Z28" s="6" t="s">
         <v>124</v>
@@ -4846,7 +4846,7 @@
         <v>260</v>
       </c>
       <c r="AG28" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:33" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -4909,7 +4909,7 @@
         <v>41</v>
       </c>
       <c r="Y29" s="40" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="Z29" s="40" t="s">
         <v>127</v>
@@ -4933,7 +4933,7 @@
         <v>260</v>
       </c>
       <c r="AG29" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:33" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -4989,7 +4989,7 @@
       <c r="T30" s="12"/>
       <c r="U30" s="14"/>
       <c r="V30" s="5" t="s">
-        <v>349</v>
+        <v>395</v>
       </c>
       <c r="W30" s="5" t="s">
         <v>163</v>
@@ -4998,7 +4998,7 @@
         <v>136</v>
       </c>
       <c r="Y30" s="52" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="Z30" s="13" t="s">
         <v>124</v>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="AF30" s="20"/>
       <c r="AG30" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:33" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5072,7 +5072,7 @@
       <c r="T31" s="14"/>
       <c r="U31" s="14"/>
       <c r="V31" s="14" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="W31" s="6" t="s">
         <v>121</v>
@@ -5081,7 +5081,7 @@
         <v>121</v>
       </c>
       <c r="Y31" s="6" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="Z31" s="6" t="s">
         <v>124</v>
@@ -5103,7 +5103,7 @@
       </c>
       <c r="AF31" s="12"/>
       <c r="AG31" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:33" s="43" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -5168,7 +5168,7 @@
         <v>121</v>
       </c>
       <c r="Y32" s="6" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="Z32" s="25" t="s">
         <v>65</v>
@@ -5190,21 +5190,21 @@
       </c>
       <c r="AF32" s="6"/>
       <c r="AG32" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:33" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="47" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C33" s="59">
         <v>2023</v>
       </c>
       <c r="D33" s="58" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E33" s="59" t="s">
         <v>279</v>
@@ -5236,7 +5236,7 @@
       <c r="T33" s="47"/>
       <c r="U33" s="52"/>
       <c r="V33" s="52" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="W33" s="62" t="s">
         <v>41</v>
@@ -5245,7 +5245,7 @@
         <v>41</v>
       </c>
       <c r="Y33" s="30" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="Z33" s="50" t="s">
         <v>124</v>
@@ -5267,7 +5267,7 @@
       </c>
       <c r="AF33" s="47"/>
       <c r="AG33" s="47" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="1:33" s="15" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
@@ -5330,7 +5330,7 @@
         <v>41</v>
       </c>
       <c r="Y34" s="26" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="Z34" s="20" t="s">
         <v>129</v>
@@ -5352,7 +5352,7 @@
       </c>
       <c r="AF34" s="20"/>
       <c r="AG34" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="1:33" s="27" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
@@ -5408,7 +5408,7 @@
       <c r="T35" s="30"/>
       <c r="U35" s="30"/>
       <c r="V35" s="30" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="W35" s="92" t="s">
         <v>41</v>
@@ -5417,7 +5417,7 @@
         <v>41</v>
       </c>
       <c r="Y35" s="26" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="Z35" s="20" t="s">
         <v>124</v>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="AF35" s="20"/>
       <c r="AG35" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:33" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -5504,7 +5504,7 @@
         <v>41</v>
       </c>
       <c r="Y36" s="6" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="Z36" s="6" t="s">
         <v>124</v>
@@ -5526,7 +5526,7 @@
       </c>
       <c r="AF36" s="20"/>
       <c r="AG36" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:33" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5607,7 +5607,7 @@
       </c>
       <c r="AF37" s="12"/>
       <c r="AG37" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38" spans="1:33" s="15" customFormat="1" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5663,7 +5663,7 @@
       <c r="T38" s="12"/>
       <c r="U38" s="14"/>
       <c r="V38" s="14" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="W38" s="5" t="s">
         <v>41</v>
@@ -5672,7 +5672,7 @@
         <v>41</v>
       </c>
       <c r="Y38" s="6" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="Z38" s="6" t="s">
         <v>124</v>
@@ -5694,7 +5694,7 @@
       </c>
       <c r="AF38" s="12"/>
       <c r="AG38" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:33" s="36" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -5759,7 +5759,7 @@
         <v>41</v>
       </c>
       <c r="Y39" s="6" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="Z39" s="12" t="s">
         <v>125</v>
@@ -5783,7 +5783,7 @@
         <v>260</v>
       </c>
       <c r="AG39" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="1:33" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5848,7 +5848,7 @@
         <v>41</v>
       </c>
       <c r="Y40" s="26" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="Z40" s="26" t="s">
         <v>127</v>
@@ -5872,7 +5872,7 @@
         <v>260</v>
       </c>
       <c r="AG40" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:33" s="27" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.3">
@@ -5934,10 +5934,10 @@
         <v>41</v>
       </c>
       <c r="X41" s="92" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="Y41" s="14" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="Z41" s="20" t="s">
         <v>127</v>
@@ -5961,7 +5961,7 @@
         <v>260</v>
       </c>
       <c r="AG41" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:33" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6026,7 +6026,7 @@
         <v>41</v>
       </c>
       <c r="Y42" s="30" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="Z42" s="26" t="s">
         <v>127</v>
@@ -6050,12 +6050,12 @@
         <v>260</v>
       </c>
       <c r="AG42" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:33" s="27" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>15</v>
@@ -6117,7 +6117,7 @@
         <v>41</v>
       </c>
       <c r="Y43" s="6" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="Z43" s="12" t="s">
         <v>127</v>
@@ -6141,7 +6141,7 @@
         <v>260</v>
       </c>
       <c r="AG43" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:33" s="27" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6206,7 +6206,7 @@
         <v>41</v>
       </c>
       <c r="Y44" s="30" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="Z44" s="20" t="s">
         <v>125</v>
@@ -6230,7 +6230,7 @@
         <v>260</v>
       </c>
       <c r="AG44" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:33" s="15" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
@@ -6284,7 +6284,7 @@
       <c r="T45" s="12"/>
       <c r="U45" s="14"/>
       <c r="V45" s="13" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="W45" s="6" t="s">
         <v>41</v>
@@ -6293,7 +6293,7 @@
         <v>41</v>
       </c>
       <c r="Y45" s="6" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="Z45" s="6" t="s">
         <v>131</v>
@@ -6317,7 +6317,7 @@
         <v>272</v>
       </c>
       <c r="AG45" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:33" s="15" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6382,7 +6382,7 @@
         <v>41</v>
       </c>
       <c r="Y46" s="6" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="Z46" s="13" t="s">
         <v>127</v>
@@ -6406,12 +6406,12 @@
         <v>267</v>
       </c>
       <c r="AG46" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:33" s="27" customFormat="1" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>101</v>
@@ -6460,7 +6460,7 @@
       <c r="T47" s="30"/>
       <c r="U47" s="26"/>
       <c r="V47" s="31" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="W47" s="31" t="s">
         <v>41</v>
@@ -6469,7 +6469,7 @@
         <v>41</v>
       </c>
       <c r="Y47" s="30" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="Z47" s="20" t="s">
         <v>130</v>
@@ -6491,7 +6491,7 @@
       </c>
       <c r="AF47" s="20"/>
       <c r="AG47" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48" spans="1:33" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -6556,7 +6556,7 @@
         <v>41</v>
       </c>
       <c r="Y48" s="26" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="Z48" s="26" t="s">
         <v>132</v>
@@ -6578,7 +6578,7 @@
       </c>
       <c r="AF48" s="20"/>
       <c r="AG48" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="1:33" s="27" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
@@ -6634,7 +6634,7 @@
       <c r="T49" s="14"/>
       <c r="U49" s="14"/>
       <c r="V49" s="38" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="W49" s="9" t="s">
         <v>41</v>
@@ -6643,7 +6643,7 @@
         <v>41</v>
       </c>
       <c r="Y49" s="6" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="Z49" s="6" t="s">
         <v>270</v>
@@ -6665,7 +6665,7 @@
       </c>
       <c r="AF49" s="20"/>
       <c r="AG49" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="50" spans="1:33" s="48" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6721,7 +6721,7 @@
       <c r="T50" s="12"/>
       <c r="U50" s="14"/>
       <c r="V50" s="38" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="W50" s="38" t="s">
         <v>41</v>
@@ -6730,7 +6730,7 @@
         <v>41</v>
       </c>
       <c r="Y50" s="6" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="Z50" s="12" t="s">
         <v>124</v>
@@ -6752,7 +6752,7 @@
       </c>
       <c r="AF50" s="20"/>
       <c r="AG50" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="51" spans="1:33" s="48" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6810,7 +6810,7 @@
       <c r="T51" s="30"/>
       <c r="U51" s="30"/>
       <c r="V51" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="W51" s="26" t="s">
         <v>41</v>
@@ -6819,7 +6819,7 @@
         <v>41</v>
       </c>
       <c r="Y51" s="26" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="Z51" s="26" t="s">
         <v>124</v>
@@ -6841,15 +6841,15 @@
       </c>
       <c r="AF51" s="20"/>
       <c r="AG51" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52" spans="1:33" s="48" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A52" s="47" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B52" s="52" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C52" s="59">
         <v>2023</v>
@@ -6887,7 +6887,7 @@
       <c r="T52" s="47"/>
       <c r="U52" s="52"/>
       <c r="V52" s="52" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="W52" s="52" t="s">
         <v>41</v>
@@ -6896,7 +6896,7 @@
         <v>41</v>
       </c>
       <c r="Y52" s="40" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="Z52" s="50" t="s">
         <v>124</v>
@@ -6918,7 +6918,7 @@
       </c>
       <c r="AF52" s="47"/>
       <c r="AG52" s="47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53" spans="1:33" s="48" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -6974,7 +6974,7 @@
       <c r="T53" s="12"/>
       <c r="U53" s="14"/>
       <c r="V53" s="13" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="W53" s="13" t="s">
         <v>41</v>
@@ -6983,7 +6983,7 @@
         <v>41</v>
       </c>
       <c r="Y53" s="6" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="Z53" s="6" t="s">
         <v>126</v>
@@ -7005,7 +7005,7 @@
       </c>
       <c r="AF53" s="20"/>
       <c r="AG53" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54" spans="1:33" s="48" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -7061,7 +7061,7 @@
       <c r="T54" s="12"/>
       <c r="U54" s="13"/>
       <c r="V54" s="14" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="W54" s="6" t="s">
         <v>41</v>
@@ -7070,7 +7070,7 @@
         <v>41</v>
       </c>
       <c r="Y54" s="26" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="Z54" s="6" t="s">
         <v>35</v>
@@ -7092,15 +7092,15 @@
       </c>
       <c r="AF54" s="12"/>
       <c r="AG54" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55" spans="1:33" s="48" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="B55" s="52" t="s">
         <v>323</v>
-      </c>
-      <c r="B55" s="52" t="s">
-        <v>324</v>
       </c>
       <c r="C55" s="59">
         <v>2023</v>
@@ -7112,7 +7112,7 @@
         <v>27</v>
       </c>
       <c r="F55" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G55" s="51">
         <v>7821</v>
@@ -7147,7 +7147,7 @@
         <v>41</v>
       </c>
       <c r="Y55" s="6" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="Z55" s="50" t="s">
         <v>124</v>
@@ -7162,14 +7162,14 @@
         <v>202</v>
       </c>
       <c r="AD55" s="51" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AE55" s="49" t="s">
         <v>196</v>
       </c>
       <c r="AF55" s="47"/>
       <c r="AG55" s="47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56" spans="1:33" s="48" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
@@ -7256,7 +7256,7 @@
         <v>261</v>
       </c>
       <c r="AG56" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -7393,42 +7393,42 @@
         <v>259</v>
       </c>
       <c r="AF1" s="71" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:32" s="71" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="71" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="B2" s="71" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="C2" s="71" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="D2" s="71" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E2" s="71" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="F2" s="71" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="G2" s="71" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="H2" s="71" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="I2" s="71" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J2" s="70" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="K2" s="71" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="L2" s="71" t="s">
         <v>87</v>
@@ -7461,37 +7461,37 @@
         <v>89</v>
       </c>
       <c r="V2" s="71" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="W2" s="71" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="X2" s="71" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="Y2" s="71" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="Z2" s="71" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="AA2" s="71" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="AB2" s="71" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="AC2" s="71" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="AD2" s="71" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="AE2" s="71" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="AF2" s="71" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">

--- a/data/extraction_grid_article.xlsx
+++ b/data/extraction_grid_article.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="415">
   <si>
     <t>The public health implications of the Paris Agreement: a modelling study</t>
   </si>
@@ -1272,6 +1272,66 @@
   </si>
   <si>
     <t>Energy, industry, transport, housing, AFOLU, waste</t>
+  </si>
+  <si>
+    <t>Quantified, localized health benefits of accelerated carbon dioxide emissions reductions</t>
+  </si>
+  <si>
+    <t>Shindell, 2018</t>
+  </si>
+  <si>
+    <t>Co-Benefits of Energy Structure Transformation and Pollution
+Control for Air Quality and Public Health until 2050 in
+Guangdong, China</t>
+  </si>
+  <si>
+    <t>Mo, 2022</t>
+  </si>
+  <si>
+    <t>WRF-Chem_MOSAIC</t>
+  </si>
+  <si>
+    <t>Guangdong</t>
+  </si>
+  <si>
+    <t>Effect of particulate matter PM2.5 and PM10 on health indicators: climate change scenarios in a Brazilian metropolis</t>
+  </si>
+  <si>
+    <t>Leao, 2022</t>
+  </si>
+  <si>
+    <t>Recife</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>PM 2.5 &amp; 10</t>
+  </si>
+  <si>
+    <t>Deaths
+Hospitalizations,
+Life expectancy,
+YLL,
+Economic</t>
+  </si>
+  <si>
+    <t>ECMWF</t>
+  </si>
+  <si>
+    <t>Chen, 2018</t>
+  </si>
+  <si>
+    <t>Future ozone-related acute excess mortality under climate and population change scenarios in China: A modeling study</t>
+  </si>
+  <si>
+    <t>Chian</t>
+  </si>
+  <si>
+    <t>Deaths (all, cardio, respi)</t>
+  </si>
+  <si>
+    <t>CMIP5 (GFDL-CM3)</t>
   </si>
 </sst>
 </file>
@@ -1424,7 +1484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1698,6 +1758,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2076,8 +2157,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:AG56" totalsRowShown="0" dataDxfId="31">
-  <autoFilter ref="A1:AG56"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:AG60" totalsRowShown="0" dataDxfId="31">
+  <autoFilter ref="A1:AG60"/>
   <sortState ref="A2:AG56">
     <sortCondition ref="AB1:AB56"/>
   </sortState>
@@ -2383,11 +2464,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG56"/>
+  <dimension ref="A1:AG60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V31" sqref="V31"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD61" sqref="AD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2415,6 +2496,7 @@
     <col min="29" max="29" width="17.21875" customWidth="1"/>
     <col min="30" max="30" width="23.5546875" customWidth="1"/>
     <col min="31" max="32" width="16.88671875" customWidth="1"/>
+    <col min="33" max="33" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
@@ -7008,7 +7090,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="54" spans="1:33" s="48" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:33" s="48" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>55</v>
       </c>
@@ -7257,6 +7339,282 @@
       </c>
       <c r="AG56" s="12" t="s">
         <v>307</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="71" t="s">
+        <v>398</v>
+      </c>
+      <c r="B57" s="71" t="s">
+        <v>397</v>
+      </c>
+      <c r="C57" s="99">
+        <v>2018</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="100" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="G57" s="94"/>
+      <c r="H57" s="71"/>
+      <c r="I57" s="95"/>
+      <c r="J57" s="95"/>
+      <c r="K57" s="71"/>
+      <c r="L57" s="71"/>
+      <c r="M57" s="71"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="94"/>
+      <c r="P57" s="71"/>
+      <c r="Q57" s="71"/>
+      <c r="R57" s="71"/>
+      <c r="S57" s="71"/>
+      <c r="T57" s="71"/>
+      <c r="U57" s="71"/>
+      <c r="V57" s="71" t="s">
+        <v>299</v>
+      </c>
+      <c r="W57" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="X57" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y57" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="Z57" s="94" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA57" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB57" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC57" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD57" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE57" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF57" s="71"/>
+      <c r="AG57" s="71" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" ht="72" x14ac:dyDescent="0.3">
+      <c r="A58" s="71" t="s">
+        <v>400</v>
+      </c>
+      <c r="B58" s="71" t="s">
+        <v>399</v>
+      </c>
+      <c r="C58" s="99">
+        <v>2022</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="E58" s="99" t="s">
+        <v>279</v>
+      </c>
+      <c r="F58" s="94" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58" s="94"/>
+      <c r="H58" s="71"/>
+      <c r="I58" s="95"/>
+      <c r="J58" s="95"/>
+      <c r="K58" s="71"/>
+      <c r="L58" s="71"/>
+      <c r="M58" s="71"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="94"/>
+      <c r="P58" s="71"/>
+      <c r="Q58" s="71"/>
+      <c r="R58" s="71"/>
+      <c r="S58" s="71"/>
+      <c r="T58" s="71"/>
+      <c r="U58" s="71"/>
+      <c r="V58" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="W58" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="X58" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y58" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="Z58" s="94" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA58" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB58" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC58" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD58" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="AE58" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF58" s="71"/>
+      <c r="AG58" s="71" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" ht="72" x14ac:dyDescent="0.3">
+      <c r="A59" s="71" t="s">
+        <v>404</v>
+      </c>
+      <c r="B59" s="71" t="s">
+        <v>403</v>
+      </c>
+      <c r="C59">
+        <v>2022</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E59" s="99" t="s">
+        <v>279</v>
+      </c>
+      <c r="F59" s="94" t="s">
+        <v>406</v>
+      </c>
+      <c r="G59" s="94"/>
+      <c r="H59" s="71"/>
+      <c r="I59" s="95"/>
+      <c r="J59" s="95"/>
+      <c r="K59" s="71"/>
+      <c r="L59" s="71"/>
+      <c r="M59" s="71"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="94"/>
+      <c r="P59" s="71"/>
+      <c r="Q59" s="71"/>
+      <c r="R59" s="71"/>
+      <c r="S59" s="71"/>
+      <c r="T59" s="71"/>
+      <c r="U59" s="71"/>
+      <c r="V59" s="71" t="s">
+        <v>299</v>
+      </c>
+      <c r="W59" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="X59" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y59" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z59" s="94" t="s">
+        <v>408</v>
+      </c>
+      <c r="AA59" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB59" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC59" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD59" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="AE59" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF59" s="71"/>
+      <c r="AG59" s="71" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="71" t="s">
+        <v>410</v>
+      </c>
+      <c r="B60" s="71" t="s">
+        <v>411</v>
+      </c>
+      <c r="C60" s="99">
+        <v>2018</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="97" t="s">
+        <v>277</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="G60" s="6"/>
+      <c r="H60" s="96"/>
+      <c r="I60" s="98"/>
+      <c r="J60" s="98"/>
+      <c r="K60" s="96"/>
+      <c r="L60" s="96"/>
+      <c r="M60" s="96"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="96"/>
+      <c r="Q60" s="96"/>
+      <c r="R60" s="96"/>
+      <c r="S60" s="96"/>
+      <c r="T60" s="96"/>
+      <c r="U60" s="96"/>
+      <c r="V60" s="71" t="s">
+        <v>299</v>
+      </c>
+      <c r="W60" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="X60" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y60" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z60" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA60" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB60" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC60" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD60" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="AE60" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF60" s="96"/>
+      <c r="AG60" s="96" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/data/extraction_grid_article.xlsx
+++ b/data/extraction_grid_article.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="408">
   <si>
     <t>The public health implications of the Paris Agreement: a modelling study</t>
   </si>
@@ -1292,31 +1292,6 @@
   </si>
   <si>
     <t>Guangdong</t>
-  </si>
-  <si>
-    <t>Effect of particulate matter PM2.5 and PM10 on health indicators: climate change scenarios in a Brazilian metropolis</t>
-  </si>
-  <si>
-    <t>Leao, 2022</t>
-  </si>
-  <si>
-    <t>Recife</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>PM 2.5 &amp; 10</t>
-  </si>
-  <si>
-    <t>Deaths
-Hospitalizations,
-Life expectancy,
-YLL,
-Economic</t>
-  </si>
-  <si>
-    <t>ECMWF</t>
   </si>
   <si>
     <t>Chen, 2018</t>
@@ -2157,8 +2132,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:AG60" totalsRowShown="0" dataDxfId="31">
-  <autoFilter ref="A1:AG60"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:AG59" totalsRowShown="0" dataDxfId="31">
+  <autoFilter ref="A1:AG59"/>
   <sortState ref="A2:AG56">
     <sortCondition ref="AB1:AB56"/>
   </sortState>
@@ -2464,11 +2439,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG60"/>
+  <dimension ref="A1:AG59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD61" sqref="AD61"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7407,7 +7382,7 @@
       </c>
       <c r="AF57" s="71"/>
       <c r="AG57" s="71" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="58" spans="1:33" ht="72" x14ac:dyDescent="0.3">
@@ -7479,40 +7454,40 @@
         <v>305</v>
       </c>
     </row>
-    <row r="59" spans="1:33" ht="72" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:33" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A59" s="71" t="s">
+        <v>403</v>
+      </c>
+      <c r="B59" s="71" t="s">
         <v>404</v>
       </c>
-      <c r="B59" s="71" t="s">
-        <v>403</v>
-      </c>
-      <c r="C59">
-        <v>2022</v>
-      </c>
-      <c r="D59" s="5" t="s">
+      <c r="C59" s="99">
+        <v>2018</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="97" t="s">
+        <v>277</v>
+      </c>
+      <c r="F59" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="E59" s="99" t="s">
-        <v>279</v>
-      </c>
-      <c r="F59" s="94" t="s">
-        <v>406</v>
-      </c>
-      <c r="G59" s="94"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="95"/>
-      <c r="J59" s="95"/>
-      <c r="K59" s="71"/>
-      <c r="L59" s="71"/>
-      <c r="M59" s="71"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="94"/>
-      <c r="P59" s="71"/>
-      <c r="Q59" s="71"/>
-      <c r="R59" s="71"/>
-      <c r="S59" s="71"/>
-      <c r="T59" s="71"/>
-      <c r="U59" s="71"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="96"/>
+      <c r="I59" s="98"/>
+      <c r="J59" s="98"/>
+      <c r="K59" s="96"/>
+      <c r="L59" s="96"/>
+      <c r="M59" s="96"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="96"/>
+      <c r="Q59" s="96"/>
+      <c r="R59" s="96"/>
+      <c r="S59" s="96"/>
+      <c r="T59" s="96"/>
+      <c r="U59" s="96"/>
       <c r="V59" s="71" t="s">
         <v>299</v>
       </c>
@@ -7522,11 +7497,11 @@
       <c r="X59" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="Y59" s="40" t="s">
-        <v>407</v>
-      </c>
-      <c r="Z59" s="94" t="s">
-        <v>408</v>
+      <c r="Y59" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z59" s="6" t="s">
+        <v>406</v>
       </c>
       <c r="AA59" s="71" t="s">
         <v>171</v>
@@ -7534,87 +7509,18 @@
       <c r="AB59" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="AC59" s="5" t="s">
-        <v>202</v>
+      <c r="AC59" s="9" t="s">
+        <v>294</v>
       </c>
       <c r="AD59" s="26" t="s">
-        <v>409</v>
-      </c>
-      <c r="AE59" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF59" s="71"/>
-      <c r="AG59" s="71" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="60" spans="1:33" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="71" t="s">
-        <v>410</v>
-      </c>
-      <c r="B60" s="71" t="s">
-        <v>411</v>
-      </c>
-      <c r="C60" s="99">
-        <v>2018</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E60" s="97" t="s">
-        <v>277</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="G60" s="6"/>
-      <c r="H60" s="96"/>
-      <c r="I60" s="98"/>
-      <c r="J60" s="98"/>
-      <c r="K60" s="96"/>
-      <c r="L60" s="96"/>
-      <c r="M60" s="96"/>
-      <c r="N60" s="9"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="96"/>
-      <c r="Q60" s="96"/>
-      <c r="R60" s="96"/>
-      <c r="S60" s="96"/>
-      <c r="T60" s="96"/>
-      <c r="U60" s="96"/>
-      <c r="V60" s="71" t="s">
-        <v>299</v>
-      </c>
-      <c r="W60" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="X60" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y60" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="Z60" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="AA60" s="71" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB60" s="71" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC60" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD60" s="26" t="s">
-        <v>414</v>
-      </c>
-      <c r="AE60" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="AE59" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AF60" s="96"/>
-      <c r="AG60" s="96" t="s">
-        <v>305</v>
+      <c r="AF59" s="96"/>
+      <c r="AG59" s="96" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/data/extraction_grid_article.xlsx
+++ b/data/extraction_grid_article.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="408">
   <si>
     <t>The public health implications of the Paris Agreement: a modelling study</t>
   </si>
@@ -1459,7 +1459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1482,9 +1482,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1513,9 +1510,6 @@
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1523,9 +1517,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1553,9 +1544,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1659,9 +1647,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1683,9 +1668,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1695,9 +1677,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1707,9 +1686,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1717,9 +1693,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1759,7 +1732,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="29">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2021,37 +1994,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2132,21 +2074,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:AG59" totalsRowShown="0" dataDxfId="31">
-  <autoFilter ref="A1:AG59"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:AD59" totalsRowShown="0" dataDxfId="28">
+  <autoFilter ref="A1:AD59"/>
   <sortState ref="A2:AG56">
-    <sortCondition ref="AB1:AB56"/>
+    <sortCondition ref="Y1:Y56"/>
   </sortState>
-  <tableColumns count="33">
-    <tableColumn id="18" name="author_date" dataDxfId="30"/>
-    <tableColumn id="1" name="title" dataDxfId="29"/>
+  <tableColumns count="30">
+    <tableColumn id="18" name="author_date" dataDxfId="27"/>
+    <tableColumn id="1" name="title" dataDxfId="26"/>
     <tableColumn id="17" name="publi_yr"/>
-    <tableColumn id="3" name="Geographical scale" dataDxfId="28"/>
+    <tableColumn id="3" name="Geographical scale" dataDxfId="25"/>
     <tableColumn id="16" name="geo_scale"/>
-    <tableColumn id="26" name="1st authors' institution" dataDxfId="27"/>
-    <tableColumn id="29" name="Population included at baseline (million), banque mondiale" dataDxfId="26"/>
-    <tableColumn id="32" name="rank_pop" dataDxfId="25"/>
-    <tableColumn id="33" name="rank_plot" dataDxfId="24"/>
+    <tableColumn id="26" name="1st authors' institution" dataDxfId="24"/>
     <tableColumn id="34" name="time_scale_min" dataDxfId="23"/>
     <tableColumn id="4" name="time_scale_max" dataDxfId="22"/>
     <tableColumn id="6" name="begin_point" dataDxfId="21"/>
@@ -2439,11 +2378,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG59"/>
+  <dimension ref="A1:AD59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C34" sqref="C34"/>
+      <selection pane="topRight" activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2451,30 +2390,29 @@
     <col min="1" max="1" width="19.21875" customWidth="1"/>
     <col min="2" max="2" width="32.77734375" customWidth="1"/>
     <col min="3" max="4" width="30" customWidth="1"/>
-    <col min="5" max="8" width="20" style="4" customWidth="1"/>
-    <col min="9" max="9" width="22.88671875" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" customWidth="1"/>
-    <col min="12" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="9.77734375" customWidth="1"/>
-    <col min="15" max="15" width="10.77734375" customWidth="1"/>
-    <col min="16" max="17" width="11.77734375" customWidth="1"/>
-    <col min="18" max="18" width="14.21875" customWidth="1"/>
-    <col min="19" max="19" width="13.5546875" customWidth="1"/>
-    <col min="20" max="21" width="19.5546875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="18.44140625" style="2" customWidth="1"/>
-    <col min="23" max="23" width="26.21875" style="2" customWidth="1"/>
-    <col min="24" max="25" width="52.6640625" customWidth="1"/>
-    <col min="26" max="26" width="56.5546875" customWidth="1"/>
-    <col min="27" max="27" width="22.6640625" customWidth="1"/>
-    <col min="28" max="28" width="24.44140625" customWidth="1"/>
-    <col min="29" max="29" width="17.21875" customWidth="1"/>
-    <col min="30" max="30" width="23.5546875" customWidth="1"/>
-    <col min="31" max="32" width="16.88671875" customWidth="1"/>
-    <col min="33" max="33" width="19.109375" customWidth="1"/>
+    <col min="5" max="6" width="20" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="9" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" customWidth="1"/>
+    <col min="13" max="14" width="11.77734375" customWidth="1"/>
+    <col min="15" max="15" width="14.21875" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" customWidth="1"/>
+    <col min="17" max="18" width="19.5546875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="18.44140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="26.21875" style="2" customWidth="1"/>
+    <col min="21" max="22" width="52.6640625" customWidth="1"/>
+    <col min="23" max="23" width="56.5546875" customWidth="1"/>
+    <col min="24" max="24" width="22.6640625" customWidth="1"/>
+    <col min="25" max="25" width="24.44140625" customWidth="1"/>
+    <col min="26" max="26" width="17.21875" customWidth="1"/>
+    <col min="27" max="27" width="23.5546875" customWidth="1"/>
+    <col min="28" max="29" width="16.88671875" customWidth="1"/>
+    <col min="30" max="30" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -2494,184 +2432,166 @@
         <v>140</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="K1" s="3" t="s">
         <v>160</v>
       </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
       <c r="L1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P1" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="Q1" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="R1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s">
-        <v>97</v>
-      </c>
-      <c r="T1" t="s">
-        <v>98</v>
-      </c>
-      <c r="U1" t="s">
         <v>99</v>
       </c>
+      <c r="S1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="V1" s="2" t="s">
-        <v>117</v>
+        <v>381</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="Z1" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="X1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>185</v>
+      </c>
       <c r="AA1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="AB1" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="AC1" t="s">
-        <v>185</v>
+        <v>259</v>
       </c>
       <c r="AD1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AG1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="79">
+      <c r="C2" s="73">
         <v>2023</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="16">
-        <v>38.6</v>
-      </c>
-      <c r="H2" s="11">
-        <v>41</v>
-      </c>
-      <c r="I2" s="24">
-        <v>8</v>
+      <c r="G2" s="10">
+        <v>2017</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2060</v>
+      </c>
+      <c r="I2" s="11">
+        <v>2017</v>
       </c>
       <c r="J2" s="11">
+        <v>2060</v>
+      </c>
+      <c r="K2" s="5">
         <v>2017</v>
       </c>
-      <c r="K2" s="5">
+      <c r="L2" s="13">
         <v>2060</v>
       </c>
-      <c r="L2" s="12">
-        <v>2017</v>
-      </c>
-      <c r="M2" s="12">
-        <v>2060</v>
-      </c>
-      <c r="N2" s="5">
-        <v>2017</v>
-      </c>
-      <c r="O2" s="14">
-        <v>2060</v>
-      </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
       <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="14" t="s">
+      <c r="S2" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="W2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y2" s="6" t="s">
+      <c r="T2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="W2" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="X2" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="Y2" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="AF2" s="12" t="s">
+      <c r="AC2" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="AG2" s="12" t="s">
+      <c r="AD2" s="11" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="72">
+      <c r="C3" s="67">
         <v>2021</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -2683,335 +2603,303 @@
       <c r="F3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="5">
-        <v>37.97</v>
-      </c>
-      <c r="H3" s="11">
-        <v>43</v>
-      </c>
-      <c r="I3" s="56">
-        <v>13</v>
-      </c>
-      <c r="J3" s="11">
+      <c r="G3" s="10">
         <v>2018</v>
       </c>
-      <c r="K3" s="5">
-        <v>2050</v>
-      </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="6">
+      <c r="H3" s="5">
+        <v>2050</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="6">
         <v>2018</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="N3" s="11">
         <v>2030</v>
       </c>
-      <c r="R3" s="12">
+      <c r="O3" s="11">
         <v>2035</v>
       </c>
-      <c r="S3" s="12">
+      <c r="P3" s="11">
         <v>2040</v>
       </c>
-      <c r="T3" s="12">
+      <c r="Q3" s="11">
         <v>2045</v>
       </c>
-      <c r="U3" s="14">
-        <v>2050</v>
-      </c>
-      <c r="V3" s="14" t="s">
+      <c r="R3" s="13">
+        <v>2050</v>
+      </c>
+      <c r="S3" s="13" t="s">
         <v>66</v>
       </c>
+      <c r="T3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>383</v>
+      </c>
       <c r="W3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="Z3" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="AA3" s="12" t="s">
+      <c r="X3" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="Y3" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="AC3" s="5" t="s">
+      <c r="Z3" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="AD3" s="5" t="s">
+      <c r="AA3" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="AE3" s="44" t="s">
+      <c r="AB3" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="AF3" s="20" t="s">
+      <c r="AC3" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="AG3" s="12" t="s">
+      <c r="AD3" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:30" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="74">
+      <c r="C4" s="69">
         <v>2020</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="20" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="56" t="s">
         <v>277</v>
       </c>
-      <c r="G4" s="60">
-        <v>37.99</v>
-      </c>
-      <c r="H4" s="23">
-        <v>42</v>
-      </c>
-      <c r="I4" s="56">
-        <v>14</v>
-      </c>
-      <c r="J4" s="24">
+      <c r="G4" s="21">
         <v>2015</v>
       </c>
-      <c r="K4" s="29">
-        <v>2050</v>
-      </c>
-      <c r="L4" s="20">
+      <c r="H4" s="26">
+        <v>2050</v>
+      </c>
+      <c r="I4" s="18">
         <v>2015</v>
       </c>
-      <c r="M4" s="20">
-        <v>2050</v>
-      </c>
-      <c r="N4" s="60"/>
-      <c r="O4" s="45">
-        <v>2050</v>
-      </c>
-      <c r="P4" s="20">
+      <c r="J4" s="18">
+        <v>2050</v>
+      </c>
+      <c r="K4" s="56"/>
+      <c r="L4" s="41">
+        <v>2050</v>
+      </c>
+      <c r="M4" s="18">
         <v>2015</v>
       </c>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="31" t="s">
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="W4" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="X4" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y4" s="26" t="s">
+      <c r="T4" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="V4" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="Z4" s="45" t="s">
+      <c r="W4" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="AA4" s="20" t="s">
+      <c r="X4" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="AB4" s="20" t="s">
+      <c r="Y4" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="AC4" s="60" t="s">
+      <c r="Z4" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="AD4" s="75" t="s">
+      <c r="AA4" s="70" t="s">
         <v>248</v>
       </c>
-      <c r="AE4" s="44" t="s">
+      <c r="AB4" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="AF4" s="12" t="s">
+      <c r="AC4" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="AG4" s="12" t="s">
+      <c r="AD4" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
+    <row r="5" spans="1:30" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="43" t="s">
         <v>341</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="49" t="s">
         <v>318</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="50">
         <v>2023</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="50" t="s">
         <v>277</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="49">
-        <v>1372</v>
-      </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="24">
-        <v>26</v>
-      </c>
-      <c r="J5" s="56">
+      <c r="G5" s="52">
         <v>2014</v>
       </c>
-      <c r="K5" s="55">
+      <c r="H5" s="51">
         <v>2060</v>
       </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="52" t="s">
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="W5" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="X5" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y5" s="52" t="s">
+      <c r="T5" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="V5" s="48" t="s">
         <v>372</v>
       </c>
-      <c r="Z5" s="50" t="s">
+      <c r="W5" s="46" t="s">
         <v>321</v>
       </c>
-      <c r="AA5" s="47" t="s">
+      <c r="X5" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="AB5" s="47" t="s">
+      <c r="Y5" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="AC5" s="49" t="s">
+      <c r="Z5" s="45" t="s">
         <v>294</v>
       </c>
-      <c r="AD5" s="49" t="s">
+      <c r="AA5" s="45" t="s">
         <v>319</v>
       </c>
-      <c r="AE5" s="49" t="s">
+      <c r="AB5" s="45" t="s">
         <v>320</v>
       </c>
-      <c r="AF5" s="47" t="s">
+      <c r="AC5" s="43" t="s">
         <v>260</v>
       </c>
-      <c r="AG5" s="47" t="s">
+      <c r="AD5" s="43" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="15" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+    <row r="6" spans="1:30" s="14" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="43" t="s">
         <v>308</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="49" t="s">
         <v>310</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="50">
         <v>2023</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="49">
-        <v>1412</v>
-      </c>
-      <c r="H6" s="55"/>
-      <c r="I6" s="56">
-        <v>37</v>
-      </c>
-      <c r="J6" s="56">
+      <c r="G6" s="52">
         <v>2022</v>
       </c>
-      <c r="K6" s="55">
-        <v>2050</v>
-      </c>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="55" t="s">
+      <c r="H6" s="51">
+        <v>2050</v>
+      </c>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="W6" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="X6" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y6" s="51" t="s">
+      <c r="T6" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="V6" s="47" t="s">
         <v>375</v>
       </c>
-      <c r="Z6" s="50" t="s">
+      <c r="W6" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="AA6" s="47" t="s">
+      <c r="X6" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="AB6" s="47" t="s">
+      <c r="Y6" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="AC6" s="49" t="s">
+      <c r="Z6" s="45" t="s">
         <v>294</v>
       </c>
-      <c r="AD6" s="58" t="s">
+      <c r="AA6" s="54" t="s">
         <v>309</v>
       </c>
-      <c r="AE6" s="49" t="s">
+      <c r="AB6" s="45" t="s">
         <v>335</v>
       </c>
-      <c r="AF6" s="47" t="s">
+      <c r="AC6" s="43" t="s">
         <v>260</v>
       </c>
-      <c r="AG6" s="47" t="s">
+      <c r="AD6" s="43" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" s="24" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>2022</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -3023,84 +2911,75 @@
       <c r="F7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="8">
-        <v>1411</v>
-      </c>
-      <c r="H7" s="11">
-        <v>17</v>
-      </c>
-      <c r="I7" s="24">
-        <v>35</v>
-      </c>
-      <c r="J7" s="11">
+      <c r="G7" s="10">
         <v>2020</v>
       </c>
+      <c r="H7" s="5">
+        <v>2060</v>
+      </c>
+      <c r="I7" s="13">
+        <v>2020</v>
+      </c>
+      <c r="J7" s="13">
+        <v>2060</v>
+      </c>
       <c r="K7" s="5">
+        <v>2020</v>
+      </c>
+      <c r="L7" s="13">
         <v>2060</v>
       </c>
-      <c r="L7" s="14">
-        <v>2020</v>
-      </c>
-      <c r="M7" s="14">
-        <v>2060</v>
-      </c>
-      <c r="N7" s="5">
-        <v>2020</v>
-      </c>
-      <c r="O7" s="14">
-        <v>2060</v>
-      </c>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="16" t="s">
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="W7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="X7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y7" s="14" t="s">
+      <c r="T7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V7" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="Z7" s="12" t="s">
+      <c r="W7" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="AA7" s="12" t="s">
+      <c r="X7" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="AB7" s="12" t="s">
+      <c r="Y7" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="AC7" s="5" t="s">
+      <c r="Z7" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="AD7" s="5" t="s">
+      <c r="AA7" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="AE7" s="5" t="s">
+      <c r="AB7" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="AF7" s="20" t="s">
+      <c r="AC7" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="AG7" s="12" t="s">
+      <c r="AD7" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="15" customFormat="1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:30" s="14" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>2017</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -3112,587 +2991,528 @@
       <c r="F8" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="8">
-        <v>6000</v>
-      </c>
-      <c r="H8" s="11">
-        <v>13</v>
-      </c>
-      <c r="I8" s="24">
-        <v>42.8333333333333</v>
+      <c r="G8" s="10">
+        <v>2012</v>
+      </c>
+      <c r="H8" s="9">
+        <v>2050</v>
+      </c>
+      <c r="I8" s="11">
+        <v>2012</v>
       </c>
       <c r="J8" s="11">
+        <v>2050</v>
+      </c>
+      <c r="K8" s="5">
         <v>2012</v>
       </c>
-      <c r="K8" s="10">
-        <v>2050</v>
-      </c>
-      <c r="L8" s="12">
-        <v>2012</v>
-      </c>
-      <c r="M8" s="12">
-        <v>2050</v>
-      </c>
-      <c r="N8" s="5">
-        <v>2012</v>
-      </c>
-      <c r="O8" s="12">
-        <v>2050</v>
-      </c>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="5" t="s">
+      <c r="L8" s="11">
+        <v>2050</v>
+      </c>
+      <c r="M8" s="13"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="W8" s="16" t="s">
+      <c r="T8" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="X8" s="5" t="s">
+      <c r="U8" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="Y8" s="6" t="s">
+      <c r="V8" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="Z8" s="13" t="s">
+      <c r="W8" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="AA8" s="12" t="s">
+      <c r="X8" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="AB8" s="12" t="s">
+      <c r="Y8" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="AC8" s="5" t="s">
+      <c r="Z8" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="AD8" s="63" t="s">
+      <c r="AA8" s="59" t="s">
         <v>257</v>
       </c>
-      <c r="AE8" s="44" t="s">
+      <c r="AB8" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="AF8" s="12" t="s">
+      <c r="AC8" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="AG8" s="12" t="s">
+      <c r="AD8" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="27" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+    <row r="9" spans="1:30" s="24" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="20">
         <v>2021</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="61" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="23">
-        <v>1411</v>
-      </c>
-      <c r="H9" s="23">
-        <v>18</v>
-      </c>
-      <c r="I9" s="56">
-        <v>34</v>
-      </c>
-      <c r="J9" s="24">
+      <c r="G9" s="21">
         <v>2020</v>
       </c>
-      <c r="K9" s="65">
+      <c r="H9" s="61">
         <v>2060</v>
       </c>
-      <c r="L9" s="20">
+      <c r="I9" s="18">
         <v>2020</v>
       </c>
-      <c r="M9" s="20">
+      <c r="J9" s="18">
         <v>2060</v>
       </c>
-      <c r="N9" s="22">
+      <c r="K9" s="20">
         <v>2020</v>
       </c>
-      <c r="O9" s="20">
+      <c r="L9" s="18">
         <v>2060</v>
       </c>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="30" t="s">
+      <c r="M9" s="27"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="W9" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="X9" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y9" s="26" t="s">
+      <c r="T9" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="V9" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="Z9" s="26" t="s">
+      <c r="W9" s="23" t="s">
         <v>273</v>
       </c>
+      <c r="X9" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y9" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z9" s="20" t="s">
+        <v>294</v>
+      </c>
       <c r="AA9" s="20" t="s">
-        <v>172</v>
+        <v>245</v>
       </c>
       <c r="AB9" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC9" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD9" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="AE9" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="AF9" s="12" t="s">
+      <c r="AC9" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="AG9" s="12" t="s">
+      <c r="AD9" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:33" s="15" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:30" s="14" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="26">
         <v>2021</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="26" t="s">
         <v>85</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="22">
-        <v>80</v>
-      </c>
-      <c r="H10" s="23">
-        <v>34</v>
-      </c>
-      <c r="I10" s="56">
-        <v>11</v>
-      </c>
-      <c r="J10" s="24">
+      <c r="G10" s="21">
         <v>2015</v>
       </c>
-      <c r="K10" s="29">
+      <c r="H10" s="26">
         <v>2035</v>
       </c>
-      <c r="L10" s="20">
+      <c r="I10" s="18">
         <v>2015</v>
       </c>
-      <c r="M10" s="20">
+      <c r="J10" s="18">
         <v>2035</v>
       </c>
-      <c r="N10" s="22">
+      <c r="K10" s="20">
         <v>2015</v>
       </c>
-      <c r="O10" s="30">
+      <c r="L10" s="27">
         <v>2035</v>
       </c>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="31" t="s">
+      <c r="M10" s="27"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="W10" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="X10" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y10" s="26" t="s">
+      <c r="T10" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="U10" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="V10" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="Z10" s="26" t="s">
+      <c r="W10" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="AA10" s="20" t="s">
+      <c r="X10" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="AB10" s="20" t="s">
+      <c r="Y10" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="AC10" s="22" t="s">
+      <c r="Z10" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="AD10" s="26" t="s">
+      <c r="AA10" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="AE10" s="44" t="s">
+      <c r="AB10" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="AF10" s="12" t="s">
+      <c r="AC10" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="AG10" s="12" t="s">
+      <c r="AD10" s="11" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="11" spans="1:33" s="27" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="52" t="s">
+    <row r="11" spans="1:30" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="49" t="s">
         <v>331</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C11" s="50">
         <v>2023</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="45" t="s">
         <v>332</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="50" t="s">
         <v>279</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="49">
-        <v>9</v>
-      </c>
-      <c r="H11" s="55"/>
-      <c r="I11" s="56">
-        <v>3</v>
-      </c>
-      <c r="J11" s="56">
+      <c r="G11" s="52">
         <v>2016</v>
       </c>
-      <c r="K11" s="55">
+      <c r="H11" s="51">
         <v>2045</v>
       </c>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52" t="s">
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="W11" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="X11" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y11" s="26" t="s">
+      <c r="T11" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="U11" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="V11" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="Z11" s="50" t="s">
+      <c r="W11" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="AA11" s="52" t="s">
+      <c r="X11" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="AB11" s="47" t="s">
+      <c r="Y11" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="AC11" s="49" t="s">
+      <c r="Z11" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="AD11" s="49" t="s">
+      <c r="AA11" s="45" t="s">
         <v>334</v>
       </c>
-      <c r="AE11" s="49" t="s">
+      <c r="AB11" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="AF11" s="52" t="s">
+      <c r="AC11" s="48" t="s">
         <v>385</v>
       </c>
-      <c r="AG11" s="52" t="s">
+      <c r="AD11" s="48" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="12" spans="1:33" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:30" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="20">
         <v>2020</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="22">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="H12" s="23">
-        <v>44</v>
-      </c>
-      <c r="I12" s="24">
-        <v>6.8333333333333304</v>
-      </c>
-      <c r="J12" s="24">
+      <c r="G12" s="21">
         <v>2010</v>
       </c>
-      <c r="K12" s="22">
-        <v>2050</v>
-      </c>
-      <c r="L12" s="20">
+      <c r="H12" s="20">
+        <v>2050</v>
+      </c>
+      <c r="I12" s="18">
         <v>2010</v>
       </c>
-      <c r="M12" s="26">
-        <v>2050</v>
-      </c>
-      <c r="N12" s="29">
+      <c r="J12" s="23">
+        <v>2050</v>
+      </c>
+      <c r="K12" s="26">
         <v>2010</v>
       </c>
-      <c r="O12" s="20">
-        <v>2050</v>
-      </c>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="26" t="s">
+      <c r="L12" s="18">
+        <v>2050</v>
+      </c>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="W12" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="X12" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y12" s="26" t="s">
+      <c r="T12" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="U12" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="V12" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="Z12" s="26" t="s">
+      <c r="W12" s="23" t="s">
         <v>127</v>
       </c>
+      <c r="X12" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y12" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z12" s="20" t="s">
+        <v>294</v>
+      </c>
       <c r="AA12" s="20" t="s">
-        <v>172</v>
+        <v>233</v>
       </c>
       <c r="AB12" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC12" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD12" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="AE12" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="AF12" s="12" t="s">
+      <c r="AC12" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="AG12" s="12" t="s">
+      <c r="AD12" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="47" t="s">
+    <row r="13" spans="1:30" s="24" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="43" t="s">
         <v>326</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="49" t="s">
         <v>327</v>
       </c>
-      <c r="C13" s="59">
+      <c r="C13" s="55">
         <v>2023</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="47" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F13" s="51" t="s">
+      <c r="F13" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="51">
-        <v>1411</v>
-      </c>
-      <c r="H13" s="55"/>
-      <c r="I13" s="56">
-        <v>36</v>
-      </c>
-      <c r="J13" s="56">
+      <c r="G13" s="52">
         <v>2020</v>
       </c>
-      <c r="K13" s="55">
+      <c r="H13" s="51">
         <v>2060</v>
       </c>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="45"/>
       <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="55"/>
-      <c r="V13" s="52" t="s">
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="W13" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="X13" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y13" s="6" t="s">
+      <c r="T13" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="U13" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="V13" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="Z13" s="50" t="s">
+      <c r="W13" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="AA13" s="47" t="s">
+      <c r="X13" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="AB13" s="47" t="s">
+      <c r="Y13" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="AC13" s="49" t="s">
+      <c r="Z13" s="45" t="s">
         <v>294</v>
       </c>
-      <c r="AD13" s="49" t="s">
+      <c r="AA13" s="45" t="s">
         <v>328</v>
       </c>
-      <c r="AE13" s="49" t="s">
+      <c r="AB13" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="AF13" s="47"/>
-      <c r="AG13" s="47" t="s">
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="43" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:30" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="26">
         <v>2022</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="53" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="77">
-        <v>1380</v>
-      </c>
-      <c r="H14" s="23">
-        <v>22</v>
-      </c>
-      <c r="I14" s="24">
-        <v>29</v>
-      </c>
-      <c r="J14" s="24">
+      <c r="G14" s="21">
         <v>2015</v>
       </c>
-      <c r="K14" s="57">
-        <v>2050</v>
-      </c>
-      <c r="L14" s="20">
+      <c r="H14" s="53">
+        <v>2050</v>
+      </c>
+      <c r="I14" s="18">
         <v>2015</v>
       </c>
-      <c r="M14" s="37">
-        <v>2050</v>
-      </c>
-      <c r="N14" s="29"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30">
+      <c r="J14" s="33">
+        <v>2050</v>
+      </c>
+      <c r="K14" s="26"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27">
         <v>2015</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="N14" s="18">
         <v>2030</v>
       </c>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="22" t="s">
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="W14" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="X14" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y14" s="26" t="s">
+      <c r="T14" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="U14" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="V14" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="Z14" s="25" t="s">
+      <c r="W14" s="22" t="s">
         <v>124</v>
       </c>
+      <c r="X14" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y14" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z14" s="20" t="s">
+        <v>202</v>
+      </c>
       <c r="AA14" s="20" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="AB14" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC14" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD14" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE14" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="AF14" s="20"/>
-      <c r="AG14" s="12" t="s">
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" s="24" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>83</v>
       </c>
@@ -3702,613 +3522,550 @@
       <c r="C15" s="5">
         <v>2018</v>
       </c>
-      <c r="D15" s="88" t="s">
+      <c r="D15" s="80" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F15" s="88" t="s">
+      <c r="F15" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="G15" s="88">
-        <v>63.26</v>
-      </c>
-      <c r="H15" s="11">
-        <v>37</v>
-      </c>
-      <c r="I15" s="56">
-        <v>16</v>
-      </c>
-      <c r="J15" s="11">
+      <c r="G15" s="10">
         <v>2011</v>
       </c>
-      <c r="K15" s="5">
+      <c r="H15" s="5">
         <v>2154</v>
       </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="14">
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="13">
         <v>2011</v>
       </c>
-      <c r="Q15" s="12">
-        <v>2050</v>
-      </c>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="10" t="s">
+      <c r="N15" s="11">
+        <v>2050</v>
+      </c>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="W15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="X15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y15" s="26" t="s">
+      <c r="T15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V15" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="Z15" s="6" t="s">
+      <c r="W15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AA15" s="12" t="s">
+      <c r="X15" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="AB15" s="12" t="s">
+      <c r="Y15" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="AC15" s="5" t="s">
+      <c r="Z15" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="AD15" s="5" t="s">
+      <c r="AA15" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="AE15" s="5" t="s">
+      <c r="AB15" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="12" t="s">
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="15" customFormat="1" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:30" s="14" customFormat="1" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="20">
         <v>2022</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="22">
-        <v>39.4</v>
-      </c>
-      <c r="H16" s="23">
-        <v>40</v>
-      </c>
-      <c r="I16" s="56">
-        <v>9</v>
-      </c>
-      <c r="J16" s="24">
+      <c r="G16" s="21">
         <v>2018</v>
       </c>
-      <c r="K16" s="22">
-        <v>2050</v>
-      </c>
-      <c r="L16" s="30">
+      <c r="H16" s="20">
+        <v>2050</v>
+      </c>
+      <c r="I16" s="27">
         <v>2018</v>
       </c>
-      <c r="M16" s="30">
-        <v>2050</v>
-      </c>
-      <c r="N16" s="22">
+      <c r="J16" s="27">
+        <v>2050</v>
+      </c>
+      <c r="K16" s="20">
         <v>2018</v>
       </c>
-      <c r="O16" s="26">
-        <v>2050</v>
-      </c>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="30" t="s">
+      <c r="L16" s="23">
+        <v>2050</v>
+      </c>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="W16" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="X16" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y16" s="26" t="s">
+      <c r="T16" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="U16" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="V16" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="Z16" s="26" t="s">
+      <c r="W16" s="23" t="s">
         <v>127</v>
       </c>
+      <c r="X16" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y16" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z16" s="20" t="s">
+        <v>294</v>
+      </c>
       <c r="AA16" s="20" t="s">
-        <v>173</v>
+        <v>247</v>
       </c>
       <c r="AB16" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC16" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD16" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="AE16" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="AF16" s="20"/>
-      <c r="AG16" s="12" t="s">
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="17" spans="1:33" s="27" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" s="24" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>2015</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="20" t="s">
         <v>279</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="G17" s="6">
-        <v>10</v>
-      </c>
-      <c r="H17" s="11">
-        <v>47</v>
-      </c>
-      <c r="I17" s="24">
-        <v>3.8333333333333299</v>
-      </c>
-      <c r="J17" s="18">
+      <c r="G17" s="17">
         <v>2010</v>
       </c>
+      <c r="H17" s="6">
+        <v>2050</v>
+      </c>
+      <c r="I17" s="13">
+        <v>2010</v>
+      </c>
+      <c r="J17" s="13">
+        <v>2050</v>
+      </c>
       <c r="K17" s="6">
-        <v>2050</v>
-      </c>
-      <c r="L17" s="14">
         <v>2010</v>
       </c>
-      <c r="M17" s="14">
-        <v>2050</v>
-      </c>
-      <c r="N17" s="6">
-        <v>2010</v>
-      </c>
-      <c r="O17" s="6">
-        <v>2050</v>
-      </c>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="10" t="s">
+      <c r="L17" s="6">
+        <v>2050</v>
+      </c>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="W17" s="14" t="s">
+      <c r="T17" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="X17" s="14" t="s">
+      <c r="U17" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Y17" s="14" t="s">
+      <c r="V17" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="Z17" s="6" t="s">
+      <c r="W17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AA17" s="12" t="s">
+      <c r="X17" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="AB17" s="12" t="s">
+      <c r="Y17" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="AC17" s="5" t="s">
+      <c r="Z17" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="AD17" s="6" t="s">
+      <c r="AA17" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="AE17" s="6" t="s">
+      <c r="AB17" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="12" t="s">
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="18" spans="1:33" s="15" customFormat="1" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" s="14" customFormat="1" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>2023</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>77</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="13">
-        <v>100</v>
-      </c>
-      <c r="H18" s="11">
-        <v>33</v>
-      </c>
-      <c r="I18" s="56">
-        <v>12</v>
-      </c>
-      <c r="J18" s="18">
+      <c r="G18" s="17">
         <v>2017</v>
       </c>
-      <c r="K18" s="13">
+      <c r="H18" s="12">
         <v>2060</v>
       </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="12">
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="11">
         <v>2017</v>
       </c>
-      <c r="Q18" s="12">
+      <c r="N18" s="11">
         <v>2030</v>
       </c>
-      <c r="R18" s="12">
+      <c r="O18" s="11">
         <v>2060</v>
       </c>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="14" t="s">
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="W18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="X18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y18" s="6" t="s">
+      <c r="T18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V18" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="Z18" s="6" t="s">
+      <c r="W18" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="AA18" s="12" t="s">
+      <c r="X18" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="AB18" s="12" t="s">
+      <c r="Y18" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="AC18" s="5" t="s">
+      <c r="Z18" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AD18" s="5" t="s">
+      <c r="AA18" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="AE18" s="5" t="s">
+      <c r="AB18" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="AF18" s="20"/>
-      <c r="AG18" s="12" t="s">
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="11" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="19" spans="1:33" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+    <row r="19" spans="1:30" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="26">
         <v>2018</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="G19" s="77">
-        <v>7821</v>
-      </c>
-      <c r="H19" s="23">
-        <v>4</v>
-      </c>
-      <c r="I19" s="24">
-        <v>52</v>
-      </c>
-      <c r="J19" s="24">
+      <c r="G19" s="21">
         <v>2020</v>
       </c>
-      <c r="K19" s="29">
-        <v>2050</v>
-      </c>
-      <c r="L19" s="20">
+      <c r="H19" s="26">
+        <v>2050</v>
+      </c>
+      <c r="I19" s="18">
         <v>2020</v>
       </c>
-      <c r="M19" s="20">
-        <v>2050</v>
-      </c>
-      <c r="N19" s="22">
+      <c r="J19" s="18">
+        <v>2050</v>
+      </c>
+      <c r="K19" s="20">
         <v>2020</v>
       </c>
-      <c r="O19" s="30">
-        <v>2050</v>
-      </c>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="20">
+      <c r="L19" s="27">
+        <v>2050</v>
+      </c>
+      <c r="M19" s="27"/>
+      <c r="N19" s="18">
         <v>2030</v>
       </c>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="25" t="s">
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="W19" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="X19" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y19" s="6" t="s">
+      <c r="T19" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="U19" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="V19" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="Z19" s="26" t="s">
+      <c r="W19" s="23" t="s">
         <v>124</v>
       </c>
+      <c r="X19" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y19" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z19" s="20" t="s">
+        <v>294</v>
+      </c>
       <c r="AA19" s="20" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="AB19" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC19" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD19" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="AE19" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="AF19" s="20"/>
-      <c r="AG19" s="12" t="s">
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:33" s="15" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+    <row r="20" spans="1:30" s="14" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="28">
         <v>2019</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="28" t="s">
         <v>156</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="G20" s="22">
-        <v>528</v>
-      </c>
-      <c r="H20" s="23">
-        <v>30</v>
-      </c>
-      <c r="I20" s="24">
-        <v>39</v>
-      </c>
-      <c r="J20" s="24">
+      <c r="G20" s="21">
         <v>2015</v>
       </c>
-      <c r="K20" s="22">
-        <v>2050</v>
-      </c>
-      <c r="L20" s="30">
+      <c r="H20" s="20">
+        <v>2050</v>
+      </c>
+      <c r="I20" s="27">
         <v>2015</v>
       </c>
-      <c r="M20" s="30">
-        <v>2050</v>
-      </c>
-      <c r="N20" s="22">
+      <c r="J20" s="27">
+        <v>2050</v>
+      </c>
+      <c r="K20" s="20">
         <v>2015</v>
       </c>
-      <c r="O20" s="26">
-        <v>2050</v>
-      </c>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30" t="s">
+      <c r="L20" s="23">
+        <v>2050</v>
+      </c>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="W20" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="X20" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y20" s="30" t="s">
+      <c r="T20" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="U20" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="V20" s="27" t="s">
         <v>384</v>
       </c>
-      <c r="Z20" s="26" t="s">
+      <c r="W20" s="23" t="s">
         <v>134</v>
       </c>
+      <c r="X20" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y20" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z20" s="20" t="s">
+        <v>294</v>
+      </c>
       <c r="AA20" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB20" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="AC20" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD20" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="AE20" s="22" t="s">
+      <c r="AB20" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="AF20" s="12" t="s">
+      <c r="AC20" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="AG20" s="12" t="s">
+      <c r="AD20" s="11" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:33" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:30" s="24" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="28">
         <v>2022</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="29">
-        <v>21</v>
-      </c>
-      <c r="H21" s="23">
-        <v>46</v>
-      </c>
-      <c r="I21" s="56">
-        <v>4.8333333333333304</v>
-      </c>
-      <c r="J21" s="24">
+      <c r="G21" s="21">
         <v>2020</v>
       </c>
-      <c r="K21" s="31">
-        <v>2050</v>
-      </c>
-      <c r="L21" s="30">
+      <c r="H21" s="28">
+        <v>2050</v>
+      </c>
+      <c r="I21" s="27">
         <v>2020</v>
       </c>
-      <c r="M21" s="30">
-        <v>2050</v>
-      </c>
-      <c r="N21" s="22">
+      <c r="J21" s="27">
+        <v>2050</v>
+      </c>
+      <c r="K21" s="20">
         <v>2020</v>
       </c>
-      <c r="O21" s="30">
-        <v>2050</v>
-      </c>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="31" t="s">
+      <c r="L21" s="27">
+        <v>2050</v>
+      </c>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="W21" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="X21" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y21" s="26" t="s">
+      <c r="T21" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U21" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="V21" s="23" t="s">
         <v>372</v>
       </c>
+      <c r="W21" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="X21" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y21" s="18" t="s">
+        <v>290</v>
+      </c>
       <c r="Z21" s="20" t="s">
-        <v>125</v>
+        <v>202</v>
       </c>
       <c r="AA21" s="20" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="AB21" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="AC21" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD21" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE21" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="AF21" s="12" t="s">
+      <c r="AC21" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="AG21" s="12" t="s">
+      <c r="AD21" s="11" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="22" spans="1:33" s="15" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+    <row r="22" spans="1:30" s="14" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>2020</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -4317,176 +4074,158 @@
       <c r="E22" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="19">
-        <v>1380</v>
-      </c>
-      <c r="H22" s="11">
-        <v>21</v>
-      </c>
-      <c r="I22" s="56">
-        <v>30</v>
-      </c>
-      <c r="J22" s="11">
+      <c r="G22" s="10">
         <v>2020</v>
       </c>
-      <c r="K22" s="10">
-        <v>2050</v>
-      </c>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="5">
+      <c r="H22" s="9">
+        <v>2050</v>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="5">
         <v>2015</v>
       </c>
-      <c r="O22" s="14">
-        <v>2050</v>
-      </c>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14">
+      <c r="L22" s="13">
+        <v>2050</v>
+      </c>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13">
         <v>2030</v>
       </c>
-      <c r="R22" s="14">
-        <v>2050</v>
-      </c>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="5" t="s">
+      <c r="O22" s="13">
+        <v>2050</v>
+      </c>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="W22" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="X22" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y22" s="14" t="s">
+      <c r="T22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V22" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="Z22" s="12" t="s">
+      <c r="W22" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="AA22" s="12" t="s">
+      <c r="X22" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="AB22" s="14" t="s">
+      <c r="Y22" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="AC22" s="5" t="s">
+      <c r="Z22" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="AD22" s="5" t="s">
+      <c r="AA22" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="AE22" s="5" t="s">
+      <c r="AB22" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="AF22" s="12" t="s">
+      <c r="AC22" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="AG22" s="12" t="s">
+      <c r="AD22" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="23" spans="1:33" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+    <row r="23" spans="1:30" s="24" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="20">
         <v>2021</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="20" t="s">
         <v>84</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="22">
-        <v>61</v>
-      </c>
-      <c r="H23" s="23">
-        <v>38</v>
-      </c>
-      <c r="I23" s="24">
-        <v>10</v>
-      </c>
-      <c r="J23" s="24">
+      <c r="G23" s="21">
         <v>2020</v>
       </c>
-      <c r="K23" s="22">
+      <c r="H23" s="20">
         <v>2060</v>
       </c>
-      <c r="L23" s="20">
+      <c r="I23" s="18">
         <v>2020</v>
       </c>
-      <c r="M23" s="20">
+      <c r="J23" s="18">
         <v>2060</v>
       </c>
-      <c r="N23" s="22">
+      <c r="K23" s="20">
         <v>2020</v>
       </c>
-      <c r="O23" s="30">
+      <c r="L23" s="27">
         <v>2060</v>
       </c>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="30" t="s">
+      <c r="M23" s="27"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="W23" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="X23" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y23" s="26" t="s">
+      <c r="T23" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="U23" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="V23" s="23" t="s">
         <v>376</v>
       </c>
-      <c r="Z23" s="26" t="s">
+      <c r="W23" s="23" t="s">
         <v>133</v>
       </c>
+      <c r="X23" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y23" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z23" s="20" t="s">
+        <v>294</v>
+      </c>
       <c r="AA23" s="20" t="s">
-        <v>173</v>
+        <v>240</v>
       </c>
       <c r="AB23" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="AC23" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD23" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="AE23" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="AF23" s="20" t="s">
+      <c r="AC23" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="AG23" s="12" t="s">
+      <c r="AD23" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="24" spans="1:33" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <v>2018</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -4498,173 +4237,155 @@
       <c r="F24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="8">
-        <v>1338</v>
-      </c>
-      <c r="H24" s="11">
+      <c r="G24" s="10">
+        <v>2010</v>
+      </c>
+      <c r="H24" s="9">
+        <v>2050</v>
+      </c>
+      <c r="I24" s="6">
+        <v>2010</v>
+      </c>
+      <c r="J24" s="13">
+        <v>2050</v>
+      </c>
+      <c r="K24" s="5">
+        <v>2010</v>
+      </c>
+      <c r="L24" s="6">
+        <v>2050</v>
+      </c>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="T24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V24" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="W24" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="X24" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y24" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z24" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA24" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB24" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC24" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD24" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" s="24" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="20">
+        <v>2020</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="I24" s="24">
-        <v>23</v>
-      </c>
-      <c r="J24" s="11">
-        <v>2010</v>
-      </c>
-      <c r="K24" s="10">
-        <v>2050</v>
-      </c>
-      <c r="L24" s="6">
-        <v>2010</v>
-      </c>
-      <c r="M24" s="14">
-        <v>2050</v>
-      </c>
-      <c r="N24" s="5">
-        <v>2010</v>
-      </c>
-      <c r="O24" s="6">
-        <v>2050</v>
-      </c>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="10" t="s">
+      <c r="E25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="21">
+        <v>2020</v>
+      </c>
+      <c r="H25" s="20">
+        <v>2050</v>
+      </c>
+      <c r="I25" s="18">
+        <v>2020</v>
+      </c>
+      <c r="J25" s="18">
+        <v>2050</v>
+      </c>
+      <c r="K25" s="20">
+        <v>2020</v>
+      </c>
+      <c r="L25" s="27">
+        <v>2050</v>
+      </c>
+      <c r="M25" s="27"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="W24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="X24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y24" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="Z24" s="6" t="s">
+      <c r="T25" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="U25" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="V25" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="W25" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="AA24" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB24" s="12" t="s">
+      <c r="X25" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y25" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="AC24" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD24" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="AE24" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="AF24" s="20" t="s">
+      <c r="Z25" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA25" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB25" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC25" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="AG24" s="12" t="s">
+      <c r="AD25" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="25" spans="1:33" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="22">
-        <v>2020</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="G25" s="23">
-        <v>7821</v>
-      </c>
-      <c r="H25" s="23">
-        <v>2</v>
-      </c>
-      <c r="I25" s="56">
-        <v>54</v>
-      </c>
-      <c r="J25" s="24">
-        <v>2020</v>
-      </c>
-      <c r="K25" s="22">
-        <v>2050</v>
-      </c>
-      <c r="L25" s="20">
-        <v>2020</v>
-      </c>
-      <c r="M25" s="20">
-        <v>2050</v>
-      </c>
-      <c r="N25" s="22">
-        <v>2020</v>
-      </c>
-      <c r="O25" s="30">
-        <v>2050</v>
-      </c>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="W25" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="X25" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y25" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="Z25" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA25" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB25" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="AC25" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="AD25" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE25" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="AF25" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG25" s="12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:30" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="87" t="s">
+      <c r="B26" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="15">
         <v>2023</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -4676,151 +4397,135 @@
       <c r="F26" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G26" s="5">
-        <v>70</v>
-      </c>
-      <c r="H26" s="11">
+      <c r="G26" s="10">
+        <v>2021</v>
+      </c>
+      <c r="H26" s="80">
+        <v>2100</v>
+      </c>
+      <c r="I26" s="11">
+        <v>2021</v>
+      </c>
+      <c r="J26" s="11">
+        <v>2100</v>
+      </c>
+      <c r="K26" s="15"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="11">
+        <v>2020</v>
+      </c>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="T26" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="U26" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="V26" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="W26" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="24">
-        <v>18</v>
-      </c>
-      <c r="J26" s="11">
-        <v>2021</v>
-      </c>
-      <c r="K26" s="88">
-        <v>2100</v>
-      </c>
-      <c r="L26" s="12">
-        <v>2021</v>
-      </c>
-      <c r="M26" s="12">
-        <v>2100</v>
-      </c>
-      <c r="N26" s="16"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="12">
-        <v>2020</v>
-      </c>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="W26" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="X26" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y26" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="Z26" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA26" s="12" t="s">
+      <c r="X26" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="AB26" s="12" t="s">
+      <c r="Y26" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="AC26" s="5" t="s">
+      <c r="Z26" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="AD26" s="5" t="s">
+      <c r="AA26" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="AE26" s="29" t="s">
+      <c r="AB26" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="12" t="s">
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="27" spans="1:33" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A27" s="47" t="s">
+    <row r="27" spans="1:30" s="24" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A27" s="43" t="s">
         <v>312</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="49" t="s">
         <v>311</v>
       </c>
-      <c r="C27" s="54">
+      <c r="C27" s="50">
         <v>2023</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="45" t="s">
         <v>313</v>
       </c>
-      <c r="E27" s="51" t="s">
+      <c r="E27" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="F27" s="49" t="s">
+      <c r="F27" s="45" t="s">
         <v>313</v>
       </c>
-      <c r="G27" s="49">
-        <v>127</v>
-      </c>
-      <c r="H27" s="55"/>
-      <c r="I27" s="24">
-        <v>18.8333333333333</v>
-      </c>
-      <c r="J27" s="56">
+      <c r="G27" s="52">
         <v>2015</v>
       </c>
-      <c r="K27" s="55">
-        <v>2050</v>
-      </c>
+      <c r="H27" s="51">
+        <v>2050</v>
+      </c>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="45"/>
       <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="55" t="s">
+      <c r="M27" s="48"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="51" t="s">
         <v>299</v>
       </c>
-      <c r="W27" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="X27" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y27" s="52" t="s">
+      <c r="T27" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="U27" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="V27" s="48" t="s">
         <v>372</v>
       </c>
-      <c r="Z27" s="50" t="s">
+      <c r="W27" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="AA27" s="47" t="s">
+      <c r="X27" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="AB27" s="47" t="s">
+      <c r="Y27" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="AC27" s="49" t="s">
+      <c r="Z27" s="45" t="s">
         <v>294</v>
       </c>
-      <c r="AD27" s="49" t="s">
+      <c r="AA27" s="45" t="s">
         <v>314</v>
       </c>
-      <c r="AE27" s="49" t="s">
+      <c r="AB27" s="45" t="s">
         <v>288</v>
       </c>
-      <c r="AF27" s="47"/>
-      <c r="AG27" s="47" t="s">
+      <c r="AC27" s="43"/>
+      <c r="AD27" s="43" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="28" spans="1:33" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:30" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -4832,168 +4537,150 @@
       <c r="D28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="G28" s="8">
-        <v>7405</v>
-      </c>
-      <c r="H28" s="11">
-        <v>9</v>
-      </c>
-      <c r="I28" s="56">
-        <v>48</v>
+      <c r="G28" s="10">
+        <v>2015</v>
+      </c>
+      <c r="H28" s="5">
+        <v>2050</v>
+      </c>
+      <c r="I28" s="11">
+        <v>2015</v>
       </c>
       <c r="J28" s="11">
+        <v>2050</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="11">
         <v>2015</v>
       </c>
-      <c r="K28" s="5">
-        <v>2050</v>
-      </c>
-      <c r="L28" s="12">
-        <v>2015</v>
-      </c>
-      <c r="M28" s="12">
-        <v>2050</v>
-      </c>
-      <c r="N28" s="5"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="12">
-        <v>2015</v>
-      </c>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="5" t="s">
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="5" t="s">
         <v>299</v>
       </c>
+      <c r="T28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="U28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="V28" s="6" t="s">
+        <v>371</v>
+      </c>
       <c r="W28" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="X28" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y28" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="Z28" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="AA28" s="12" t="s">
+      <c r="X28" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="AB28" s="12" t="s">
+      <c r="Y28" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="AC28" s="5" t="s">
+      <c r="Z28" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="AD28" s="5" t="s">
+      <c r="AA28" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="AE28" s="5" t="s">
+      <c r="AB28" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="AF28" s="20" t="s">
+      <c r="AC28" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="AG28" s="12" t="s">
+      <c r="AD28" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="29" spans="1:33" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="40" t="s">
+    <row r="29" spans="1:30" s="24" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="66">
+      <c r="C29" s="62">
         <v>2020</v>
       </c>
-      <c r="D29" s="66" t="s">
+      <c r="D29" s="62" t="s">
         <v>29</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="F29" s="66" t="s">
+      <c r="F29" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="81">
-        <v>1380</v>
-      </c>
-      <c r="H29" s="23">
-        <v>24</v>
-      </c>
-      <c r="I29" s="56">
-        <v>27</v>
-      </c>
-      <c r="J29" s="82">
+      <c r="G29" s="75">
         <v>2015</v>
       </c>
-      <c r="K29" s="66">
+      <c r="H29" s="62">
         <v>2035</v>
       </c>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="66">
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="62">
         <v>2015</v>
       </c>
-      <c r="O29" s="41">
+      <c r="L29" s="37">
         <v>2035</v>
       </c>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41">
+      <c r="M29" s="37"/>
+      <c r="N29" s="37">
         <v>2035</v>
       </c>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="76" t="s">
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="71" t="s">
         <v>300</v>
       </c>
-      <c r="W29" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="X29" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y29" s="40" t="s">
+      <c r="T29" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="U29" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="V29" s="36" t="s">
         <v>371</v>
       </c>
-      <c r="Z29" s="40" t="s">
+      <c r="W29" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="AA29" s="20" t="s">
+      <c r="X29" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="AB29" s="20" t="s">
+      <c r="Y29" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="AC29" s="66" t="s">
+      <c r="Z29" s="62" t="s">
         <v>294</v>
       </c>
-      <c r="AD29" s="66" t="s">
+      <c r="AA29" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="AE29" s="66" t="s">
+      <c r="AB29" s="62" t="s">
         <v>242</v>
       </c>
-      <c r="AF29" s="12" t="s">
+      <c r="AC29" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="AG29" s="12" t="s">
+      <c r="AD29" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="30" spans="1:33" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>46</v>
       </c>
@@ -5012,85 +4699,76 @@
       <c r="F30" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G30" s="89">
-        <v>3870</v>
-      </c>
-      <c r="H30" s="11">
-        <v>15</v>
-      </c>
-      <c r="I30" s="56">
-        <v>40.8333333333333</v>
-      </c>
-      <c r="J30" s="11">
+      <c r="G30" s="10">
         <v>2015</v>
       </c>
+      <c r="H30" s="5">
+        <v>2040</v>
+      </c>
+      <c r="I30" s="11">
+        <v>2015</v>
+      </c>
+      <c r="J30" s="6">
+        <v>2040</v>
+      </c>
       <c r="K30" s="5">
+        <v>2015</v>
+      </c>
+      <c r="L30" s="11">
         <v>2040</v>
       </c>
-      <c r="L30" s="12">
-        <v>2015</v>
-      </c>
-      <c r="M30" s="6">
-        <v>2040</v>
-      </c>
-      <c r="N30" s="5">
-        <v>2015</v>
-      </c>
-      <c r="O30" s="12">
-        <v>2040</v>
-      </c>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="5" t="s">
+      <c r="M30" s="13"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="W30" s="5" t="s">
+      <c r="T30" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="X30" s="5" t="s">
+      <c r="U30" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="Y30" s="52" t="s">
+      <c r="V30" s="48" t="s">
         <v>372</v>
       </c>
-      <c r="Z30" s="13" t="s">
+      <c r="W30" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="AA30" s="12" t="s">
+      <c r="X30" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="AB30" s="12" t="s">
+      <c r="Y30" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="AC30" s="5" t="s">
+      <c r="Z30" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="AD30" s="5" t="s">
+      <c r="AA30" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="AE30" s="5" t="s">
+      <c r="AB30" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="AF30" s="20"/>
-      <c r="AG30" s="12" t="s">
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="31" spans="1:33" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="13">
         <v>2018</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="8" t="s">
         <v>291</v>
       </c>
       <c r="E31" s="6" t="s">
@@ -5099,408 +4777,365 @@
       <c r="F31" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="G31" s="8">
-        <v>7662</v>
-      </c>
-      <c r="H31" s="11">
-        <v>7</v>
-      </c>
-      <c r="I31" s="24">
-        <v>44</v>
-      </c>
-      <c r="J31" s="46">
+      <c r="G31" s="42">
         <v>2015</v>
       </c>
-      <c r="K31" s="6">
+      <c r="H31" s="6">
         <v>2040</v>
       </c>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="14">
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="13">
         <v>2015</v>
       </c>
-      <c r="Q31" s="14">
+      <c r="N31" s="13">
         <v>2040</v>
       </c>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14" t="s">
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13" t="s">
         <v>396</v>
       </c>
+      <c r="T31" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="U31" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="V31" s="6" t="s">
+        <v>378</v>
+      </c>
       <c r="W31" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="X31" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y31" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="Z31" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="AA31" s="14" t="s">
+      <c r="X31" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="AB31" s="14" t="s">
+      <c r="Y31" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="AC31" s="9" t="s">
+      <c r="Z31" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="AD31" s="9" t="s">
+      <c r="AA31" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="AE31" s="9" t="s">
+      <c r="AB31" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="AF31" s="12"/>
-      <c r="AG31" s="12" t="s">
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="32" spans="1:33" s="43" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
+    <row r="32" spans="1:30" s="39" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="23">
         <v>2022</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="23" t="s">
         <v>28</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G32" s="33">
-        <v>1241</v>
+      <c r="G32" s="30">
+        <v>2010</v>
       </c>
       <c r="H32" s="23">
-        <v>28</v>
-      </c>
-      <c r="I32" s="56">
-        <v>22</v>
-      </c>
-      <c r="J32" s="34">
+        <v>2050</v>
+      </c>
+      <c r="I32" s="18">
         <v>2010</v>
       </c>
-      <c r="K32" s="26">
-        <v>2050</v>
-      </c>
-      <c r="L32" s="20">
+      <c r="J32" s="18">
+        <v>2050</v>
+      </c>
+      <c r="K32" s="31">
         <v>2010</v>
       </c>
-      <c r="M32" s="20">
-        <v>2050</v>
-      </c>
-      <c r="N32" s="35">
+      <c r="L32" s="18">
+        <v>2050</v>
+      </c>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="T32" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="U32" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="V32" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="W32" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="X32" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y32" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z32" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA32" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB32" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="43" t="s">
+        <v>337</v>
+      </c>
+      <c r="B33" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="C33" s="55">
+        <v>2023</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>317</v>
+      </c>
+      <c r="E33" s="55" t="s">
+        <v>279</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="G33" s="57">
+        <v>2016</v>
+      </c>
+      <c r="H33" s="48">
+        <v>2050</v>
+      </c>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="T33" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="U33" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="V33" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="W33" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="X33" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y33" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z33" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA33" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB33" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC33" s="43"/>
+      <c r="AD33" s="43" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" s="14" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="C34" s="27">
+        <v>2013</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="30">
         <v>2010</v>
       </c>
-      <c r="O32" s="20">
-        <v>2050</v>
-      </c>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="W32" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="X32" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y32" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="Z32" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA32" s="20" t="s">
+      <c r="H34" s="23">
+        <v>2030</v>
+      </c>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="31">
+        <v>2010</v>
+      </c>
+      <c r="L34" s="31">
+        <v>2030</v>
+      </c>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27">
+        <v>2030</v>
+      </c>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="T34" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="U34" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="V34" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="W34" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="X34" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="AB32" s="20" t="s">
+      <c r="Y34" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="AC32" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD32" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE32" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="AF32" s="6"/>
-      <c r="AG32" s="12" t="s">
+      <c r="Z34" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA34" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB34" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC34" s="18"/>
+      <c r="AD34" s="11" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="33" spans="1:33" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="47" t="s">
-        <v>337</v>
-      </c>
-      <c r="B33" s="52" t="s">
-        <v>316</v>
-      </c>
-      <c r="C33" s="59">
-        <v>2023</v>
-      </c>
-      <c r="D33" s="58" t="s">
-        <v>317</v>
-      </c>
-      <c r="E33" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="F33" s="51" t="s">
+    <row r="35" spans="1:30" s="24" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="23">
+        <v>2021</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="G33" s="51">
-        <v>6</v>
-      </c>
-      <c r="H33" s="55"/>
-      <c r="I33" s="56">
-        <v>2</v>
-      </c>
-      <c r="J33" s="61">
-        <v>2016</v>
-      </c>
-      <c r="K33" s="52">
-        <v>2050</v>
-      </c>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="47"/>
-      <c r="R33" s="47"/>
-      <c r="S33" s="47"/>
-      <c r="T33" s="47"/>
-      <c r="U33" s="52"/>
-      <c r="V33" s="52" t="s">
-        <v>386</v>
-      </c>
-      <c r="W33" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="X33" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y33" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="Z33" s="50" t="s">
+      <c r="G35" s="30">
+        <v>2018</v>
+      </c>
+      <c r="H35" s="23">
+        <v>2030</v>
+      </c>
+      <c r="I35" s="27">
+        <v>2018</v>
+      </c>
+      <c r="J35" s="27">
+        <v>2030</v>
+      </c>
+      <c r="K35" s="31">
+        <v>2018</v>
+      </c>
+      <c r="L35" s="23">
+        <v>2030</v>
+      </c>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="T35" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="U35" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="V35" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="W35" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="AA33" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB33" s="47" t="s">
+      <c r="X35" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y35" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="AC33" s="58" t="s">
+      <c r="Z35" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="AD33" s="58" t="s">
-        <v>208</v>
-      </c>
-      <c r="AE33" s="58" t="s">
-        <v>190</v>
-      </c>
-      <c r="AF33" s="47"/>
-      <c r="AG33" s="47" t="s">
-        <v>305</v>
+      <c r="AA35" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB35" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC35" s="18"/>
+      <c r="AD35" s="11" t="s">
+        <v>307</v>
       </c>
     </row>
-    <row r="34" spans="1:33" s="15" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="C34" s="30">
-        <v>2013</v>
-      </c>
-      <c r="D34" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="G34" s="33">
-        <v>6970</v>
-      </c>
-      <c r="H34" s="23">
-        <v>12</v>
-      </c>
-      <c r="I34" s="56">
-        <v>45</v>
-      </c>
-      <c r="J34" s="34">
-        <v>2010</v>
-      </c>
-      <c r="K34" s="26">
-        <v>2030</v>
-      </c>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="35">
-        <v>2010</v>
-      </c>
-      <c r="O34" s="35">
-        <v>2030</v>
-      </c>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30">
-        <v>2030</v>
-      </c>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="W34" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="X34" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y34" s="26" t="s">
-        <v>372</v>
-      </c>
-      <c r="Z34" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA34" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB34" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC34" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="AD34" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE34" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="AF34" s="20"/>
-      <c r="AG34" s="12" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="35" spans="1:33" s="27" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="26">
-        <v>2021</v>
-      </c>
-      <c r="D35" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G35" s="33">
-        <v>7662</v>
-      </c>
-      <c r="H35" s="23">
-        <v>6</v>
-      </c>
-      <c r="I35" s="56">
-        <v>50</v>
-      </c>
-      <c r="J35" s="34">
-        <v>2018</v>
-      </c>
-      <c r="K35" s="26">
-        <v>2030</v>
-      </c>
-      <c r="L35" s="30">
-        <v>2018</v>
-      </c>
-      <c r="M35" s="30">
-        <v>2030</v>
-      </c>
-      <c r="N35" s="35">
-        <v>2018</v>
-      </c>
-      <c r="O35" s="26">
-        <v>2030</v>
-      </c>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30" t="s">
-        <v>387</v>
-      </c>
-      <c r="W35" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="X35" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y35" s="26" t="s">
-        <v>372</v>
-      </c>
-      <c r="Z35" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA35" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB35" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC35" s="35" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD35" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE35" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="AF35" s="20"/>
-      <c r="AG35" s="12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+    <row r="36" spans="1:30" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -5509,609 +5144,546 @@
       <c r="C36" s="6">
         <v>2021</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G36" s="46">
-        <v>7821</v>
-      </c>
-      <c r="H36" s="11">
+      <c r="G36" s="17">
+        <v>2020</v>
+      </c>
+      <c r="H36" s="6">
+        <v>2050</v>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="8">
+        <v>2020</v>
+      </c>
+      <c r="L36" s="13">
+        <v>2050</v>
+      </c>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11">
+        <v>2030</v>
+      </c>
+      <c r="O36" s="11">
+        <v>2050</v>
+      </c>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="T36" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U36" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="V36" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="W36" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="X36" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y36" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z36" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA36" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB36" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC36" s="18"/>
+      <c r="AD36" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" s="27">
+        <v>2012</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" s="30">
+        <v>2010</v>
+      </c>
+      <c r="H37" s="23">
+        <v>2040</v>
+      </c>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="27">
+        <v>2010</v>
+      </c>
+      <c r="N37" s="27">
+        <v>2040</v>
+      </c>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="T37" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="U37" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="V37" s="27"/>
+      <c r="W37" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="X37" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y37" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z37" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA37" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB37" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" s="14" customFormat="1" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I36" s="56">
-        <v>53</v>
-      </c>
-      <c r="J36" s="18">
-        <v>2020</v>
-      </c>
-      <c r="K36" s="6">
-        <v>2050</v>
-      </c>
-      <c r="L36" s="12"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="9">
-        <v>2020</v>
-      </c>
-      <c r="O36" s="14">
-        <v>2050</v>
-      </c>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12">
-        <v>2030</v>
-      </c>
-      <c r="R36" s="12">
-        <v>2050</v>
-      </c>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="W36" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="X36" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y36" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="Z36" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA36" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB36" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC36" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="AD36" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE36" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="AF36" s="20"/>
-      <c r="AG36" s="12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="37" spans="1:33" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="C37" s="30">
-        <v>2012</v>
-      </c>
-      <c r="D37" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G37" s="26">
-        <v>3</v>
-      </c>
-      <c r="H37" s="23">
-        <v>48</v>
-      </c>
-      <c r="I37" s="24">
-        <v>1</v>
-      </c>
-      <c r="J37" s="34">
-        <v>2010</v>
-      </c>
-      <c r="K37" s="26">
-        <v>2040</v>
-      </c>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="30">
-        <v>2010</v>
-      </c>
-      <c r="Q37" s="30">
-        <v>2040</v>
-      </c>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="30"/>
-      <c r="V37" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="W37" s="92" t="s">
-        <v>42</v>
-      </c>
-      <c r="X37" s="92" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y37" s="30"/>
-      <c r="Z37" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA37" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB37" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC37" s="35" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD37" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="AE37" s="35" t="s">
-        <v>289</v>
-      </c>
-      <c r="AF37" s="12"/>
-      <c r="AG37" s="12" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33" s="15" customFormat="1" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="13">
+      <c r="C38" s="12">
         <v>2019</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="23" t="s">
         <v>279</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G38" s="5">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="H38" s="11">
-        <v>45</v>
-      </c>
-      <c r="I38" s="56">
-        <v>5.8333333333333304</v>
-      </c>
-      <c r="J38" s="18">
+      <c r="G38" s="17">
         <v>2010</v>
       </c>
-      <c r="K38" s="13">
-        <v>2050</v>
-      </c>
-      <c r="L38" s="12">
+      <c r="H38" s="12">
+        <v>2050</v>
+      </c>
+      <c r="I38" s="11">
         <v>2010</v>
       </c>
-      <c r="M38" s="12">
-        <v>2050</v>
-      </c>
-      <c r="N38" s="16">
+      <c r="J38" s="11">
+        <v>2050</v>
+      </c>
+      <c r="K38" s="15">
         <v>2010</v>
       </c>
-      <c r="O38" s="12">
-        <v>2050</v>
-      </c>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="14" t="s">
+      <c r="L38" s="11">
+        <v>2050</v>
+      </c>
+      <c r="M38" s="9"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="W38" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="X38" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y38" s="6" t="s">
+      <c r="T38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V38" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="Z38" s="6" t="s">
+      <c r="W38" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="AA38" s="12" t="s">
+      <c r="X38" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="AB38" s="12" t="s">
+      <c r="Y38" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="AC38" s="5" t="s">
+      <c r="Z38" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="AD38" s="5" t="s">
+      <c r="AA38" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="AE38" s="5" t="s">
+      <c r="AB38" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="AF38" s="12"/>
-      <c r="AG38" s="12" t="s">
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="39" spans="1:33" s="36" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" s="32" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="13">
         <v>2018</v>
       </c>
-      <c r="D39" s="64" t="s">
+      <c r="D39" s="60" t="s">
         <v>29</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G39" s="85">
-        <v>1338</v>
-      </c>
-      <c r="H39" s="11">
-        <v>25</v>
-      </c>
-      <c r="I39" s="56">
-        <v>25</v>
-      </c>
-      <c r="J39" s="18">
+      <c r="G39" s="17">
         <v>2010</v>
       </c>
-      <c r="K39" s="13">
-        <v>2050</v>
-      </c>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="9">
+      <c r="H39" s="12">
+        <v>2050</v>
+      </c>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="8">
         <v>2010</v>
       </c>
-      <c r="O39" s="12">
-        <v>2050</v>
-      </c>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="12">
+      <c r="L39" s="11">
+        <v>2050</v>
+      </c>
+      <c r="M39" s="12"/>
+      <c r="N39" s="11">
         <v>2030</v>
       </c>
-      <c r="R39" s="12">
-        <v>2050</v>
-      </c>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="14"/>
-      <c r="V39" s="14" t="s">
+      <c r="O39" s="11">
+        <v>2050</v>
+      </c>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="W39" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="X39" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y39" s="6" t="s">
+      <c r="T39" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="U39" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="V39" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="Z39" s="12" t="s">
+      <c r="W39" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="AA39" s="12" t="s">
+      <c r="X39" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="AB39" s="12" t="s">
+      <c r="Y39" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="AC39" s="9" t="s">
+      <c r="Z39" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="AD39" s="9" t="s">
+      <c r="AA39" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="AE39" s="9" t="s">
+      <c r="AB39" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="AF39" s="20" t="s">
+      <c r="AC39" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="AG39" s="12" t="s">
+      <c r="AD39" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="40" spans="1:33" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="20" t="s">
+    <row r="40" spans="1:30" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="26">
+      <c r="C40" s="23">
         <v>2022</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G40" s="33">
-        <v>1338</v>
+      <c r="G40" s="30">
+        <v>2015</v>
       </c>
       <c r="H40" s="23">
-        <v>26</v>
-      </c>
-      <c r="I40" s="56">
-        <v>24</v>
-      </c>
-      <c r="J40" s="34">
+        <v>2050</v>
+      </c>
+      <c r="I40" s="18"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="31">
         <v>2015</v>
       </c>
-      <c r="K40" s="26">
-        <v>2050</v>
-      </c>
-      <c r="L40" s="20"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="35">
+      <c r="L40" s="27">
+        <v>2050</v>
+      </c>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18">
+        <v>2030</v>
+      </c>
+      <c r="O40" s="18">
+        <v>2050</v>
+      </c>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="T40" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="U40" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="V40" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="W40" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="X40" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y40" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z40" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA40" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB40" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC40" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD40" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" s="24" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="23">
+        <v>2020</v>
+      </c>
+      <c r="D41" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F41" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="G41" s="30">
+        <v>2020</v>
+      </c>
+      <c r="H41" s="23">
+        <v>2070</v>
+      </c>
+      <c r="I41" s="18">
+        <v>2020</v>
+      </c>
+      <c r="J41" s="18">
+        <v>2070</v>
+      </c>
+      <c r="K41" s="31">
+        <v>2020</v>
+      </c>
+      <c r="L41" s="27">
+        <v>2070</v>
+      </c>
+      <c r="M41" s="27"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="T41" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="U41" s="83" t="s">
+        <v>346</v>
+      </c>
+      <c r="V41" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="W41" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="X41" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y41" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z41" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA41" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB41" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC41" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD41" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="27">
+        <v>2022</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="30">
         <v>2015</v>
       </c>
-      <c r="O40" s="30">
-        <v>2050</v>
-      </c>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20">
+      <c r="H42" s="23">
+        <v>2050</v>
+      </c>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="31">
+        <v>2015</v>
+      </c>
+      <c r="L42" s="23">
+        <v>2050</v>
+      </c>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27">
         <v>2030</v>
       </c>
-      <c r="R40" s="20">
-        <v>2050</v>
-      </c>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="30"/>
-      <c r="V40" s="26" t="s">
+      <c r="O42" s="27">
+        <v>2050</v>
+      </c>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="W40" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="X40" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y40" s="26" t="s">
-        <v>372</v>
-      </c>
-      <c r="Z40" s="26" t="s">
+      <c r="T42" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="U42" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="V42" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="W42" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="AA40" s="20" t="s">
+      <c r="X42" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="AB40" s="20" t="s">
+      <c r="Y42" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="AC40" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD40" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="AE40" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF40" s="12" t="s">
+      <c r="Z42" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA42" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB42" s="84" t="s">
+        <v>254</v>
+      </c>
+      <c r="AC42" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="AG40" s="12" t="s">
+      <c r="AD42" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="41" spans="1:33" s="27" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="26">
-        <v>2020</v>
-      </c>
-      <c r="D41" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="F41" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="G41" s="37">
-        <v>330</v>
-      </c>
-      <c r="H41" s="23">
-        <v>32</v>
-      </c>
-      <c r="I41" s="56">
-        <v>19.8333333333333</v>
-      </c>
-      <c r="J41" s="34">
-        <v>2020</v>
-      </c>
-      <c r="K41" s="26">
-        <v>2070</v>
-      </c>
-      <c r="L41" s="20">
-        <v>2020</v>
-      </c>
-      <c r="M41" s="20">
-        <v>2070</v>
-      </c>
-      <c r="N41" s="35">
-        <v>2020</v>
-      </c>
-      <c r="O41" s="30">
-        <v>2070</v>
-      </c>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="25" t="s">
-        <v>299</v>
-      </c>
-      <c r="W41" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="X41" s="92" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y41" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="Z41" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA41" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB41" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC41" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="AD41" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="AE41" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="AF41" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG41" s="12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="42" spans="1:33" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" s="30">
-        <v>2022</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="F42" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" s="33">
-        <v>7405</v>
-      </c>
-      <c r="H42" s="23">
-        <v>10</v>
-      </c>
-      <c r="I42" s="24">
-        <v>45.8333333333333</v>
-      </c>
-      <c r="J42" s="34">
-        <v>2015</v>
-      </c>
-      <c r="K42" s="26">
-        <v>2050</v>
-      </c>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="35">
-        <v>2015</v>
-      </c>
-      <c r="O42" s="26">
-        <v>2050</v>
-      </c>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30">
-        <v>2030</v>
-      </c>
-      <c r="R42" s="30">
-        <v>2050</v>
-      </c>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
-      <c r="U42" s="30"/>
-      <c r="V42" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="W42" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="X42" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y42" s="30" t="s">
-        <v>382</v>
-      </c>
-      <c r="Z42" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA42" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB42" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC42" s="35" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD42" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="AE42" s="93" t="s">
-        <v>254</v>
-      </c>
-      <c r="AF42" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG42" s="12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="43" spans="1:33" s="27" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
+    <row r="43" spans="1:30" s="24" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
         <v>339</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -6123,175 +5695,157 @@
       <c r="D43" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G43" s="46">
-        <v>7821</v>
-      </c>
-      <c r="H43" s="11">
-        <v>5</v>
-      </c>
-      <c r="I43" s="56">
-        <v>51</v>
-      </c>
-      <c r="J43" s="18">
+      <c r="G43" s="17">
         <v>2020</v>
       </c>
+      <c r="H43" s="6">
+        <v>2100</v>
+      </c>
+      <c r="I43" s="11">
+        <v>2020</v>
+      </c>
+      <c r="J43" s="11">
+        <v>2100</v>
+      </c>
       <c r="K43" s="6">
+        <v>2020</v>
+      </c>
+      <c r="L43" s="11">
         <v>2100</v>
       </c>
-      <c r="L43" s="12">
+      <c r="M43" s="13"/>
+      <c r="N43" s="11">
+        <v>2030</v>
+      </c>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="T43" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="U43" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="V43" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="W43" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="X43" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y43" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z43" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA43" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB43" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC43" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD43" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" s="24" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="27">
         <v>2020</v>
       </c>
-      <c r="M43" s="12">
-        <v>2100</v>
-      </c>
-      <c r="N43" s="6">
-        <v>2020</v>
-      </c>
-      <c r="O43" s="12">
-        <v>2100</v>
-      </c>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="12">
-        <v>2030</v>
-      </c>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="14" t="s">
+      <c r="D44" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44" s="30">
+        <v>2015</v>
+      </c>
+      <c r="H44" s="23">
+        <v>2050</v>
+      </c>
+      <c r="I44" s="27">
+        <v>2015</v>
+      </c>
+      <c r="J44" s="27">
+        <v>2050</v>
+      </c>
+      <c r="K44" s="31">
+        <v>2015</v>
+      </c>
+      <c r="L44" s="23">
+        <v>2050</v>
+      </c>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="W43" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="X43" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y43" s="6" t="s">
+      <c r="T44" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="U44" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="V44" s="27" t="s">
         <v>371</v>
       </c>
-      <c r="Z43" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA43" s="12" t="s">
+      <c r="W44" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="X44" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="AB43" s="12" t="s">
+      <c r="Y44" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="AC43" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="AD43" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="AE43" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF43" s="12" t="s">
+      <c r="Z44" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA44" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB44" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC44" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="AG43" s="12" t="s">
+      <c r="AD44" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="44" spans="1:33" s="27" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="B44" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="C44" s="30">
-        <v>2020</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="F44" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G44" s="33">
-        <v>7405</v>
-      </c>
-      <c r="H44" s="23">
-        <v>8</v>
-      </c>
-      <c r="I44" s="56">
-        <v>49</v>
-      </c>
-      <c r="J44" s="34">
-        <v>2015</v>
-      </c>
-      <c r="K44" s="26">
-        <v>2050</v>
-      </c>
-      <c r="L44" s="30">
-        <v>2015</v>
-      </c>
-      <c r="M44" s="30">
-        <v>2050</v>
-      </c>
-      <c r="N44" s="35">
-        <v>2015</v>
-      </c>
-      <c r="O44" s="26">
-        <v>2050</v>
-      </c>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="25"/>
-      <c r="V44" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="W44" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="X44" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y44" s="30" t="s">
-        <v>371</v>
-      </c>
-      <c r="Z44" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA44" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB44" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC44" s="35" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD44" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="AE44" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="AF44" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG44" s="12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="45" spans="1:33" s="15" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
+    <row r="45" spans="1:30" s="14" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -6300,84 +5854,75 @@
       <c r="C45" s="6">
         <v>2020</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="8" t="s">
         <v>277</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G45" s="46">
-        <v>1380</v>
-      </c>
-      <c r="H45" s="11">
-        <v>23</v>
-      </c>
-      <c r="I45" s="56">
-        <v>28</v>
-      </c>
-      <c r="J45" s="18">
+      <c r="G45" s="17">
         <v>2015</v>
       </c>
-      <c r="K45" s="6">
+      <c r="H45" s="6">
         <v>2030</v>
       </c>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="9">
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="8">
         <v>2015</v>
       </c>
-      <c r="O45" s="12">
+      <c r="L45" s="11">
         <v>2030</v>
       </c>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12">
+      <c r="M45" s="11"/>
+      <c r="N45" s="11">
         <v>2030</v>
       </c>
-      <c r="R45" s="12"/>
-      <c r="S45" s="12"/>
-      <c r="T45" s="12"/>
-      <c r="U45" s="14"/>
-      <c r="V45" s="13" t="s">
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="12" t="s">
         <v>389</v>
       </c>
+      <c r="T45" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="U45" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="V45" s="6" t="s">
+        <v>372</v>
+      </c>
       <c r="W45" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="X45" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y45" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="Z45" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="AA45" s="12" t="s">
+      <c r="X45" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="AB45" s="12" t="s">
+      <c r="Y45" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="AC45" s="9" t="s">
+      <c r="Z45" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="AD45" s="9" t="s">
+      <c r="AA45" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="AE45" s="93" t="s">
+      <c r="AB45" s="84" t="s">
         <v>268</v>
       </c>
-      <c r="AF45" s="12" t="s">
+      <c r="AC45" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="AG45" s="12" t="s">
+      <c r="AD45" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="46" spans="1:33" s="15" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" s="14" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>51</v>
       </c>
@@ -6387,1139 +5932,1035 @@
       <c r="C46" s="6">
         <v>2018</v>
       </c>
-      <c r="D46" s="38" t="s">
+      <c r="D46" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="E46" s="38" t="s">
+      <c r="E46" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F46" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G46" s="18">
-        <v>7821</v>
-      </c>
-      <c r="H46" s="11">
-        <v>1</v>
-      </c>
-      <c r="I46" s="24">
-        <v>55</v>
-      </c>
-      <c r="J46" s="18">
+      <c r="G46" s="17">
         <v>2020</v>
       </c>
-      <c r="K46" s="91">
-        <v>2050</v>
-      </c>
-      <c r="L46" s="12">
+      <c r="H46" s="82">
+        <v>2050</v>
+      </c>
+      <c r="I46" s="11">
         <v>2020</v>
       </c>
-      <c r="M46" s="12">
-        <v>2050</v>
-      </c>
-      <c r="N46" s="9">
+      <c r="J46" s="11">
+        <v>2050</v>
+      </c>
+      <c r="K46" s="8">
         <v>2020</v>
       </c>
-      <c r="O46" s="12">
-        <v>2050</v>
-      </c>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
+      <c r="L46" s="11">
+        <v>2050</v>
+      </c>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
       <c r="R46" s="12"/>
-      <c r="S46" s="12"/>
-      <c r="T46" s="12"/>
-      <c r="U46" s="13"/>
-      <c r="V46" s="14" t="s">
+      <c r="S46" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="W46" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="X46" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y46" s="6" t="s">
+      <c r="T46" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="U46" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="V46" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="Z46" s="13" t="s">
+      <c r="W46" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="AA46" s="12" t="s">
+      <c r="X46" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="AB46" s="12" t="s">
+      <c r="Y46" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="AC46" s="9" t="s">
+      <c r="Z46" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="AD46" s="9" t="s">
+      <c r="AA46" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="AE46" s="9" t="s">
+      <c r="AB46" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="AF46" s="6" t="s">
+      <c r="AC46" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="AG46" s="12" t="s">
+      <c r="AD46" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="47" spans="1:33" s="27" customFormat="1" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="26" t="s">
+    <row r="47" spans="1:30" s="24" customFormat="1" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="22">
+      <c r="C47" s="20">
         <v>2023</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="F47" s="31" t="s">
+      <c r="F47" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="G47" s="24">
-        <v>4680</v>
-      </c>
-      <c r="H47" s="23">
-        <v>14</v>
-      </c>
-      <c r="I47" s="56">
-        <v>41.8333333333333</v>
-      </c>
-      <c r="J47" s="24">
+      <c r="G47" s="21">
         <v>2010</v>
       </c>
-      <c r="K47" s="22">
+      <c r="H47" s="20">
         <v>2040</v>
       </c>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="22">
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="20">
         <v>2010</v>
       </c>
-      <c r="O47" s="30">
+      <c r="L47" s="27">
         <v>2040</v>
       </c>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30">
+      <c r="M47" s="27"/>
+      <c r="N47" s="27">
         <v>2040</v>
       </c>
-      <c r="R47" s="30"/>
-      <c r="S47" s="30"/>
-      <c r="T47" s="30"/>
-      <c r="U47" s="26"/>
-      <c r="V47" s="31" t="s">
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="23"/>
+      <c r="S47" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="W47" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="X47" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y47" s="30" t="s">
+      <c r="T47" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U47" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="V47" s="27" t="s">
         <v>371</v>
       </c>
-      <c r="Z47" s="20" t="s">
+      <c r="W47" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="AA47" s="20" t="s">
+      <c r="X47" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="AB47" s="30" t="s">
+      <c r="Y47" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="AC47" s="35" t="s">
+      <c r="Z47" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="AD47" s="35" t="s">
+      <c r="AA47" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="AE47" s="35" t="s">
+      <c r="AB47" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="AF47" s="20"/>
-      <c r="AG47" s="12" t="s">
+      <c r="AC47" s="18"/>
+      <c r="AD47" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="48" spans="1:33" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A48" s="20" t="s">
+    <row r="48" spans="1:30" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A48" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="25">
+      <c r="C48" s="22">
         <v>2021</v>
       </c>
-      <c r="D48" s="68" t="s">
+      <c r="D48" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="F48" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="G48" s="69">
-        <v>3820</v>
-      </c>
-      <c r="H48" s="23">
-        <v>16</v>
-      </c>
-      <c r="I48" s="24">
-        <v>39.8333333333333</v>
-      </c>
-      <c r="J48" s="34">
+      <c r="G48" s="30">
         <v>2015</v>
       </c>
-      <c r="K48" s="25">
-        <v>2050</v>
-      </c>
-      <c r="L48" s="20">
+      <c r="H48" s="22">
+        <v>2050</v>
+      </c>
+      <c r="I48" s="18">
         <v>2015</v>
       </c>
-      <c r="M48" s="20">
-        <v>2050</v>
-      </c>
-      <c r="N48" s="22">
+      <c r="J48" s="18">
+        <v>2050</v>
+      </c>
+      <c r="K48" s="20">
         <v>2015</v>
       </c>
-      <c r="O48" s="30">
-        <v>2050</v>
-      </c>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
-      <c r="T48" s="20"/>
-      <c r="U48" s="30"/>
-      <c r="V48" s="26" t="s">
+      <c r="L48" s="27">
+        <v>2050</v>
+      </c>
+      <c r="M48" s="27"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="W48" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="X48" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y48" s="26" t="s">
+      <c r="T48" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="U48" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="V48" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="Z48" s="26" t="s">
+      <c r="W48" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="AA48" s="20" t="s">
+      <c r="X48" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="AB48" s="20" t="s">
+      <c r="Y48" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="AC48" s="22" t="s">
+      <c r="Z48" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="AD48" s="35" t="s">
+      <c r="AA48" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="AE48" s="35" t="s">
+      <c r="AB48" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="AF48" s="20"/>
-      <c r="AG48" s="12" t="s">
+      <c r="AC48" s="18"/>
+      <c r="AD48" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="49" spans="1:33" s="27" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" s="24" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B49" s="84" t="s">
+      <c r="B49" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="C49" s="38">
+      <c r="C49" s="34">
         <v>2012</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="G49" s="9">
-        <v>503</v>
-      </c>
-      <c r="H49" s="11">
-        <v>31</v>
-      </c>
-      <c r="I49" s="56">
-        <v>38</v>
-      </c>
-      <c r="J49" s="90">
+      <c r="G49" s="81">
         <v>2005</v>
       </c>
-      <c r="K49" s="9">
-        <v>2050</v>
-      </c>
-      <c r="L49" s="14">
+      <c r="H49" s="8">
+        <v>2050</v>
+      </c>
+      <c r="I49" s="13">
         <v>2005</v>
       </c>
-      <c r="M49" s="14">
-        <v>2050</v>
-      </c>
-      <c r="N49" s="9">
+      <c r="J49" s="13">
+        <v>2050</v>
+      </c>
+      <c r="K49" s="8">
         <v>2005</v>
       </c>
-      <c r="O49" s="6">
-        <v>2050</v>
-      </c>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="14"/>
-      <c r="T49" s="14"/>
-      <c r="U49" s="14"/>
-      <c r="V49" s="38" t="s">
+      <c r="L49" s="6">
+        <v>2050</v>
+      </c>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="34" t="s">
         <v>329</v>
       </c>
-      <c r="W49" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="X49" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y49" s="6" t="s">
+      <c r="T49" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U49" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="V49" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="Z49" s="6" t="s">
+      <c r="W49" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="AA49" s="14" t="s">
+      <c r="X49" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="AB49" s="14" t="s">
+      <c r="Y49" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="AC49" s="9" t="s">
+      <c r="Z49" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="AD49" s="9" t="s">
+      <c r="AA49" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="AE49" s="9" t="s">
+      <c r="AB49" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="AF49" s="20"/>
-      <c r="AG49" s="12" t="s">
+      <c r="AC49" s="18"/>
+      <c r="AD49" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="50" spans="1:33" s="48" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
+    <row r="50" spans="1:30" s="44" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C50" s="14">
+      <c r="C50" s="13">
         <v>2022</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="F50" s="14" t="s">
+      <c r="F50" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="G50" s="18">
-        <v>1410</v>
-      </c>
-      <c r="H50" s="18">
-        <v>19</v>
-      </c>
-      <c r="I50" s="56">
-        <v>33</v>
-      </c>
-      <c r="J50" s="18">
+      <c r="G50" s="17">
         <v>2020</v>
       </c>
-      <c r="K50" s="14">
-        <v>2050</v>
-      </c>
-      <c r="L50" s="12">
+      <c r="H50" s="13">
+        <v>2050</v>
+      </c>
+      <c r="I50" s="11">
         <v>2020</v>
       </c>
-      <c r="M50" s="12">
-        <v>2050</v>
-      </c>
-      <c r="N50" s="10">
+      <c r="J50" s="11">
+        <v>2050</v>
+      </c>
+      <c r="K50" s="9">
         <v>2020</v>
       </c>
-      <c r="O50" s="14">
-        <v>2050</v>
-      </c>
-      <c r="P50" s="14"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
-      <c r="S50" s="12"/>
-      <c r="T50" s="12"/>
-      <c r="U50" s="14"/>
-      <c r="V50" s="38" t="s">
+      <c r="L50" s="13">
+        <v>2050</v>
+      </c>
+      <c r="M50" s="13"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="34" t="s">
         <v>390</v>
       </c>
-      <c r="W50" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="X50" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y50" s="6" t="s">
+      <c r="T50" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="U50" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="V50" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="Z50" s="12" t="s">
+      <c r="W50" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="AA50" s="12" t="s">
+      <c r="X50" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="AB50" s="12" t="s">
+      <c r="Y50" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="AC50" s="38" t="s">
+      <c r="Z50" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="AD50" s="38" t="s">
+      <c r="AA50" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="AE50" s="38" t="s">
+      <c r="AB50" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="AF50" s="20"/>
-      <c r="AG50" s="12" t="s">
+      <c r="AC50" s="18"/>
+      <c r="AD50" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="51" spans="1:33" s="48" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="26" t="s">
+    <row r="51" spans="1:30" s="44" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="C51" s="26">
+      <c r="C51" s="23">
         <v>2019</v>
       </c>
-      <c r="D51" s="78" t="s">
+      <c r="D51" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="F51" s="39" t="s">
+      <c r="F51" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="G51" s="39">
-        <v>1408</v>
-      </c>
-      <c r="H51" s="33">
-        <v>20</v>
-      </c>
-      <c r="I51" s="24">
-        <v>32</v>
-      </c>
-      <c r="J51" s="86">
+      <c r="G51" s="78">
         <v>2015</v>
       </c>
-      <c r="K51" s="26">
-        <v>2050</v>
-      </c>
-      <c r="L51" s="30">
+      <c r="H51" s="23">
+        <v>2050</v>
+      </c>
+      <c r="I51" s="27">
         <v>2015</v>
       </c>
-      <c r="M51" s="30">
-        <v>2050</v>
-      </c>
-      <c r="N51" s="78"/>
-      <c r="O51" s="39"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30">
+      <c r="J51" s="27">
+        <v>2050</v>
+      </c>
+      <c r="K51" s="72"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27">
         <v>2015</v>
       </c>
-      <c r="R51" s="30">
+      <c r="O51" s="27">
         <v>2030</v>
       </c>
-      <c r="S51" s="30">
-        <v>2050</v>
-      </c>
-      <c r="T51" s="30"/>
-      <c r="U51" s="30"/>
-      <c r="V51" s="30" t="s">
+      <c r="P51" s="27">
+        <v>2050</v>
+      </c>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="W51" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="X51" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y51" s="26" t="s">
+      <c r="T51" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="U51" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="V51" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="Z51" s="26" t="s">
+      <c r="W51" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="AA51" s="20" t="s">
+      <c r="X51" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="AB51" s="20" t="s">
+      <c r="Y51" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="AC51" s="22" t="s">
+      <c r="Z51" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="AD51" s="26" t="s">
+      <c r="AA51" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="AE51" s="35" t="s">
+      <c r="AB51" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="AF51" s="20"/>
-      <c r="AG51" s="12" t="s">
+      <c r="AC51" s="18"/>
+      <c r="AD51" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="52" spans="1:33" s="48" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="47" t="s">
+    <row r="52" spans="1:30" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="43" t="s">
         <v>340</v>
       </c>
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="C52" s="59">
+      <c r="C52" s="55">
         <v>2023</v>
       </c>
-      <c r="D52" s="49" t="s">
+      <c r="D52" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="E52" s="59" t="s">
+      <c r="E52" s="55" t="s">
         <v>277</v>
       </c>
-      <c r="F52" s="51" t="s">
+      <c r="F52" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="G52" s="51">
-        <v>1380</v>
-      </c>
-      <c r="H52" s="52"/>
-      <c r="I52" s="56">
-        <v>31</v>
-      </c>
-      <c r="J52" s="61">
+      <c r="G52" s="57">
         <v>2015</v>
       </c>
-      <c r="K52" s="52">
+      <c r="H52" s="48">
         <v>2060</v>
       </c>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="45"/>
       <c r="L52" s="47"/>
-      <c r="M52" s="47"/>
-      <c r="N52" s="49"/>
-      <c r="O52" s="51"/>
-      <c r="P52" s="47"/>
-      <c r="Q52" s="47"/>
-      <c r="R52" s="47"/>
-      <c r="S52" s="47"/>
-      <c r="T52" s="47"/>
-      <c r="U52" s="52"/>
-      <c r="V52" s="52" t="s">
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="43"/>
+      <c r="Q52" s="43"/>
+      <c r="R52" s="48"/>
+      <c r="S52" s="48" t="s">
         <v>391</v>
       </c>
-      <c r="W52" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="X52" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y52" s="40" t="s">
+      <c r="T52" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="U52" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="V52" s="36" t="s">
         <v>371</v>
       </c>
-      <c r="Z52" s="50" t="s">
+      <c r="W52" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="AA52" s="12" t="s">
+      <c r="X52" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="AB52" s="47" t="s">
+      <c r="Y52" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="AC52" s="49" t="s">
+      <c r="Z52" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="AD52" s="51" t="s">
+      <c r="AA52" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="AE52" s="49" t="s">
+      <c r="AB52" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="AF52" s="47"/>
-      <c r="AG52" s="47" t="s">
+      <c r="AC52" s="43"/>
+      <c r="AD52" s="43" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="53" spans="1:33" s="48" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" s="44" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="12">
         <v>2021</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F53" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="G53" s="85">
-        <v>1241</v>
-      </c>
-      <c r="H53" s="18">
-        <v>29</v>
-      </c>
-      <c r="I53" s="56">
-        <v>21</v>
-      </c>
-      <c r="J53" s="18">
+      <c r="G53" s="17">
         <v>2010</v>
       </c>
-      <c r="K53" s="13">
-        <v>2050</v>
-      </c>
-      <c r="L53" s="12">
+      <c r="H53" s="12">
+        <v>2050</v>
+      </c>
+      <c r="I53" s="11">
         <v>2010</v>
       </c>
-      <c r="M53" s="12">
-        <v>2050</v>
-      </c>
-      <c r="N53" s="5">
+      <c r="J53" s="11">
+        <v>2050</v>
+      </c>
+      <c r="K53" s="5">
         <v>2010</v>
       </c>
-      <c r="O53" s="12">
-        <v>2050</v>
-      </c>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="12"/>
-      <c r="S53" s="12"/>
-      <c r="T53" s="12"/>
-      <c r="U53" s="14"/>
-      <c r="V53" s="13" t="s">
+      <c r="L53" s="11">
+        <v>2050</v>
+      </c>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="13"/>
+      <c r="S53" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="W53" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="X53" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y53" s="6" t="s">
+      <c r="T53" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="U53" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="V53" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="Z53" s="6" t="s">
+      <c r="W53" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="AA53" s="12" t="s">
+      <c r="X53" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="AB53" s="12" t="s">
+      <c r="Y53" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="AC53" s="5" t="s">
+      <c r="Z53" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="AD53" s="6" t="s">
+      <c r="AA53" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="AE53" s="5" t="s">
+      <c r="AB53" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="AF53" s="20"/>
-      <c r="AG53" s="12" t="s">
+      <c r="AC53" s="18"/>
+      <c r="AD53" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="54" spans="1:33" s="48" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
+    <row r="54" spans="1:30" s="44" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54" s="12">
         <v>2021</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F54" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G54" s="13">
-        <v>51</v>
-      </c>
-      <c r="H54" s="18">
-        <v>39</v>
-      </c>
-      <c r="I54" s="56">
-        <v>15</v>
-      </c>
-      <c r="J54" s="18">
+      <c r="G54" s="17">
         <v>2022</v>
       </c>
-      <c r="K54" s="13">
-        <v>2050</v>
-      </c>
-      <c r="L54" s="12">
+      <c r="H54" s="12">
+        <v>2050</v>
+      </c>
+      <c r="I54" s="11">
         <v>2022</v>
       </c>
-      <c r="M54" s="12">
-        <v>2050</v>
-      </c>
-      <c r="N54" s="5">
+      <c r="J54" s="11">
+        <v>2050</v>
+      </c>
+      <c r="K54" s="5">
         <v>2022</v>
       </c>
-      <c r="O54" s="14">
-        <v>2050</v>
-      </c>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
+      <c r="L54" s="13">
+        <v>2050</v>
+      </c>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
       <c r="R54" s="12"/>
-      <c r="S54" s="12"/>
-      <c r="T54" s="12"/>
-      <c r="U54" s="13"/>
-      <c r="V54" s="14" t="s">
+      <c r="S54" s="13" t="s">
         <v>393</v>
       </c>
+      <c r="T54" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="U54" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="V54" s="23" t="s">
+        <v>372</v>
+      </c>
       <c r="W54" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="X54" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y54" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="X54" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y54" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z54" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA54" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB54" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC54" s="11"/>
+      <c r="AD54" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" s="44" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="B55" s="48" t="s">
+        <v>323</v>
+      </c>
+      <c r="C55" s="55">
+        <v>2023</v>
+      </c>
+      <c r="D55" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="G55" s="57">
+        <v>2020</v>
+      </c>
+      <c r="H55" s="48">
+        <v>2100</v>
+      </c>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="45"/>
+      <c r="L55" s="46"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="43"/>
+      <c r="P55" s="43"/>
+      <c r="Q55" s="43"/>
+      <c r="R55" s="43"/>
+      <c r="S55" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="T55" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="U55" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="V55" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="Z54" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA54" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB54" s="12" t="s">
+      <c r="W55" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="X55" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y55" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="AC54" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AD54" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="AE54" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="AF54" s="12"/>
-      <c r="AG54" s="12" t="s">
+      <c r="Z55" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA55" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="AB55" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC55" s="43"/>
+      <c r="AD55" s="43" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="55" spans="1:33" s="48" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="47" t="s">
-        <v>322</v>
-      </c>
-      <c r="B55" s="52" t="s">
-        <v>323</v>
-      </c>
-      <c r="C55" s="59">
-        <v>2023</v>
-      </c>
-      <c r="D55" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E55" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="F55" s="51" t="s">
-        <v>324</v>
-      </c>
-      <c r="G55" s="51">
-        <v>7821</v>
-      </c>
-      <c r="H55" s="52"/>
-      <c r="I55" s="56">
-        <v>56</v>
-      </c>
-      <c r="J55" s="61">
-        <v>2020</v>
-      </c>
-      <c r="K55" s="52">
-        <v>2100</v>
-      </c>
-      <c r="L55" s="47"/>
-      <c r="M55" s="47"/>
-      <c r="N55" s="49"/>
-      <c r="O55" s="50"/>
-      <c r="P55" s="47"/>
-      <c r="Q55" s="47"/>
-      <c r="R55" s="47"/>
-      <c r="S55" s="47"/>
-      <c r="T55" s="47"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="52" t="s">
-        <v>299</v>
-      </c>
-      <c r="W55" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="X55" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y55" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="Z55" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA55" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB55" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC55" s="49" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD55" s="51" t="s">
-        <v>325</v>
-      </c>
-      <c r="AE55" s="49" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF55" s="47"/>
-      <c r="AG55" s="47" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="56" spans="1:33" s="48" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="20" t="s">
+    <row r="56" spans="1:30" s="44" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="25">
+      <c r="C56" s="22">
         <v>2022</v>
       </c>
-      <c r="D56" s="29" t="s">
+      <c r="D56" s="26" t="s">
         <v>26</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F56" s="29" t="s">
+      <c r="F56" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G56" s="25">
-        <v>67.5</v>
-      </c>
-      <c r="H56" s="33">
-        <v>36</v>
-      </c>
-      <c r="I56" s="56">
-        <v>17</v>
-      </c>
-      <c r="J56" s="34">
+      <c r="G56" s="30">
         <v>2021</v>
       </c>
-      <c r="K56" s="25">
-        <v>2050</v>
-      </c>
-      <c r="L56" s="20">
+      <c r="H56" s="22">
+        <v>2050</v>
+      </c>
+      <c r="I56" s="18">
         <v>2021</v>
       </c>
-      <c r="M56" s="20">
-        <v>2050</v>
-      </c>
-      <c r="N56" s="29"/>
-      <c r="O56" s="20">
-        <v>2050</v>
-      </c>
-      <c r="P56" s="30">
+      <c r="J56" s="18">
+        <v>2050</v>
+      </c>
+      <c r="K56" s="26"/>
+      <c r="L56" s="18">
+        <v>2050</v>
+      </c>
+      <c r="M56" s="27">
         <v>2021</v>
       </c>
-      <c r="Q56" s="20"/>
-      <c r="R56" s="20"/>
-      <c r="S56" s="20"/>
-      <c r="T56" s="20"/>
-      <c r="U56" s="30"/>
-      <c r="V56" s="30" t="s">
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="27"/>
+      <c r="S56" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="W56" s="25" t="s">
+      <c r="T56" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="X56" s="25" t="s">
+      <c r="U56" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="Y56" s="25"/>
-      <c r="Z56" s="25" t="s">
+      <c r="V56" s="22"/>
+      <c r="W56" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="AA56" s="20" t="s">
+      <c r="X56" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="AB56" s="20" t="s">
+      <c r="Y56" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="AC56" s="22" t="s">
+      <c r="Z56" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="AD56" s="26" t="s">
+      <c r="AA56" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="AE56" s="29" t="s">
+      <c r="AB56" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="AF56" s="12" t="s">
+      <c r="AC56" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="AG56" s="12" t="s">
+      <c r="AD56" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="57" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A57" s="71" t="s">
+    <row r="57" spans="1:30" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="66" t="s">
         <v>398</v>
       </c>
-      <c r="B57" s="71" t="s">
+      <c r="B57" s="66" t="s">
         <v>397</v>
       </c>
-      <c r="C57" s="99">
+      <c r="C57" s="90">
         <v>2018</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E57" s="100" t="s">
+      <c r="E57" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="F57" s="94" t="s">
+      <c r="F57" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="G57" s="94"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="95"/>
-      <c r="J57" s="95"/>
-      <c r="K57" s="71"/>
-      <c r="L57" s="71"/>
-      <c r="M57" s="71"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="94"/>
-      <c r="P57" s="71"/>
-      <c r="Q57" s="71"/>
-      <c r="R57" s="71"/>
-      <c r="S57" s="71"/>
-      <c r="T57" s="71"/>
-      <c r="U57" s="71"/>
-      <c r="V57" s="71" t="s">
+      <c r="G57" s="86"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="66"/>
+      <c r="J57" s="66"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="85"/>
+      <c r="M57" s="66"/>
+      <c r="N57" s="66"/>
+      <c r="O57" s="66"/>
+      <c r="P57" s="66"/>
+      <c r="Q57" s="66"/>
+      <c r="R57" s="66"/>
+      <c r="S57" s="66" t="s">
         <v>299</v>
       </c>
-      <c r="W57" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="X57" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y57" s="40" t="s">
+      <c r="T57" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="U57" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="V57" s="36" t="s">
         <v>371</v>
       </c>
-      <c r="Z57" s="94" t="s">
+      <c r="W57" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="AA57" s="71" t="s">
+      <c r="X57" s="66" t="s">
         <v>173</v>
       </c>
-      <c r="AB57" s="71" t="s">
+      <c r="Y57" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="AC57" s="5" t="s">
+      <c r="Z57" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="AD57" s="35" t="s">
+      <c r="AA57" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="AE57" s="5" t="s">
+      <c r="AB57" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="AF57" s="71"/>
-      <c r="AG57" s="71" t="s">
+      <c r="AC57" s="66"/>
+      <c r="AD57" s="66" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="58" spans="1:33" ht="72" x14ac:dyDescent="0.3">
-      <c r="A58" s="71" t="s">
+    <row r="58" spans="1:30" ht="72" x14ac:dyDescent="0.3">
+      <c r="A58" s="66" t="s">
         <v>400</v>
       </c>
-      <c r="B58" s="71" t="s">
+      <c r="B58" s="66" t="s">
         <v>399</v>
       </c>
-      <c r="C58" s="99">
+      <c r="C58" s="90">
         <v>2022</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="E58" s="99" t="s">
+      <c r="E58" s="90" t="s">
         <v>279</v>
       </c>
-      <c r="F58" s="94" t="s">
+      <c r="F58" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="G58" s="94"/>
-      <c r="H58" s="71"/>
-      <c r="I58" s="95"/>
-      <c r="J58" s="95"/>
-      <c r="K58" s="71"/>
-      <c r="L58" s="71"/>
-      <c r="M58" s="71"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="94"/>
-      <c r="P58" s="71"/>
-      <c r="Q58" s="71"/>
-      <c r="R58" s="71"/>
-      <c r="S58" s="71"/>
-      <c r="T58" s="71"/>
-      <c r="U58" s="71"/>
-      <c r="V58" s="71" t="s">
+      <c r="G58" s="86"/>
+      <c r="H58" s="66"/>
+      <c r="I58" s="66"/>
+      <c r="J58" s="66"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="85"/>
+      <c r="M58" s="66"/>
+      <c r="N58" s="66"/>
+      <c r="O58" s="66"/>
+      <c r="P58" s="66"/>
+      <c r="Q58" s="66"/>
+      <c r="R58" s="66"/>
+      <c r="S58" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="W58" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="X58" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y58" s="40" t="s">
+      <c r="T58" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="U58" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="V58" s="36" t="s">
         <v>371</v>
       </c>
-      <c r="Z58" s="94" t="s">
+      <c r="W58" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="AA58" s="12" t="s">
+      <c r="X58" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="AB58" s="71" t="s">
+      <c r="Y58" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="AC58" s="5" t="s">
+      <c r="Z58" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="AD58" s="26" t="s">
+      <c r="AA58" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="AE58" s="5" t="s">
+      <c r="AB58" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="AF58" s="71"/>
-      <c r="AG58" s="71" t="s">
+      <c r="AC58" s="66"/>
+      <c r="AD58" s="66" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="59" spans="1:33" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="71" t="s">
+    <row r="59" spans="1:30" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="66" t="s">
         <v>403</v>
       </c>
-      <c r="B59" s="71" t="s">
+      <c r="B59" s="66" t="s">
         <v>404</v>
       </c>
-      <c r="C59" s="99">
+      <c r="C59" s="90">
         <v>2018</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E59" s="97" t="s">
+      <c r="E59" s="88" t="s">
         <v>277</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="G59" s="6"/>
-      <c r="H59" s="96"/>
-      <c r="I59" s="98"/>
-      <c r="J59" s="98"/>
-      <c r="K59" s="96"/>
-      <c r="L59" s="96"/>
-      <c r="M59" s="96"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="96"/>
-      <c r="Q59" s="96"/>
-      <c r="R59" s="96"/>
-      <c r="S59" s="96"/>
-      <c r="T59" s="96"/>
-      <c r="U59" s="96"/>
-      <c r="V59" s="71" t="s">
+      <c r="G59" s="89"/>
+      <c r="H59" s="87"/>
+      <c r="I59" s="87"/>
+      <c r="J59" s="87"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="87"/>
+      <c r="N59" s="87"/>
+      <c r="O59" s="87"/>
+      <c r="P59" s="87"/>
+      <c r="Q59" s="87"/>
+      <c r="R59" s="87"/>
+      <c r="S59" s="66" t="s">
         <v>299</v>
       </c>
-      <c r="W59" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="X59" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y59" s="6" t="s">
+      <c r="T59" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="U59" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="V59" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="Z59" s="6" t="s">
+      <c r="W59" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="AA59" s="71" t="s">
+      <c r="X59" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="AB59" s="71" t="s">
+      <c r="Y59" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="AC59" s="9" t="s">
+      <c r="Z59" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="AD59" s="26" t="s">
+      <c r="AA59" s="23" t="s">
         <v>407</v>
       </c>
-      <c r="AE59" s="9" t="s">
+      <c r="AB59" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="AF59" s="96"/>
-      <c r="AG59" s="96" t="s">
+      <c r="AC59" s="87"/>
+      <c r="AD59" s="87" t="s">
         <v>307</v>
       </c>
     </row>
@@ -7562,199 +7003,199 @@
     <col min="32" max="32" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="71" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:32" s="66" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="66" t="s">
         <v>276</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="I1" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="K1" s="71" t="s">
+      <c r="K1" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="L1" s="71" t="s">
+      <c r="L1" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="71" t="s">
+      <c r="M1" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="71" t="s">
+      <c r="N1" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="71" t="s">
+      <c r="O1" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="71" t="s">
+      <c r="P1" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="71" t="s">
+      <c r="Q1" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="71" t="s">
+      <c r="R1" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="71" t="s">
+      <c r="S1" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="T1" s="71" t="s">
+      <c r="T1" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="U1" s="71" t="s">
+      <c r="U1" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="V1" s="71" t="s">
+      <c r="V1" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="W1" s="71" t="s">
+      <c r="W1" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="X1" s="71" t="s">
+      <c r="X1" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="Y1" s="71" t="s">
+      <c r="Y1" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="Z1" s="71" t="s">
+      <c r="Z1" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="AA1" s="71" t="s">
+      <c r="AA1" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="AB1" s="71" t="s">
+      <c r="AB1" s="66" t="s">
         <v>185</v>
       </c>
-      <c r="AC1" s="71" t="s">
+      <c r="AC1" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="AD1" s="71" t="s">
+      <c r="AD1" s="66" t="s">
         <v>187</v>
       </c>
-      <c r="AE1" s="71" t="s">
+      <c r="AE1" s="66" t="s">
         <v>259</v>
       </c>
-      <c r="AF1" s="71" t="s">
+      <c r="AF1" s="66" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="71" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:32" s="66" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="66" t="s">
         <v>350</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="66" t="s">
         <v>351</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="66" t="s">
         <v>352</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="66" t="s">
         <v>353</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="66" t="s">
         <v>353</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="66" t="s">
         <v>354</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="66" t="s">
         <v>355</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="66" t="s">
         <v>356</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="66" t="s">
         <v>357</v>
       </c>
-      <c r="J2" s="70" t="s">
+      <c r="J2" s="65" t="s">
         <v>358</v>
       </c>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="L2" s="71" t="s">
+      <c r="L2" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="71" t="s">
+      <c r="M2" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="N2" s="71" t="s">
+      <c r="N2" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="71" t="s">
+      <c r="O2" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="P2" s="71" t="s">
+      <c r="P2" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="Q2" s="71" t="s">
+      <c r="Q2" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="R2" s="71" t="s">
+      <c r="R2" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="S2" s="71" t="s">
+      <c r="S2" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="T2" s="71" t="s">
+      <c r="T2" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="U2" s="71" t="s">
+      <c r="U2" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="V2" s="71" t="s">
+      <c r="V2" s="66" t="s">
         <v>360</v>
       </c>
-      <c r="W2" s="71" t="s">
+      <c r="W2" s="66" t="s">
         <v>362</v>
       </c>
-      <c r="X2" s="71" t="s">
+      <c r="X2" s="66" t="s">
         <v>361</v>
       </c>
-      <c r="Y2" s="71" t="s">
+      <c r="Y2" s="66" t="s">
         <v>363</v>
       </c>
-      <c r="Z2" s="71" t="s">
+      <c r="Z2" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="AA2" s="71" t="s">
+      <c r="AA2" s="66" t="s">
         <v>365</v>
       </c>
-      <c r="AB2" s="71" t="s">
+      <c r="AB2" s="66" t="s">
         <v>366</v>
       </c>
-      <c r="AC2" s="71" t="s">
+      <c r="AC2" s="66" t="s">
         <v>367</v>
       </c>
-      <c r="AD2" s="71" t="s">
+      <c r="AD2" s="66" t="s">
         <v>368</v>
       </c>
-      <c r="AE2" s="71" t="s">
+      <c r="AE2" s="66" t="s">
         <v>369</v>
       </c>
-      <c r="AF2" s="71" t="s">
+      <c r="AF2" s="66" t="s">
         <v>370</v>
       </c>
     </row>

--- a/data/extraction_grid_article.xlsx
+++ b/data/extraction_grid_article.xlsx
@@ -1456,7 +1456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1623,33 +1623,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1657,9 +1639,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1686,9 +1665,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1710,10 +1686,43 @@
     <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2065,7 +2074,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:AD59" totalsRowShown="0" dataDxfId="28">
   <autoFilter ref="A1:AD59"/>
   <sortState ref="A2:AD59">
-    <sortCondition descending="1" ref="AD1:AD59"/>
+    <sortCondition ref="A1:A59"/>
   </sortState>
   <tableColumns count="30">
     <tableColumn id="18" name="author_date" dataDxfId="27"/>
@@ -2368,9 +2377,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S51" sqref="S51"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2492,131 +2501,141 @@
         <v>304</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="14" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
-        <v>340</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="C2" s="49">
-        <v>2023</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="49" t="s">
+    <row r="2" spans="1:30" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="26">
+        <v>2022</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F2" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="51">
-        <v>2015</v>
-      </c>
-      <c r="H2" s="50">
-        <v>2060</v>
-      </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47" t="s">
-        <v>391</v>
-      </c>
-      <c r="T2" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" s="36" t="s">
-        <v>371</v>
-      </c>
-      <c r="W2" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y2" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z2" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA2" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB2" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42" t="s">
+      <c r="F2" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="21">
+        <v>2021</v>
+      </c>
+      <c r="H2" s="26">
+        <v>2050</v>
+      </c>
+      <c r="I2" s="18">
+        <v>2021</v>
+      </c>
+      <c r="J2" s="18">
+        <v>2050</v>
+      </c>
+      <c r="K2" s="26"/>
+      <c r="L2" s="18">
+        <v>2050</v>
+      </c>
+      <c r="M2" s="27">
+        <v>2021</v>
+      </c>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB2" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="AD2" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="24" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2020</v>
-      </c>
-      <c r="D3" s="5" t="s">
+    <row r="3" spans="1:30" s="24" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2018</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="15" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="10">
-        <v>2015</v>
-      </c>
-      <c r="H3" s="5">
-        <v>2030</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+        <v>2010</v>
+      </c>
+      <c r="H3" s="15">
+        <v>2050</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
       <c r="K3" s="5">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="L3" s="11">
-        <v>2030</v>
-      </c>
-      <c r="M3" s="11"/>
+        <v>2050</v>
+      </c>
+      <c r="M3" s="12"/>
       <c r="N3" s="11">
         <v>2030</v>
       </c>
-      <c r="O3" s="11"/>
+      <c r="O3" s="11">
+        <v>2050</v>
+      </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="13"/>
-      <c r="S3" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="U3" s="6" t="s">
+      <c r="S3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" s="13" t="s">
         <v>41</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="W3" s="6" t="s">
-        <v>131</v>
+      <c r="W3" s="11" t="s">
+        <v>125</v>
       </c>
       <c r="X3" s="11" t="s">
         <v>172</v>
@@ -2628,525 +2647,497 @@
         <v>294</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="AB3" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="AC3" s="11" t="s">
-        <v>272</v>
+        <v>192</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC3" s="18" t="s">
+        <v>260</v>
       </c>
       <c r="AD3" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="14" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="20">
-        <v>2021</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="21">
+    <row r="4" spans="1:30" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="60" t="s">
+        <v>403</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>404</v>
+      </c>
+      <c r="C4" s="57">
         <v>2018</v>
       </c>
-      <c r="H4" s="20">
+      <c r="D4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>277</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="75"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="76" t="s">
+        <v>299</v>
+      </c>
+      <c r="T4" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="X4" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y4" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA4" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC4" s="67"/>
+      <c r="AD4" s="67" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" s="24" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2020</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="10">
+        <v>2020</v>
+      </c>
+      <c r="H5" s="9">
+        <v>2050</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="5">
+        <v>2015</v>
+      </c>
+      <c r="L5" s="13">
+        <v>2050</v>
+      </c>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13">
         <v>2030</v>
       </c>
-      <c r="I4" s="27">
-        <v>2018</v>
-      </c>
-      <c r="J4" s="27">
-        <v>2030</v>
-      </c>
-      <c r="K4" s="20">
-        <v>2018</v>
-      </c>
-      <c r="L4" s="23">
-        <v>2030</v>
-      </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="28" t="s">
-        <v>387</v>
-      </c>
-      <c r="T4" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="U4" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="V4" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="W4" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="X4" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y4" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z4" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="AA4" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB4" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" s="24" customFormat="1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="9">
-        <v>2017</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="10">
-        <v>2012</v>
-      </c>
-      <c r="H5" s="9">
-        <v>2050</v>
-      </c>
-      <c r="I5" s="11">
-        <v>2012</v>
-      </c>
-      <c r="J5" s="11">
-        <v>2050</v>
-      </c>
-      <c r="K5" s="5">
-        <v>2012</v>
-      </c>
-      <c r="L5" s="11">
-        <v>2050</v>
-      </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
+      <c r="O5" s="13">
+        <v>2050</v>
+      </c>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
       <c r="R5" s="9"/>
       <c r="S5" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="T5" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="W5" s="12" t="s">
-        <v>127</v>
+        <v>299</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V5" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>263</v>
       </c>
       <c r="X5" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="Y5" s="11" t="s">
-        <v>167</v>
+      <c r="Y5" s="13" t="s">
+        <v>348</v>
       </c>
       <c r="Z5" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="AA5" s="57" t="s">
-        <v>257</v>
-      </c>
-      <c r="AB5" s="40" t="s">
-        <v>190</v>
+      <c r="AA5" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="AC5" s="11" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="AD5" s="11" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:30" s="14" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2018</v>
-      </c>
-      <c r="D6" s="69" t="s">
-        <v>32</v>
+      <c r="A6" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>327</v>
+      </c>
+      <c r="C6" s="49">
+        <v>2023</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>29</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F6" s="69" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" s="10">
-        <v>2011</v>
-      </c>
-      <c r="H6" s="5">
-        <v>2154</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="13">
-        <v>2011</v>
-      </c>
-      <c r="N6" s="11">
-        <v>2050</v>
-      </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="V6" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="W6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="X6" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y6" s="11" t="s">
+      <c r="F6" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="51">
+        <v>2020</v>
+      </c>
+      <c r="H6" s="50">
+        <v>2060</v>
+      </c>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="50" t="s">
+        <v>329</v>
+      </c>
+      <c r="T6" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="W6" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="X6" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y6" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="Z6" s="5" t="s">
+      <c r="Z6" s="44" t="s">
         <v>294</v>
       </c>
-      <c r="AA6" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB6" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11" t="s">
+      <c r="AA6" s="52" t="s">
+        <v>328</v>
+      </c>
+      <c r="AB6" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC6" s="42"/>
+      <c r="AD6" s="42" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>111</v>
+    <row r="7" spans="1:30" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="C7" s="9">
-        <v>2018</v>
-      </c>
-      <c r="D7" s="5" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>29</v>
+      <c r="F7" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="G7" s="10">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="H7" s="9">
         <v>2050</v>
       </c>
-      <c r="I7" s="6">
-        <v>2010</v>
-      </c>
-      <c r="J7" s="13">
-        <v>2050</v>
-      </c>
-      <c r="K7" s="5">
-        <v>2010</v>
-      </c>
-      <c r="L7" s="6">
+      <c r="I7" s="11">
+        <v>2020</v>
+      </c>
+      <c r="J7" s="11">
+        <v>2050</v>
+      </c>
+      <c r="K7" s="9">
+        <v>2020</v>
+      </c>
+      <c r="L7" s="13">
         <v>2050</v>
       </c>
       <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
       <c r="R7" s="13"/>
       <c r="S7" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="U7" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U7" s="9" t="s">
         <v>41</v>
       </c>
       <c r="V7" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="W7" s="6" t="s">
-        <v>127</v>
+      <c r="W7" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="X7" s="11" t="s">
         <v>172</v>
       </c>
       <c r="Y7" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z7" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="AA7" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="AB7" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC7" s="18" t="s">
-        <v>260</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="Z7" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB7" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC7" s="18"/>
       <c r="AD7" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="14" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="9">
-        <v>2018</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="10">
+    <row r="8" spans="1:30" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="28">
+        <v>2012</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="21">
         <v>2010</v>
       </c>
-      <c r="H8" s="15">
-        <v>2050</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="5">
+      <c r="H8" s="20">
+        <v>2040</v>
+      </c>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="27">
         <v>2010</v>
       </c>
-      <c r="L8" s="11">
-        <v>2050</v>
-      </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="11">
-        <v>2030</v>
-      </c>
-      <c r="O8" s="11">
-        <v>2050</v>
-      </c>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="T8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="U8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="V8" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="W8" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="X8" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y8" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z8" s="5" t="s">
+      <c r="N8" s="27">
+        <v>2040</v>
+      </c>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="T8" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="U8" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="V8" s="27"/>
+      <c r="W8" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="X8" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y8" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z8" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="AA8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="AC8" s="18" t="s">
-        <v>260</v>
-      </c>
+      <c r="AA8" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB8" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC8" s="11"/>
       <c r="AD8" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:30" s="24" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="20">
-        <v>2020</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="G9" s="21">
+      <c r="A9" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="15">
+        <v>2021</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="10">
         <v>2010</v>
       </c>
-      <c r="H9" s="20">
-        <v>2050</v>
-      </c>
-      <c r="I9" s="18">
+      <c r="H9" s="15">
+        <v>2050</v>
+      </c>
+      <c r="I9" s="11">
         <v>2010</v>
       </c>
-      <c r="J9" s="23">
-        <v>2050</v>
-      </c>
-      <c r="K9" s="26">
+      <c r="J9" s="11">
+        <v>2050</v>
+      </c>
+      <c r="K9" s="5">
         <v>2010</v>
       </c>
-      <c r="L9" s="18">
-        <v>2050</v>
-      </c>
-      <c r="M9" s="27"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="T9" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="U9" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="V9" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="W9" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="X9" s="18" t="s">
+      <c r="L9" s="11">
+        <v>2050</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="W9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="X9" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="Y9" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z9" s="20" t="s">
+      <c r="Y9" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z9" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="AA9" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="AB9" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="AC9" s="11" t="s">
-        <v>298</v>
-      </c>
+      <c r="AA9" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC9" s="18"/>
       <c r="AD9" s="11" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:30" s="14" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>21</v>
+        <v>252</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>19</v>
       </c>
       <c r="C10" s="20">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>137</v>
+        <v>28</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>138</v>
       </c>
       <c r="G10" s="21">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="H10" s="20">
         <v>2050</v>
       </c>
       <c r="I10" s="18">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="J10" s="18">
         <v>2050</v>
       </c>
       <c r="K10" s="20">
-        <v>2020</v>
-      </c>
-      <c r="L10" s="27">
+        <v>2010</v>
+      </c>
+      <c r="L10" s="18">
         <v>2050</v>
       </c>
       <c r="M10" s="27"/>
@@ -3154,93 +3145,89 @@
       <c r="O10" s="18"/>
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="26" t="s">
-        <v>66</v>
+      <c r="R10" s="23"/>
+      <c r="S10" s="28" t="s">
+        <v>299</v>
       </c>
       <c r="T10" s="20" t="s">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="U10" s="20" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="V10" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="W10" s="18" t="s">
-        <v>127</v>
+        <v>378</v>
+      </c>
+      <c r="W10" s="22" t="s">
+        <v>65</v>
       </c>
       <c r="X10" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Y10" s="18" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="Z10" s="20" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="AA10" s="23" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="AB10" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="AC10" s="11" t="s">
-        <v>260</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="AC10" s="6"/>
       <c r="AD10" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
-    <row r="11" spans="1:30" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="63">
-        <v>2021</v>
+    <row r="11" spans="1:30" s="24" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2023</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>277</v>
+        <v>27</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G11" s="10">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="H11" s="5">
-        <v>2050</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="6">
-        <v>2018</v>
-      </c>
+        <v>2100</v>
+      </c>
+      <c r="I11" s="11">
+        <v>2020</v>
+      </c>
+      <c r="J11" s="11">
+        <v>2100</v>
+      </c>
+      <c r="K11" s="5">
+        <v>2020</v>
+      </c>
+      <c r="L11" s="11">
+        <v>2100</v>
+      </c>
+      <c r="M11" s="13"/>
       <c r="N11" s="11">
         <v>2030</v>
       </c>
-      <c r="O11" s="11">
-        <v>2035</v>
-      </c>
-      <c r="P11" s="11">
-        <v>2040</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>2045</v>
-      </c>
-      <c r="R11" s="13">
-        <v>2050</v>
-      </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="13"/>
       <c r="S11" s="13" t="s">
-        <v>66</v>
+        <v>299</v>
       </c>
       <c r="T11" s="6" t="s">
         <v>41</v>
@@ -3249,336 +3236,334 @@
         <v>41</v>
       </c>
       <c r="V11" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="W11" s="6" t="s">
-        <v>347</v>
+        <v>371</v>
+      </c>
+      <c r="W11" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="X11" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y11" s="11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>294</v>
+        <v>236</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="AB11" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="AC11" s="18" t="s">
-        <v>274</v>
+        <v>235</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC11" s="11" t="s">
+        <v>260</v>
       </c>
       <c r="AD11" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
-        <v>343</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="20">
+    <row r="12" spans="1:30" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
         <v>2021</v>
       </c>
-      <c r="D12" s="58" t="s">
-        <v>29</v>
+      <c r="D12" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="21">
-        <v>2020</v>
-      </c>
-      <c r="H12" s="58">
-        <v>2060</v>
-      </c>
-      <c r="I12" s="18">
-        <v>2020</v>
-      </c>
-      <c r="J12" s="18">
-        <v>2060</v>
-      </c>
-      <c r="K12" s="20">
-        <v>2020</v>
-      </c>
-      <c r="L12" s="18">
-        <v>2060</v>
-      </c>
-      <c r="M12" s="27"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="T12" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="U12" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="V12" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G12" s="10">
+        <v>2015</v>
+      </c>
+      <c r="H12" s="5">
+        <v>2040</v>
+      </c>
+      <c r="I12" s="11">
+        <v>2015</v>
+      </c>
+      <c r="J12" s="6">
+        <v>2040</v>
+      </c>
+      <c r="K12" s="5">
+        <v>2015</v>
+      </c>
+      <c r="L12" s="11">
+        <v>2040</v>
+      </c>
+      <c r="M12" s="13"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="V12" s="47" t="s">
         <v>372</v>
       </c>
-      <c r="W12" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="X12" s="18" t="s">
+      <c r="W12" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="X12" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="Y12" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z12" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="AA12" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="AB12" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="AC12" s="11" t="s">
-        <v>272</v>
-      </c>
+      <c r="Y12" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB12" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC12" s="18"/>
       <c r="AD12" s="11" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:30" s="24" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="23">
-        <v>2021</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="F13" s="23" t="s">
+      <c r="A13" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>311</v>
+      </c>
+      <c r="C13" s="53">
+        <v>2023</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="G13" s="51">
+        <v>2015</v>
+      </c>
+      <c r="H13" s="50">
+        <v>2050</v>
+      </c>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="47" t="s">
+        <v>299</v>
+      </c>
+      <c r="T13" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="U13" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="V13" s="47" t="s">
+        <v>372</v>
+      </c>
+      <c r="W13" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="X13" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y13" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z13" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA13" s="44" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB13" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="42" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" s="14" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2017</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="10">
+        <v>2012</v>
+      </c>
+      <c r="H14" s="9">
+        <v>2050</v>
+      </c>
+      <c r="I14" s="11">
+        <v>2012</v>
+      </c>
+      <c r="J14" s="11">
+        <v>2050</v>
+      </c>
+      <c r="K14" s="5">
+        <v>2012</v>
+      </c>
+      <c r="L14" s="11">
+        <v>2050</v>
+      </c>
+      <c r="M14" s="13"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="W14" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="X14" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y14" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA14" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB14" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC14" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="AD14" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="20">
+        <v>2019</v>
+      </c>
+      <c r="D15" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="21">
-        <v>2020</v>
-      </c>
-      <c r="H13" s="20">
-        <v>2060</v>
-      </c>
-      <c r="I13" s="18">
-        <v>2020</v>
-      </c>
-      <c r="J13" s="18">
-        <v>2060</v>
-      </c>
-      <c r="K13" s="20">
-        <v>2020</v>
-      </c>
-      <c r="L13" s="27">
-        <v>2060</v>
-      </c>
-      <c r="M13" s="27"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="T13" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="U13" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="V13" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="W13" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="X13" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y13" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z13" s="20" t="s">
+      <c r="E15" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="70">
+        <v>2015</v>
+      </c>
+      <c r="H15" s="20">
+        <v>2050</v>
+      </c>
+      <c r="I15" s="27">
+        <v>2015</v>
+      </c>
+      <c r="J15" s="27">
+        <v>2050</v>
+      </c>
+      <c r="K15" s="61"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27">
+        <v>2015</v>
+      </c>
+      <c r="O15" s="27">
+        <v>2030</v>
+      </c>
+      <c r="P15" s="27">
+        <v>2050</v>
+      </c>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="T15" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="U15" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="V15" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="W15" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="X15" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y15" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z15" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="AA13" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB13" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="AC13" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="AD13" s="11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
-        <v>341</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>318</v>
-      </c>
-      <c r="C14" s="49">
-        <v>2023</v>
-      </c>
-      <c r="D14" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="49" t="s">
-        <v>277</v>
-      </c>
-      <c r="F14" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="51">
-        <v>2014</v>
-      </c>
-      <c r="H14" s="50">
-        <v>2060</v>
-      </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="T14" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="U14" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="V14" s="47" t="s">
-        <v>372</v>
-      </c>
-      <c r="W14" s="45" t="s">
-        <v>321</v>
-      </c>
-      <c r="X14" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y14" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z14" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="AA14" s="44" t="s">
-        <v>319</v>
-      </c>
-      <c r="AB14" s="44" t="s">
-        <v>320</v>
-      </c>
-      <c r="AC14" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="AD14" s="42" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" s="24" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5">
-        <v>2021</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G15" s="10">
-        <v>2015</v>
-      </c>
-      <c r="H15" s="5">
-        <v>2040</v>
-      </c>
-      <c r="I15" s="11">
-        <v>2015</v>
-      </c>
-      <c r="J15" s="6">
-        <v>2040</v>
-      </c>
-      <c r="K15" s="5">
-        <v>2015</v>
-      </c>
-      <c r="L15" s="11">
-        <v>2040</v>
-      </c>
-      <c r="M15" s="13"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="T15" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="V15" s="47" t="s">
-        <v>372</v>
-      </c>
-      <c r="W15" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="X15" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y15" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z15" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="AA15" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="AB15" s="5" t="s">
+      <c r="AA15" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB15" s="20" t="s">
         <v>190</v>
       </c>
       <c r="AC15" s="18"/>
@@ -3587,79 +3572,83 @@
       </c>
     </row>
     <row r="16" spans="1:30" s="14" customFormat="1" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="15">
+      <c r="A16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="80">
         <v>2023</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>139</v>
+        <v>75</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="G16" s="10">
-        <v>2021</v>
-      </c>
-      <c r="H16" s="69">
-        <v>2100</v>
+        <v>2017</v>
+      </c>
+      <c r="H16" s="5">
+        <v>2060</v>
       </c>
       <c r="I16" s="11">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="J16" s="11">
-        <v>2100</v>
-      </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="11">
-        <v>2020</v>
-      </c>
+        <v>2060</v>
+      </c>
+      <c r="K16" s="5">
+        <v>2017</v>
+      </c>
+      <c r="L16" s="13">
+        <v>2060</v>
+      </c>
+      <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="T16" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="U16" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="V16" s="12" t="s">
-        <v>377</v>
+      <c r="R16" s="15"/>
+      <c r="S16" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="U16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="V16" s="6" t="s">
+        <v>372</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>35</v>
+        <v>264</v>
       </c>
       <c r="X16" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Y16" s="11" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="AB16" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="AC16" s="11"/>
+        <v>200</v>
+      </c>
+      <c r="AB16" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC16" s="11" t="s">
+        <v>269</v>
+      </c>
       <c r="AD16" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:30" s="24" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3741,196 +3730,192 @@
       </c>
     </row>
     <row r="18" spans="1:30" s="14" customFormat="1" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="6">
-        <v>2021</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="6" t="s">
+      <c r="A18" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="27">
+        <v>2022</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="30">
+        <v>2020</v>
+      </c>
+      <c r="H18" s="27">
+        <v>2050</v>
+      </c>
+      <c r="I18" s="27">
+        <v>2020</v>
+      </c>
+      <c r="J18" s="27">
+        <v>2050</v>
+      </c>
+      <c r="K18" s="20">
+        <v>2020</v>
+      </c>
+      <c r="L18" s="27">
+        <v>2050</v>
+      </c>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="T18" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U18" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="V18" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="W18" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="X18" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y18" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z18" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA18" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB18" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC18" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD18" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" s="24" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>310</v>
+      </c>
+      <c r="C19" s="49">
+        <v>2023</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="F19" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="G18" s="17">
-        <v>2020</v>
-      </c>
-      <c r="H18" s="6">
-        <v>2050</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="5">
-        <v>2020</v>
-      </c>
-      <c r="L18" s="13">
-        <v>2050</v>
-      </c>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11">
-        <v>2030</v>
-      </c>
-      <c r="O18" s="11">
-        <v>2050</v>
-      </c>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="V18" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="W18" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="X18" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y18" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z18" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="AA18" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="AB18" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" s="24" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="26">
-        <v>2021</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="G19" s="21">
-        <v>2015</v>
-      </c>
-      <c r="H19" s="26">
-        <v>2050</v>
-      </c>
-      <c r="I19" s="18">
-        <v>2015</v>
-      </c>
-      <c r="J19" s="18">
-        <v>2050</v>
-      </c>
-      <c r="K19" s="20">
-        <v>2015</v>
-      </c>
-      <c r="L19" s="27">
-        <v>2050</v>
-      </c>
-      <c r="M19" s="27"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="T19" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="U19" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="V19" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="W19" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="X19" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y19" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z19" s="20" t="s">
+      <c r="G19" s="51">
+        <v>2022</v>
+      </c>
+      <c r="H19" s="50">
+        <v>2050</v>
+      </c>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="T19" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="U19" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="V19" s="46" t="s">
+        <v>375</v>
+      </c>
+      <c r="W19" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="X19" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y19" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z19" s="44" t="s">
         <v>294</v>
       </c>
-      <c r="AA19" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB19" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="11" t="s">
-        <v>307</v>
+      <c r="AA19" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB19" s="44" t="s">
+        <v>335</v>
+      </c>
+      <c r="AC19" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD19" s="42" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:30" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="15">
-        <v>2021</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>40</v>
+      <c r="A20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="G20" s="10">
-        <v>2022</v>
-      </c>
-      <c r="H20" s="15">
+        <v>2020</v>
+      </c>
+      <c r="H20" s="90">
         <v>2050</v>
       </c>
       <c r="I20" s="11">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="J20" s="11">
         <v>2050</v>
       </c>
       <c r="K20" s="5">
-        <v>2022</v>
-      </c>
-      <c r="L20" s="13">
+        <v>2020</v>
+      </c>
+      <c r="L20" s="11">
         <v>2050</v>
       </c>
       <c r="M20" s="11"/>
@@ -3940,7 +3925,7 @@
       <c r="Q20" s="11"/>
       <c r="R20" s="12"/>
       <c r="S20" s="13" t="s">
-        <v>393</v>
+        <v>299</v>
       </c>
       <c r="T20" s="6" t="s">
         <v>41</v>
@@ -3948,525 +3933,505 @@
       <c r="U20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="V20" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="W20" s="6" t="s">
-        <v>35</v>
+      <c r="V20" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="W20" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="X20" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y20" s="11" t="s">
         <v>170</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>206</v>
+        <v>294</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AB20" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="AC20" s="11"/>
+        <v>223</v>
+      </c>
+      <c r="AC20" s="6" t="s">
+        <v>267</v>
+      </c>
       <c r="AD20" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="24" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="C21" s="9">
-        <v>2012</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="F21" s="5" t="s">
+    <row r="21" spans="1:30" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="C21" s="28">
+        <v>2013</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="G21" s="76">
-        <v>2005</v>
-      </c>
-      <c r="H21" s="5">
-        <v>2050</v>
-      </c>
-      <c r="I21" s="13">
-        <v>2005</v>
-      </c>
-      <c r="J21" s="13">
-        <v>2050</v>
-      </c>
-      <c r="K21" s="5">
-        <v>2005</v>
-      </c>
-      <c r="L21" s="6">
-        <v>2050</v>
-      </c>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="T21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="U21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="V21" s="6" t="s">
+      <c r="G21" s="21">
+        <v>2010</v>
+      </c>
+      <c r="H21" s="20">
+        <v>2030</v>
+      </c>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="20">
+        <v>2010</v>
+      </c>
+      <c r="L21" s="23">
+        <v>2030</v>
+      </c>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27">
+        <v>2030</v>
+      </c>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="T21" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U21" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="V21" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="W21" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="X21" s="13" t="s">
+      <c r="W21" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="X21" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="Y21" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z21" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="AA21" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="AB21" s="5" t="s">
-        <v>285</v>
+      <c r="Y21" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z21" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA21" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB21" s="20" t="s">
+        <v>251</v>
       </c>
       <c r="AC21" s="18"/>
       <c r="AD21" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="C22" s="20">
-        <v>2019</v>
-      </c>
-      <c r="D22" s="67" t="s">
-        <v>29</v>
+    <row r="22" spans="1:30" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="15">
+        <v>2023</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="F22" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="77">
-        <v>2015</v>
-      </c>
-      <c r="H22" s="20">
-        <v>2050</v>
-      </c>
-      <c r="I22" s="27">
-        <v>2015</v>
-      </c>
-      <c r="J22" s="27">
-        <v>2050</v>
-      </c>
-      <c r="K22" s="67"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27">
-        <v>2015</v>
-      </c>
-      <c r="O22" s="27">
-        <v>2030</v>
-      </c>
-      <c r="P22" s="27">
-        <v>2050</v>
-      </c>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="28" t="s">
-        <v>329</v>
-      </c>
-      <c r="T22" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="U22" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="V22" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="W22" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="X22" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y22" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z22" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="AA22" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB22" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC22" s="18"/>
+        <v>278</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="10">
+        <v>2021</v>
+      </c>
+      <c r="H22" s="63">
+        <v>2100</v>
+      </c>
+      <c r="I22" s="11">
+        <v>2021</v>
+      </c>
+      <c r="J22" s="11">
+        <v>2100</v>
+      </c>
+      <c r="K22" s="15"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="11">
+        <v>2020</v>
+      </c>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="T22" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="U22" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="V22" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="W22" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="X22" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y22" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z22" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="AA22" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="AB22" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC22" s="11"/>
       <c r="AD22" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="24" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="42" t="s">
-        <v>326</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>327</v>
-      </c>
-      <c r="C23" s="49">
+    <row r="23" spans="1:30" s="24" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A23" s="60" t="s">
+        <v>400</v>
+      </c>
+      <c r="B23" s="72" t="s">
+        <v>399</v>
+      </c>
+      <c r="C23" s="57">
+        <v>2022</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="E23" s="71" t="s">
+        <v>279</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="75"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="76"/>
+      <c r="S23" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="T23" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="U23" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="V23" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="W23" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="X23" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y23" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z23" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA23" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="AB23" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC23" s="60"/>
+      <c r="AD23" s="60" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" s="14" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="20">
         <v>2023</v>
       </c>
-      <c r="D23" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="F23" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="51">
-        <v>2020</v>
-      </c>
-      <c r="H23" s="50">
-        <v>2060</v>
-      </c>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="47" t="s">
-        <v>329</v>
-      </c>
-      <c r="T23" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="U23" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="V23" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="W23" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="X23" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y23" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z23" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="AA23" s="44" t="s">
-        <v>328</v>
-      </c>
-      <c r="AB23" s="44" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC23" s="42"/>
-      <c r="AD23" s="42" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="C24" s="9">
-        <v>2018</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>291</v>
+      <c r="D24" s="28" t="s">
+        <v>103</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G24" s="76">
-        <v>2015</v>
-      </c>
-      <c r="H24" s="5">
+      <c r="F24" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="21">
+        <v>2010</v>
+      </c>
+      <c r="H24" s="20">
         <v>2040</v>
       </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="13">
-        <v>2015</v>
-      </c>
-      <c r="N24" s="13">
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="20">
+        <v>2010</v>
+      </c>
+      <c r="L24" s="27">
         <v>2040</v>
       </c>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="T24" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="U24" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="V24" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="W24" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="X24" s="13" t="s">
+      <c r="M24" s="27"/>
+      <c r="N24" s="27">
+        <v>2040</v>
+      </c>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="T24" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U24" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="V24" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="W24" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="X24" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="Y24" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z24" s="5" t="s">
+      <c r="Y24" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z24" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="AA24" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="AB24" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC24" s="11"/>
+      <c r="AA24" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB24" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC24" s="18"/>
       <c r="AD24" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="24" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="20">
+    <row r="25" spans="1:30" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="42" t="s">
+        <v>337</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="C25" s="49">
         <v>2023</v>
       </c>
-      <c r="D25" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="F25" s="28" t="s">
+      <c r="D25" s="44" t="s">
+        <v>317</v>
+      </c>
+      <c r="E25" s="53" t="s">
+        <v>279</v>
+      </c>
+      <c r="F25" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="G25" s="21">
-        <v>2010</v>
-      </c>
-      <c r="H25" s="20">
-        <v>2040</v>
-      </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="20">
-        <v>2010</v>
-      </c>
-      <c r="L25" s="27">
-        <v>2040</v>
-      </c>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27">
-        <v>2040</v>
-      </c>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="28" t="s">
-        <v>349</v>
-      </c>
-      <c r="T25" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="U25" s="28" t="s">
+      <c r="G25" s="51">
+        <v>2016</v>
+      </c>
+      <c r="H25" s="50">
+        <v>2050</v>
+      </c>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="50" t="s">
+        <v>386</v>
+      </c>
+      <c r="T25" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="U25" s="50" t="s">
         <v>41</v>
       </c>
       <c r="V25" s="27" t="s">
-        <v>371</v>
-      </c>
-      <c r="W25" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="X25" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y25" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z25" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="W25" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="X25" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y25" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z25" s="44" t="s">
         <v>294</v>
       </c>
-      <c r="AA25" s="20" t="s">
+      <c r="AA25" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="AB25" s="20" t="s">
+      <c r="AB25" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="AC25" s="18"/>
-      <c r="AD25" s="11" t="s">
-        <v>307</v>
+      <c r="AC25" s="42"/>
+      <c r="AD25" s="42" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="65">
-        <v>2020</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="F26" s="54" t="s">
-        <v>277</v>
-      </c>
-      <c r="G26" s="21">
-        <v>2015</v>
-      </c>
-      <c r="H26" s="26">
-        <v>2050</v>
-      </c>
-      <c r="I26" s="18">
-        <v>2015</v>
-      </c>
-      <c r="J26" s="18">
-        <v>2050</v>
-      </c>
-      <c r="K26" s="54"/>
-      <c r="L26" s="41">
-        <v>2050</v>
-      </c>
-      <c r="M26" s="18">
-        <v>2015</v>
-      </c>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="T26" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="U26" s="20" t="s">
+    <row r="26" spans="1:30" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>331</v>
+      </c>
+      <c r="C26" s="49">
+        <v>2023</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>332</v>
+      </c>
+      <c r="E26" s="53" t="s">
+        <v>279</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="51">
+        <v>2016</v>
+      </c>
+      <c r="H26" s="50">
+        <v>2045</v>
+      </c>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="T26" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="U26" s="50" t="s">
         <v>41</v>
       </c>
       <c r="V26" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="W26" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="X26" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y26" s="18" t="s">
+      <c r="W26" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="X26" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y26" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="Z26" s="54" t="s">
-        <v>294</v>
-      </c>
-      <c r="AA26" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="AB26" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC26" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="AD26" s="11" t="s">
-        <v>307</v>
+      <c r="Z26" s="44" t="s">
+        <v>333</v>
+      </c>
+      <c r="AA26" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="AB26" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC26" s="47" t="s">
+        <v>385</v>
+      </c>
+      <c r="AD26" s="47" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="27" spans="1:30" s="24" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="B27" s="68" t="s">
-        <v>16</v>
+    <row r="27" spans="1:30" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="62" t="s">
+        <v>12</v>
       </c>
       <c r="C27" s="15">
         <v>2021</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>277</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="G27" s="10">
-        <v>2010</v>
+        <v>2022</v>
       </c>
       <c r="H27" s="15">
         <v>2050</v>
       </c>
       <c r="I27" s="11">
-        <v>2010</v>
+        <v>2022</v>
       </c>
       <c r="J27" s="11">
         <v>2050</v>
       </c>
       <c r="K27" s="5">
-        <v>2010</v>
-      </c>
-      <c r="L27" s="11">
+        <v>2022</v>
+      </c>
+      <c r="L27" s="13">
         <v>2050</v>
       </c>
       <c r="M27" s="11"/>
@@ -4474,260 +4439,270 @@
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="T27" s="12" t="s">
+      <c r="R27" s="12"/>
+      <c r="S27" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="T27" s="6" t="s">
         <v>41</v>
       </c>
       <c r="U27" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="V27" s="6" t="s">
+      <c r="V27" s="23" t="s">
         <v>372</v>
       </c>
       <c r="W27" s="6" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="X27" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y27" s="11" t="s">
         <v>170</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>294</v>
+        <v>206</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="AB27" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="AC27" s="18"/>
+        <v>209</v>
+      </c>
+      <c r="AC27" s="11"/>
       <c r="AD27" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="15">
-        <v>2019</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="F28" s="5" t="s">
+    <row r="28" spans="1:30" s="14" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="20">
+        <v>2021</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="G28" s="10">
-        <v>2010</v>
-      </c>
-      <c r="H28" s="15">
-        <v>2050</v>
-      </c>
-      <c r="I28" s="11">
-        <v>2010</v>
-      </c>
-      <c r="J28" s="11">
-        <v>2050</v>
-      </c>
-      <c r="K28" s="15">
-        <v>2010</v>
-      </c>
-      <c r="L28" s="11">
-        <v>2050</v>
-      </c>
-      <c r="M28" s="13"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="T28" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="U28" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="V28" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="W28" s="6" t="s">
+      <c r="G28" s="21">
+        <v>2018</v>
+      </c>
+      <c r="H28" s="20">
+        <v>2030</v>
+      </c>
+      <c r="I28" s="27">
+        <v>2018</v>
+      </c>
+      <c r="J28" s="27">
+        <v>2030</v>
+      </c>
+      <c r="K28" s="20">
+        <v>2018</v>
+      </c>
+      <c r="L28" s="23">
+        <v>2030</v>
+      </c>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="T28" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="U28" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="V28" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="W28" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="X28" s="11" t="s">
+      <c r="X28" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="Y28" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z28" s="5" t="s">
+      <c r="Y28" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z28" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="AA28" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="AB28" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="AC28" s="11"/>
+      <c r="AA28" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB28" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC28" s="18"/>
       <c r="AD28" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="24" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="62" t="s">
-        <v>403</v>
-      </c>
-      <c r="B29" s="80" t="s">
-        <v>404</v>
-      </c>
-      <c r="C29" s="57">
-        <v>2018</v>
+    <row r="29" spans="1:30" s="24" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2020</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="78" t="s">
+      <c r="E29" s="6" t="s">
         <v>277</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="83"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="74"/>
-      <c r="O29" s="74"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="74"/>
-      <c r="R29" s="74"/>
-      <c r="S29" s="84" t="s">
-        <v>299</v>
-      </c>
-      <c r="T29" s="84" t="s">
-        <v>41</v>
-      </c>
-      <c r="U29" s="84" t="s">
+      <c r="G29" s="10">
+        <v>2015</v>
+      </c>
+      <c r="H29" s="5">
+        <v>2030</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="5">
+        <v>2015</v>
+      </c>
+      <c r="L29" s="11">
+        <v>2030</v>
+      </c>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11">
+        <v>2030</v>
+      </c>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="T29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U29" s="5" t="s">
         <v>41</v>
       </c>
       <c r="V29" s="6" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="W29" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="X29" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y29" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="X29" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y29" s="11" t="s">
         <v>170</v>
       </c>
       <c r="Z29" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="AA29" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="AB29" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC29" s="74"/>
-      <c r="AD29" s="74" t="s">
+      <c r="AA29" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB29" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC29" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD29" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="30" spans="1:30" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="26">
-        <v>2018</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G30" s="21">
-        <v>2020</v>
-      </c>
-      <c r="H30" s="26">
-        <v>2050</v>
-      </c>
-      <c r="I30" s="18">
-        <v>2020</v>
-      </c>
-      <c r="J30" s="18">
-        <v>2050</v>
-      </c>
-      <c r="K30" s="20">
-        <v>2020</v>
-      </c>
-      <c r="L30" s="27">
-        <v>2050</v>
-      </c>
-      <c r="M30" s="27"/>
-      <c r="N30" s="18">
-        <v>2030</v>
-      </c>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="T30" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="U30" s="20" t="s">
+    <row r="30" spans="1:30" s="14" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" s="9">
+        <v>2012</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="69">
+        <v>2005</v>
+      </c>
+      <c r="H30" s="5">
+        <v>2050</v>
+      </c>
+      <c r="I30" s="13">
+        <v>2005</v>
+      </c>
+      <c r="J30" s="13">
+        <v>2050</v>
+      </c>
+      <c r="K30" s="5">
+        <v>2005</v>
+      </c>
+      <c r="L30" s="6">
+        <v>2050</v>
+      </c>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U30" s="5" t="s">
         <v>41</v>
       </c>
       <c r="V30" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="W30" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="X30" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="W30" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="X30" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="Y30" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z30" s="20" t="s">
+      <c r="Y30" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z30" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="AA30" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="AB30" s="20" t="s">
-        <v>195</v>
+      <c r="AA30" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB30" s="5" t="s">
+        <v>285</v>
       </c>
       <c r="AC30" s="18"/>
       <c r="AD30" s="11" t="s">
@@ -4736,435 +4711,429 @@
     </row>
     <row r="31" spans="1:30" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="6">
+        <v>183</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="13">
         <v>2018</v>
       </c>
-      <c r="D31" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G31" s="17">
-        <v>2020</v>
-      </c>
-      <c r="H31" s="70">
-        <v>2050</v>
-      </c>
-      <c r="I31" s="11">
-        <v>2020</v>
-      </c>
-      <c r="J31" s="11">
-        <v>2050</v>
-      </c>
-      <c r="K31" s="8">
-        <v>2020</v>
-      </c>
-      <c r="L31" s="11">
-        <v>2050</v>
-      </c>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="12"/>
+      <c r="D31" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" s="88">
+        <v>2015</v>
+      </c>
+      <c r="H31" s="6">
+        <v>2040</v>
+      </c>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="13">
+        <v>2015</v>
+      </c>
+      <c r="N31" s="13">
+        <v>2040</v>
+      </c>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
       <c r="S31" s="13" t="s">
-        <v>299</v>
+        <v>396</v>
       </c>
       <c r="T31" s="6" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="U31" s="6" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="V31" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="W31" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="X31" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="W31" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="X31" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="Y31" s="11" t="s">
-        <v>170</v>
+      <c r="Y31" s="13" t="s">
+        <v>168</v>
       </c>
       <c r="Z31" s="8" t="s">
         <v>294</v>
       </c>
       <c r="AA31" s="8" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AB31" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="AC31" s="6" t="s">
-        <v>267</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="AC31" s="11"/>
       <c r="AD31" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="39" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="62" t="s">
-        <v>398</v>
-      </c>
-      <c r="B32" s="74" t="s">
-        <v>397</v>
-      </c>
-      <c r="C32" s="78">
-        <v>2018</v>
-      </c>
-      <c r="D32" s="6" t="s">
+    <row r="32" spans="1:30" s="39" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="22">
+        <v>2021</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="30">
+        <v>2015</v>
+      </c>
+      <c r="H32" s="22">
+        <v>2050</v>
+      </c>
+      <c r="I32" s="18">
+        <v>2015</v>
+      </c>
+      <c r="J32" s="18">
+        <v>2050</v>
+      </c>
+      <c r="K32" s="31">
+        <v>2015</v>
+      </c>
+      <c r="L32" s="27">
+        <v>2050</v>
+      </c>
+      <c r="M32" s="27"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="T32" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="U32" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="V32" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="W32" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="X32" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y32" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z32" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA32" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB32" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC32" s="18"/>
+      <c r="AD32" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="27">
+        <v>2020</v>
+      </c>
+      <c r="D33" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="78" t="s">
+      <c r="E33" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G32" s="75"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="62"/>
-      <c r="R32" s="62"/>
-      <c r="S32" s="74" t="s">
+      <c r="F33" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G33" s="30">
+        <v>2015</v>
+      </c>
+      <c r="H33" s="23">
+        <v>2050</v>
+      </c>
+      <c r="I33" s="27">
+        <v>2015</v>
+      </c>
+      <c r="J33" s="27">
+        <v>2050</v>
+      </c>
+      <c r="K33" s="31">
+        <v>2015</v>
+      </c>
+      <c r="L33" s="23">
+        <v>2050</v>
+      </c>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="T32" s="85" t="s">
-        <v>41</v>
-      </c>
-      <c r="U32" s="85" t="s">
-        <v>41</v>
-      </c>
-      <c r="V32" s="36" t="s">
+      <c r="T33" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="U33" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="V33" s="27" t="s">
         <v>371</v>
       </c>
-      <c r="W32" s="73" t="s">
-        <v>124</v>
-      </c>
-      <c r="X32" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y32" s="62" t="s">
+      <c r="W33" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="X33" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y33" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="Z32" s="8" t="s">
+      <c r="Z33" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="AA32" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="AB32" s="8" t="s">
+      <c r="AA33" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB33" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="AC32" s="62"/>
-      <c r="AD32" s="62" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" s="24" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="13">
-        <v>2020</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="17">
-        <v>2020</v>
-      </c>
-      <c r="H33" s="13">
-        <v>2050</v>
-      </c>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="8">
-        <v>2015</v>
-      </c>
-      <c r="L33" s="13">
-        <v>2050</v>
-      </c>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13">
-        <v>2030</v>
-      </c>
-      <c r="O33" s="13">
-        <v>2050</v>
-      </c>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="T33" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="U33" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="V33" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="W33" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="X33" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y33" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="Z33" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="AA33" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB33" s="8" t="s">
-        <v>239</v>
-      </c>
       <c r="AC33" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AD33" s="11" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:30" s="14" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="23">
+      <c r="A34" s="42" t="s">
+        <v>322</v>
+      </c>
+      <c r="B34" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="C34" s="53">
+        <v>2023</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="G34" s="55">
         <v>2020</v>
       </c>
-      <c r="D34" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="F34" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="G34" s="30">
-        <v>2020</v>
-      </c>
-      <c r="H34" s="23">
-        <v>2070</v>
-      </c>
-      <c r="I34" s="18">
-        <v>2020</v>
-      </c>
-      <c r="J34" s="18">
-        <v>2070</v>
-      </c>
-      <c r="K34" s="31">
-        <v>2020</v>
-      </c>
-      <c r="L34" s="71">
-        <v>2070</v>
-      </c>
-      <c r="M34" s="27"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="27"/>
-      <c r="S34" s="22" t="s">
+      <c r="H34" s="47">
+        <v>2100</v>
+      </c>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47" t="s">
         <v>299</v>
       </c>
-      <c r="T34" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="U34" s="71" t="s">
-        <v>346</v>
-      </c>
-      <c r="V34" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="W34" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="X34" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y34" s="18" t="s">
+      <c r="T34" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="U34" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="V34" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="W34" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="X34" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y34" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="Z34" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="AA34" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="AB34" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC34" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="AD34" s="11" t="s">
+      <c r="Z34" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA34" s="52" t="s">
+        <v>325</v>
+      </c>
+      <c r="AB34" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC34" s="42"/>
+      <c r="AD34" s="42" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:30" s="24" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" s="27">
-        <v>2020</v>
-      </c>
-      <c r="D35" s="31" t="s">
+      <c r="A35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="6">
+        <v>2022</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="G35" s="30">
+      <c r="F35" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" s="17">
         <v>2015</v>
       </c>
-      <c r="H35" s="23">
-        <v>2050</v>
-      </c>
-      <c r="I35" s="27">
+      <c r="H35" s="6">
+        <v>2050</v>
+      </c>
+      <c r="I35" s="11">
         <v>2015</v>
       </c>
-      <c r="J35" s="27">
-        <v>2050</v>
-      </c>
-      <c r="K35" s="31">
+      <c r="J35" s="11">
+        <v>2050</v>
+      </c>
+      <c r="K35" s="8"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="11">
         <v>2015</v>
       </c>
-      <c r="L35" s="23">
-        <v>2050</v>
-      </c>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="27" t="s">
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="T35" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="U35" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="V35" s="27" t="s">
+      <c r="T35" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U35" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="V35" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="W35" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="X35" s="18" t="s">
+      <c r="W35" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="X35" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="Y35" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z35" s="31" t="s">
+      <c r="Y35" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z35" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="AA35" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB35" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC35" s="11" t="s">
+      <c r="AA35" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB35" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC35" s="18" t="s">
         <v>260</v>
       </c>
       <c r="AD35" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="36" spans="1:30" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C36" s="23">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>277</v>
+        <v>27</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="F36" s="31" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="G36" s="30">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="H36" s="23">
         <v>2050</v>
       </c>
-      <c r="I36" s="18"/>
-      <c r="J36" s="23"/>
+      <c r="I36" s="18">
+        <v>2020</v>
+      </c>
+      <c r="J36" s="18">
+        <v>2050</v>
+      </c>
       <c r="K36" s="31">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="L36" s="27">
         <v>2050</v>
       </c>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18">
-        <v>2030</v>
-      </c>
-      <c r="O36" s="18">
-        <v>2050</v>
-      </c>
+      <c r="M36" s="27"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
       <c r="P36" s="18"/>
       <c r="Q36" s="18"/>
       <c r="R36" s="27"/>
-      <c r="S36" s="23" t="s">
-        <v>299</v>
+      <c r="S36" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="T36" s="31" t="s">
         <v>41</v>
@@ -5172,26 +5141,26 @@
       <c r="U36" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="V36" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="W36" s="23" t="s">
+      <c r="V36" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="W36" s="18" t="s">
         <v>127</v>
       </c>
       <c r="X36" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y36" s="18" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Z36" s="31" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="AA36" s="31" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="AB36" s="31" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="AC36" s="11" t="s">
         <v>260</v>
@@ -5200,15 +5169,15 @@
         <v>307</v>
       </c>
     </row>
-    <row r="37" spans="1:30" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" s="24" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C37" s="6">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>27</v>
@@ -5217,32 +5186,34 @@
         <v>27</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="G37" s="17">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="H37" s="6">
         <v>2050</v>
       </c>
-      <c r="I37" s="11">
-        <v>2015</v>
-      </c>
-      <c r="J37" s="11">
-        <v>2050</v>
-      </c>
-      <c r="K37" s="8"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="11">
-        <v>2015</v>
-      </c>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="8">
+        <v>2020</v>
+      </c>
+      <c r="L37" s="13">
+        <v>2050</v>
+      </c>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11">
+        <v>2030</v>
+      </c>
+      <c r="O37" s="11">
+        <v>2050</v>
+      </c>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="6" t="s">
-        <v>299</v>
+      <c r="R37" s="11"/>
+      <c r="S37" s="12" t="s">
+        <v>303</v>
       </c>
       <c r="T37" s="8" t="s">
         <v>41</v>
@@ -5260,42 +5231,40 @@
         <v>172</v>
       </c>
       <c r="Y37" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Z37" s="8" t="s">
-        <v>294</v>
+        <v>224</v>
       </c>
       <c r="AA37" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB37" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="AC37" s="18" t="s">
-        <v>260</v>
-      </c>
+      <c r="AC37" s="18"/>
       <c r="AD37" s="11" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:30" s="14" customFormat="1" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="C38" s="27">
-        <v>2022</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>27</v>
+        <v>2019</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>278</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="G38" s="30">
         <v>2015</v>
@@ -5303,8 +5272,12 @@
       <c r="H38" s="23">
         <v>2050</v>
       </c>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
+      <c r="I38" s="27">
+        <v>2015</v>
+      </c>
+      <c r="J38" s="27">
+        <v>2050</v>
+      </c>
       <c r="K38" s="20">
         <v>2015</v>
       </c>
@@ -5312,17 +5285,13 @@
         <v>2050</v>
       </c>
       <c r="M38" s="28"/>
-      <c r="N38" s="27">
-        <v>2030</v>
-      </c>
-      <c r="O38" s="27">
-        <v>2050</v>
-      </c>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
       <c r="P38" s="27"/>
       <c r="Q38" s="27"/>
       <c r="R38" s="27"/>
       <c r="S38" s="27" t="s">
-        <v>299</v>
+        <v>66</v>
       </c>
       <c r="T38" s="28" t="s">
         <v>41</v>
@@ -5331,48 +5300,48 @@
         <v>41</v>
       </c>
       <c r="V38" s="27" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="W38" s="23" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="X38" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y38" s="27" t="s">
-        <v>170</v>
+        <v>292</v>
       </c>
       <c r="Z38" s="20" t="s">
         <v>294</v>
       </c>
       <c r="AA38" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB38" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="AC38" s="18" t="s">
-        <v>260</v>
+        <v>225</v>
+      </c>
+      <c r="AB38" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="AC38" s="11" t="s">
+        <v>283</v>
       </c>
       <c r="AD38" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
-    <row r="39" spans="1:30" s="32" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="6">
-        <v>2023</v>
+    <row r="39" spans="1:30" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="13">
+        <v>2022</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>277</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>29</v>
@@ -5381,38 +5350,36 @@
         <v>2020</v>
       </c>
       <c r="H39" s="6">
-        <v>2100</v>
-      </c>
-      <c r="I39" s="11">
+        <v>2060</v>
+      </c>
+      <c r="I39" s="13">
         <v>2020</v>
       </c>
-      <c r="J39" s="11">
-        <v>2100</v>
+      <c r="J39" s="13">
+        <v>2060</v>
       </c>
       <c r="K39" s="8">
         <v>2020</v>
       </c>
-      <c r="L39" s="11">
-        <v>2100</v>
+      <c r="L39" s="13">
+        <v>2060</v>
       </c>
       <c r="M39" s="13"/>
-      <c r="N39" s="11">
-        <v>2030</v>
-      </c>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
       <c r="R39" s="13"/>
-      <c r="S39" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="T39" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="U39" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="V39" s="6" t="s">
+      <c r="S39" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="T39" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="U39" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="V39" s="13" t="s">
         <v>371</v>
       </c>
       <c r="W39" s="11" t="s">
@@ -5422,242 +5389,242 @@
         <v>172</v>
       </c>
       <c r="Y39" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Z39" s="8" t="s">
-        <v>236</v>
+        <v>294</v>
       </c>
       <c r="AA39" s="8" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="AB39" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="AC39" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC39" s="18" t="s">
         <v>260</v>
       </c>
       <c r="AD39" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="40" spans="1:30" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="42" t="s">
-        <v>322</v>
-      </c>
-      <c r="B40" s="47" t="s">
-        <v>323</v>
-      </c>
-      <c r="C40" s="53">
-        <v>2023</v>
-      </c>
-      <c r="D40" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" s="46" t="s">
-        <v>324</v>
-      </c>
-      <c r="G40" s="55">
+    <row r="40" spans="1:30" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="23">
+        <v>2021</v>
+      </c>
+      <c r="D40" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="30">
         <v>2020</v>
       </c>
-      <c r="H40" s="47">
-        <v>2100</v>
-      </c>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="42"/>
-      <c r="R40" s="42"/>
-      <c r="S40" s="47" t="s">
-        <v>299</v>
-      </c>
-      <c r="T40" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="U40" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="V40" s="6" t="s">
+      <c r="H40" s="89">
+        <v>2060</v>
+      </c>
+      <c r="I40" s="18">
+        <v>2020</v>
+      </c>
+      <c r="J40" s="18">
+        <v>2060</v>
+      </c>
+      <c r="K40" s="31">
+        <v>2020</v>
+      </c>
+      <c r="L40" s="18">
+        <v>2060</v>
+      </c>
+      <c r="M40" s="27"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="T40" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="U40" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="V40" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="W40" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="X40" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y40" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z40" s="52" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA40" s="52" t="s">
-        <v>325</v>
-      </c>
-      <c r="AB40" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="AC40" s="42"/>
-      <c r="AD40" s="42" t="s">
+      <c r="W40" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="X40" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y40" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z40" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA40" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="AB40" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC40" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD40" s="11" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:30" s="24" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C41" s="13">
-        <v>2015</v>
+      <c r="A41" s="60" t="s">
+        <v>398</v>
+      </c>
+      <c r="B41" s="67" t="s">
+        <v>397</v>
+      </c>
+      <c r="C41" s="71">
+        <v>2018</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E41" s="31" t="s">
-        <v>279</v>
+        <v>27</v>
+      </c>
+      <c r="E41" s="73" t="s">
+        <v>27</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G41" s="17">
-        <v>2010</v>
-      </c>
-      <c r="H41" s="6">
-        <v>2050</v>
-      </c>
-      <c r="I41" s="13">
-        <v>2010</v>
-      </c>
-      <c r="J41" s="13">
-        <v>2050</v>
-      </c>
-      <c r="K41" s="8">
-        <v>2010</v>
-      </c>
-      <c r="L41" s="6">
-        <v>2050</v>
-      </c>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="T41" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="U41" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="V41" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="W41" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="X41" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y41" s="11" t="s">
-        <v>167</v>
+        <v>94</v>
+      </c>
+      <c r="G41" s="68"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="60"/>
+      <c r="O41" s="60"/>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="60"/>
+      <c r="R41" s="60"/>
+      <c r="S41" s="67" t="s">
+        <v>299</v>
+      </c>
+      <c r="T41" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="U41" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="W41" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="X41" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y41" s="60" t="s">
+        <v>170</v>
       </c>
       <c r="Z41" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA41" s="8" t="s">
-        <v>228</v>
+        <v>294</v>
+      </c>
+      <c r="AA41" s="31" t="s">
+        <v>227</v>
       </c>
       <c r="AB41" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="AC41" s="18"/>
-      <c r="AD41" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC41" s="60"/>
+      <c r="AD41" s="60" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:30" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="B42" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="C42" s="36">
+      <c r="A42" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="23">
         <v>2020</v>
       </c>
-      <c r="D42" s="88" t="s">
-        <v>29</v>
+      <c r="D42" s="58" t="s">
+        <v>94</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="F42" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" s="86">
-        <v>2015</v>
-      </c>
-      <c r="H42" s="36">
-        <v>2035</v>
-      </c>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="88">
-        <v>2015</v>
-      </c>
-      <c r="L42" s="37">
-        <v>2035</v>
-      </c>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37">
-        <v>2035</v>
-      </c>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="38"/>
-      <c r="S42" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="T42" s="88" t="s">
-        <v>41</v>
-      </c>
-      <c r="U42" s="88" t="s">
-        <v>41</v>
-      </c>
-      <c r="V42" s="36" t="s">
+      <c r="F42" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="G42" s="30">
+        <v>2020</v>
+      </c>
+      <c r="H42" s="23">
+        <v>2070</v>
+      </c>
+      <c r="I42" s="18">
+        <v>2020</v>
+      </c>
+      <c r="J42" s="18">
+        <v>2070</v>
+      </c>
+      <c r="K42" s="31">
+        <v>2020</v>
+      </c>
+      <c r="L42" s="27">
+        <v>2070</v>
+      </c>
+      <c r="M42" s="27"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="T42" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="U42" s="64" t="s">
+        <v>346</v>
+      </c>
+      <c r="V42" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="W42" s="36" t="s">
+      <c r="W42" s="18" t="s">
         <v>127</v>
       </c>
       <c r="X42" s="18" t="s">
         <v>172</v>
       </c>
       <c r="Y42" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z42" s="88" t="s">
-        <v>294</v>
-      </c>
-      <c r="AA42" s="88" t="s">
-        <v>241</v>
-      </c>
-      <c r="AB42" s="88" t="s">
-        <v>242</v>
+        <v>170</v>
+      </c>
+      <c r="Z42" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA42" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB42" s="31" t="s">
+        <v>203</v>
       </c>
       <c r="AC42" s="11" t="s">
         <v>260</v>
@@ -5666,42 +5633,42 @@
         <v>307</v>
       </c>
     </row>
-    <row r="43" spans="1:30" s="24" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" s="24" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="C43" s="13">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>277</v>
+        <v>149</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>279</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="G43" s="17">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="H43" s="6">
-        <v>2060</v>
+        <v>2050</v>
       </c>
       <c r="I43" s="13">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="J43" s="13">
-        <v>2060</v>
+        <v>2050</v>
       </c>
       <c r="K43" s="6">
-        <v>2020</v>
-      </c>
-      <c r="L43" s="13">
-        <v>2060</v>
+        <v>2010</v>
+      </c>
+      <c r="L43" s="6">
+        <v>2050</v>
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
@@ -5709,20 +5676,20 @@
       <c r="P43" s="13"/>
       <c r="Q43" s="13"/>
       <c r="R43" s="13"/>
-      <c r="S43" s="12" t="s">
-        <v>302</v>
+      <c r="S43" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="T43" s="13" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="U43" s="13" t="s">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="V43" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="W43" s="11" t="s">
-        <v>127</v>
+        <v>380</v>
+      </c>
+      <c r="W43" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="X43" s="11" t="s">
         <v>172</v>
@@ -5731,222 +5698,216 @@
         <v>167</v>
       </c>
       <c r="Z43" s="6" t="s">
-        <v>294</v>
+        <v>230</v>
       </c>
       <c r="AA43" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AB43" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC43" s="18" t="s">
-        <v>260</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="AC43" s="18"/>
       <c r="AD43" s="11" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:30" s="24" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C44" s="13">
-        <v>2022</v>
-      </c>
-      <c r="D44" s="13" t="s">
+      <c r="A44" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="22">
+        <v>2021</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="F44" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="G44" s="30">
+        <v>2015</v>
+      </c>
+      <c r="H44" s="22">
+        <v>2035</v>
+      </c>
+      <c r="I44" s="18">
+        <v>2015</v>
+      </c>
+      <c r="J44" s="18">
+        <v>2035</v>
+      </c>
+      <c r="K44" s="31">
+        <v>2015</v>
+      </c>
+      <c r="L44" s="27">
+        <v>2035</v>
+      </c>
+      <c r="M44" s="27"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="T44" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="U44" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="V44" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="W44" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="X44" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y44" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z44" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA44" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB44" s="65" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC44" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD44" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="42" t="s">
+        <v>341</v>
+      </c>
+      <c r="B45" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="C45" s="53">
+        <v>2023</v>
+      </c>
+      <c r="D45" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="86" t="s">
         <v>277</v>
       </c>
-      <c r="F44" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="G44" s="17">
-        <v>2020</v>
-      </c>
-      <c r="H44" s="13">
-        <v>2050</v>
-      </c>
-      <c r="I44" s="11">
-        <v>2020</v>
-      </c>
-      <c r="J44" s="11">
-        <v>2050</v>
-      </c>
-      <c r="K44" s="34">
-        <v>2020</v>
-      </c>
-      <c r="L44" s="13">
-        <v>2050</v>
-      </c>
-      <c r="M44" s="13"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="T44" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="U44" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="V44" s="6" t="s">
+      <c r="F45" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" s="55">
+        <v>2014</v>
+      </c>
+      <c r="H45" s="47">
+        <v>2060</v>
+      </c>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="47"/>
+      <c r="S45" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="T45" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="U45" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="V45" s="47" t="s">
         <v>372</v>
       </c>
-      <c r="W44" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="X44" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y44" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z44" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA44" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB44" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="AC44" s="18"/>
-      <c r="AD44" s="11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="22">
-        <v>2022</v>
-      </c>
-      <c r="D45" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="F45" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" s="30">
-        <v>2021</v>
-      </c>
-      <c r="H45" s="22">
-        <v>2050</v>
-      </c>
-      <c r="I45" s="18">
-        <v>2021</v>
-      </c>
-      <c r="J45" s="18">
-        <v>2050</v>
-      </c>
-      <c r="K45" s="60"/>
-      <c r="L45" s="18">
-        <v>2050</v>
-      </c>
-      <c r="M45" s="27">
-        <v>2021</v>
-      </c>
-      <c r="N45" s="18"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="27"/>
-      <c r="S45" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="T45" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="U45" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="V45" s="22"/>
-      <c r="W45" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="X45" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y45" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z45" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA45" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB45" s="60" t="s">
-        <v>189</v>
-      </c>
-      <c r="AC45" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="AD45" s="11" t="s">
+      <c r="W45" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="X45" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y45" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z45" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA45" s="52" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB45" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC45" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD45" s="42" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:30" s="14" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="23" t="s">
-        <v>109</v>
+      <c r="A46" s="18" t="s">
+        <v>60</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="C46" s="23">
         <v>2022</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>279</v>
+        <v>29</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>277</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="G46" s="30">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="H46" s="23">
         <v>2050</v>
       </c>
-      <c r="I46" s="27">
-        <v>2018</v>
-      </c>
-      <c r="J46" s="27">
-        <v>2050</v>
-      </c>
+      <c r="I46" s="18"/>
+      <c r="J46" s="23"/>
       <c r="K46" s="31">
-        <v>2018</v>
-      </c>
-      <c r="L46" s="23">
-        <v>2050</v>
-      </c>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="27"/>
+        <v>2015</v>
+      </c>
+      <c r="L46" s="27">
+        <v>2050</v>
+      </c>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18">
+        <v>2030</v>
+      </c>
+      <c r="O46" s="18">
+        <v>2050</v>
+      </c>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
       <c r="R46" s="27"/>
-      <c r="S46" s="27" t="s">
-        <v>301</v>
+      <c r="S46" s="23" t="s">
+        <v>299</v>
       </c>
       <c r="T46" s="23" t="s">
         <v>41</v>
@@ -5961,235 +5922,241 @@
         <v>127</v>
       </c>
       <c r="X46" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Y46" s="18" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Z46" s="31" t="s">
-        <v>294</v>
+        <v>202</v>
       </c>
       <c r="AA46" s="31" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="AB46" s="31" t="s">
-        <v>286</v>
-      </c>
-      <c r="AC46" s="18"/>
+        <v>196</v>
+      </c>
+      <c r="AC46" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="AD46" s="11" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:30" s="24" customFormat="1" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="C47" s="28">
-        <v>2013</v>
-      </c>
-      <c r="D47" s="20" t="s">
+      <c r="A47" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="26">
+        <v>2018</v>
+      </c>
+      <c r="D47" s="26" t="s">
         <v>27</v>
       </c>
       <c r="E47" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F47" s="20" t="s">
-        <v>141</v>
+      <c r="F47" s="26" t="s">
+        <v>137</v>
       </c>
       <c r="G47" s="21">
-        <v>2010</v>
-      </c>
-      <c r="H47" s="20">
+        <v>2020</v>
+      </c>
+      <c r="H47" s="26">
+        <v>2050</v>
+      </c>
+      <c r="I47" s="18">
+        <v>2020</v>
+      </c>
+      <c r="J47" s="18">
+        <v>2050</v>
+      </c>
+      <c r="K47" s="20">
+        <v>2020</v>
+      </c>
+      <c r="L47" s="27">
+        <v>2050</v>
+      </c>
+      <c r="M47" s="27"/>
+      <c r="N47" s="18">
         <v>2030</v>
       </c>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="20">
-        <v>2010</v>
-      </c>
-      <c r="L47" s="23">
-        <v>2030</v>
-      </c>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27">
-        <v>2030</v>
-      </c>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="27"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="18"/>
       <c r="R47" s="27"/>
-      <c r="S47" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="T47" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="U47" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="V47" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="W47" s="18" t="s">
-        <v>129</v>
+      <c r="S47" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="T47" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="U47" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="V47" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="W47" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="X47" s="18" t="s">
         <v>172</v>
       </c>
       <c r="Y47" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z47" s="31" t="s">
-        <v>206</v>
+        <v>294</v>
       </c>
       <c r="AA47" s="31" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="AB47" s="31" t="s">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="AC47" s="18"/>
       <c r="AD47" s="11" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
-    <row r="48" spans="1:30" s="14" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="B48" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="C48" s="27">
-        <v>2019</v>
-      </c>
-      <c r="D48" s="71" t="s">
-        <v>156</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>278</v>
+        <v>48</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="23">
+        <v>2020</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>279</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="G48" s="30">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="H48" s="23">
         <v>2050</v>
       </c>
-      <c r="I48" s="27">
-        <v>2015</v>
-      </c>
-      <c r="J48" s="27">
-        <v>2050</v>
-      </c>
-      <c r="K48" s="20">
-        <v>2015</v>
-      </c>
-      <c r="L48" s="23">
+      <c r="I48" s="18">
+        <v>2010</v>
+      </c>
+      <c r="J48" s="23">
+        <v>2050</v>
+      </c>
+      <c r="K48" s="26">
+        <v>2010</v>
+      </c>
+      <c r="L48" s="18">
         <v>2050</v>
       </c>
       <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="27"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="27"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
       <c r="R48" s="27"/>
-      <c r="S48" s="27" t="s">
+      <c r="S48" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="T48" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="U48" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="V48" s="27" t="s">
-        <v>384</v>
+      <c r="T48" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="U48" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="V48" s="23" t="s">
+        <v>371</v>
       </c>
       <c r="W48" s="23" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="X48" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y48" s="27" t="s">
-        <v>292</v>
+        <v>172</v>
+      </c>
+      <c r="Y48" s="18" t="s">
+        <v>167</v>
       </c>
       <c r="Z48" s="20" t="s">
         <v>294</v>
       </c>
       <c r="AA48" s="31" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="AB48" s="31" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AC48" s="11" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="AD48" s="11" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
-    <row r="49" spans="1:30" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="23" t="s">
-        <v>342</v>
-      </c>
-      <c r="B49" s="87" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="60">
-        <v>2021</v>
-      </c>
-      <c r="D49" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>279</v>
+        <v>114</v>
+      </c>
+      <c r="B49" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="64">
+        <v>2022</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="34" t="s">
+        <v>27</v>
       </c>
       <c r="F49" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G49" s="82">
+      <c r="G49" s="74">
         <v>2015</v>
       </c>
-      <c r="H49" s="60">
-        <v>2035</v>
-      </c>
-      <c r="I49" s="18">
-        <v>2015</v>
-      </c>
-      <c r="J49" s="18">
-        <v>2035</v>
-      </c>
+      <c r="H49" s="31">
+        <v>2050</v>
+      </c>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
       <c r="K49" s="31">
         <v>2015</v>
       </c>
-      <c r="L49" s="27">
-        <v>2035</v>
+      <c r="L49" s="23">
+        <v>2050</v>
       </c>
       <c r="M49" s="27"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="18"/>
+      <c r="N49" s="27">
+        <v>2030</v>
+      </c>
+      <c r="O49" s="27">
+        <v>2050</v>
+      </c>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
       <c r="R49" s="27"/>
-      <c r="S49" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="T49" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="U49" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="V49" s="23" t="s">
-        <v>372</v>
+      <c r="S49" s="64" t="s">
+        <v>299</v>
+      </c>
+      <c r="T49" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="U49" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="V49" s="27" t="s">
+        <v>382</v>
       </c>
       <c r="W49" s="23" t="s">
         <v>127</v>
@@ -6197,348 +6164,370 @@
       <c r="X49" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="Y49" s="18" t="s">
-        <v>167</v>
+      <c r="Y49" s="27" t="s">
+        <v>170</v>
       </c>
       <c r="Z49" s="31" t="s">
         <v>294</v>
       </c>
       <c r="AA49" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="AB49" s="72" t="s">
-        <v>255</v>
-      </c>
-      <c r="AC49" s="11" t="s">
-        <v>272</v>
+        <v>234</v>
+      </c>
+      <c r="AB49" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="AC49" s="18" t="s">
+        <v>260</v>
       </c>
       <c r="AD49" s="11" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
-    <row r="50" spans="1:30" s="43" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A50" s="62" t="s">
-        <v>400</v>
-      </c>
-      <c r="B50" s="74" t="s">
-        <v>399</v>
-      </c>
-      <c r="C50" s="78">
-        <v>2022</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="E50" s="81" t="s">
-        <v>279</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G50" s="75"/>
-      <c r="H50" s="74"/>
-      <c r="I50" s="62"/>
-      <c r="J50" s="62"/>
+    <row r="50" spans="1:30" s="43" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D50" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F50" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="G50" s="17">
+        <v>2011</v>
+      </c>
+      <c r="H50" s="6">
+        <v>2154</v>
+      </c>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="73"/>
-      <c r="M50" s="62"/>
-      <c r="N50" s="62"/>
-      <c r="O50" s="62"/>
-      <c r="P50" s="62"/>
-      <c r="Q50" s="62"/>
-      <c r="R50" s="62"/>
-      <c r="S50" s="85" t="s">
+      <c r="L50" s="11"/>
+      <c r="M50" s="13">
+        <v>2011</v>
+      </c>
+      <c r="N50" s="11">
+        <v>2050</v>
+      </c>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="T50" s="85" t="s">
-        <v>41</v>
-      </c>
-      <c r="U50" s="85" t="s">
-        <v>41</v>
-      </c>
-      <c r="V50" s="36" t="s">
-        <v>371</v>
-      </c>
-      <c r="W50" s="73" t="s">
-        <v>124</v>
+      <c r="T50" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U50" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="V50" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="W50" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="X50" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="Y50" s="62" t="s">
+      <c r="Y50" s="11" t="s">
         <v>167</v>
       </c>
       <c r="Z50" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA50" s="31" t="s">
-        <v>401</v>
+        <v>294</v>
+      </c>
+      <c r="AA50" s="8" t="s">
+        <v>237</v>
       </c>
       <c r="AB50" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC50" s="62"/>
-      <c r="AD50" s="62" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC50" s="11"/>
+      <c r="AD50" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" s="43" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="12">
+        <v>2023</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" s="17">
+        <v>2017</v>
+      </c>
+      <c r="H51" s="12">
+        <v>2060</v>
+      </c>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="11">
+        <v>2017</v>
+      </c>
+      <c r="N51" s="11">
+        <v>2030</v>
+      </c>
+      <c r="O51" s="11">
+        <v>2060</v>
+      </c>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="T51" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="U51" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="V51" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="W51" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="X51" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y51" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z51" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA51" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB51" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC51" s="18"/>
+      <c r="AD51" s="11" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="51" spans="1:30" s="43" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="42" t="s">
-        <v>308</v>
-      </c>
-      <c r="B51" s="47" t="s">
-        <v>310</v>
-      </c>
-      <c r="C51" s="53">
-        <v>2023</v>
-      </c>
-      <c r="D51" s="44" t="s">
+    <row r="52" spans="1:30" s="43" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A52" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="23">
+        <v>2021</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="F52" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="52" t="s">
+      <c r="G52" s="30">
+        <v>2020</v>
+      </c>
+      <c r="H52" s="23">
+        <v>2060</v>
+      </c>
+      <c r="I52" s="18">
+        <v>2020</v>
+      </c>
+      <c r="J52" s="18">
+        <v>2060</v>
+      </c>
+      <c r="K52" s="20">
+        <v>2020</v>
+      </c>
+      <c r="L52" s="27">
+        <v>2060</v>
+      </c>
+      <c r="M52" s="27"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="27"/>
+      <c r="S52" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="T52" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="U52" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="V52" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="W52" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="X52" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y52" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z52" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA52" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB52" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC52" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD52" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" s="43" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="36">
+        <v>2020</v>
+      </c>
+      <c r="D53" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="F51" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="G51" s="55">
-        <v>2022</v>
-      </c>
-      <c r="H51" s="47">
-        <v>2050</v>
-      </c>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="44"/>
-      <c r="L51" s="45"/>
-      <c r="M51" s="47"/>
-      <c r="N51" s="42"/>
-      <c r="O51" s="42"/>
-      <c r="P51" s="42"/>
-      <c r="Q51" s="42"/>
-      <c r="R51" s="47"/>
-      <c r="S51" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="T51" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="U51" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="V51" s="46" t="s">
-        <v>375</v>
-      </c>
-      <c r="W51" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="X51" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y51" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z51" s="44" t="s">
+      <c r="F53" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" s="78">
+        <v>2015</v>
+      </c>
+      <c r="H53" s="36">
+        <v>2035</v>
+      </c>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="79">
+        <v>2015</v>
+      </c>
+      <c r="L53" s="37">
+        <v>2035</v>
+      </c>
+      <c r="M53" s="37"/>
+      <c r="N53" s="37">
+        <v>2035</v>
+      </c>
+      <c r="O53" s="37"/>
+      <c r="P53" s="37"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="38"/>
+      <c r="S53" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="T53" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="U53" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="V53" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="W53" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="X53" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y53" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z53" s="79" t="s">
         <v>294</v>
       </c>
-      <c r="AA51" s="46" t="s">
-        <v>309</v>
-      </c>
-      <c r="AB51" s="52" t="s">
-        <v>335</v>
-      </c>
-      <c r="AC51" s="42" t="s">
+      <c r="AA53" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB53" s="79" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC53" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="AD51" s="42" t="s">
-        <v>305</v>
+      <c r="AD53" s="11" t="s">
+        <v>307</v>
       </c>
     </row>
-    <row r="52" spans="1:30" s="43" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="47" t="s">
-        <v>330</v>
-      </c>
-      <c r="B52" s="47" t="s">
-        <v>331</v>
-      </c>
-      <c r="C52" s="53">
-        <v>2023</v>
-      </c>
-      <c r="D52" s="44" t="s">
-        <v>332</v>
-      </c>
-      <c r="E52" s="53" t="s">
-        <v>279</v>
-      </c>
-      <c r="F52" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="G52" s="55">
-        <v>2016</v>
-      </c>
-      <c r="H52" s="47">
-        <v>2045</v>
-      </c>
-      <c r="I52" s="47"/>
-      <c r="J52" s="47"/>
-      <c r="K52" s="44"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="47"/>
-      <c r="N52" s="47"/>
-      <c r="O52" s="47"/>
-      <c r="P52" s="47"/>
-      <c r="Q52" s="47"/>
-      <c r="R52" s="47"/>
-      <c r="S52" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="T52" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="U52" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="V52" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="W52" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="X52" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y52" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z52" s="44" t="s">
-        <v>333</v>
-      </c>
-      <c r="AA52" s="46" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB52" s="44" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC52" s="47" t="s">
-        <v>385</v>
-      </c>
-      <c r="AD52" s="47" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" s="43" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="12">
-        <v>2023</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G53" s="17">
-        <v>2017</v>
-      </c>
-      <c r="H53" s="12">
-        <v>2060</v>
-      </c>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="11">
-        <v>2017</v>
-      </c>
-      <c r="N53" s="11">
-        <v>2030</v>
-      </c>
-      <c r="O53" s="11">
-        <v>2060</v>
-      </c>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="T53" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="U53" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="V53" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="W53" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="X53" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y53" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z53" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA53" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="AB53" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC53" s="18"/>
-      <c r="AD53" s="11" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" s="43" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" s="43" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A54" s="42" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B54" s="47" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C54" s="53">
         <v>2023</v>
       </c>
       <c r="D54" s="44" t="s">
-        <v>317</v>
+        <v>29</v>
       </c>
       <c r="E54" s="53" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F54" s="46" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="G54" s="55">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H54" s="47">
-        <v>2050</v>
+        <v>2060</v>
       </c>
       <c r="I54" s="42"/>
       <c r="J54" s="42"/>
       <c r="K54" s="44"/>
-      <c r="L54" s="45"/>
-      <c r="M54" s="47"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="42"/>
       <c r="N54" s="42"/>
       <c r="O54" s="42"/>
       <c r="P54" s="42"/>
       <c r="Q54" s="42"/>
       <c r="R54" s="47"/>
       <c r="S54" s="47" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="T54" s="47" t="s">
         <v>41</v>
@@ -6546,410 +6535,430 @@
       <c r="U54" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="V54" s="27" t="s">
-        <v>373</v>
+      <c r="V54" s="36" t="s">
+        <v>371</v>
       </c>
       <c r="W54" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="X54" s="42" t="s">
-        <v>173</v>
+      <c r="X54" s="11" t="s">
+        <v>172</v>
       </c>
       <c r="Y54" s="42" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Z54" s="44" t="s">
-        <v>294</v>
+        <v>202</v>
       </c>
       <c r="AA54" s="46" t="s">
         <v>208</v>
       </c>
       <c r="AB54" s="44" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="AC54" s="42"/>
       <c r="AD54" s="42" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
-    <row r="55" spans="1:30" s="43" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A55" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" s="23">
-        <v>2022</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>28</v>
+    <row r="55" spans="1:30" s="43" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="13">
+        <v>2018</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F55" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="G55" s="30">
+      <c r="F55" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="17">
         <v>2010</v>
       </c>
-      <c r="H55" s="23">
-        <v>2050</v>
-      </c>
-      <c r="I55" s="18">
+      <c r="H55" s="13">
+        <v>2050</v>
+      </c>
+      <c r="I55" s="6">
         <v>2010</v>
       </c>
-      <c r="J55" s="18">
-        <v>2050</v>
-      </c>
-      <c r="K55" s="20">
+      <c r="J55" s="13">
+        <v>2050</v>
+      </c>
+      <c r="K55" s="5">
         <v>2010</v>
       </c>
-      <c r="L55" s="18">
-        <v>2050</v>
-      </c>
-      <c r="M55" s="27"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="18"/>
-      <c r="R55" s="23"/>
-      <c r="S55" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="T55" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="U55" s="23" t="s">
-        <v>121</v>
+      <c r="L55" s="6">
+        <v>2050</v>
+      </c>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="T55" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="U55" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="V55" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="W55" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="X55" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="W55" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="X55" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="Y55" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z55" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA55" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB55" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="AC55" s="6"/>
+      <c r="Y55" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z55" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA55" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB55" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC55" s="18" t="s">
+        <v>260</v>
+      </c>
       <c r="AD55" s="11" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56" spans="1:30" s="43" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="B56" s="47" t="s">
-        <v>311</v>
-      </c>
-      <c r="C56" s="53">
-        <v>2023</v>
-      </c>
-      <c r="D56" s="44" t="s">
-        <v>313</v>
-      </c>
-      <c r="E56" s="44" t="s">
-        <v>277</v>
-      </c>
-      <c r="F56" s="44" t="s">
-        <v>313</v>
-      </c>
-      <c r="G56" s="55">
-        <v>2015</v>
-      </c>
-      <c r="H56" s="47">
-        <v>2050</v>
-      </c>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="44"/>
-      <c r="L56" s="46"/>
-      <c r="M56" s="47"/>
-      <c r="N56" s="42"/>
-      <c r="O56" s="42"/>
-      <c r="P56" s="42"/>
-      <c r="Q56" s="42"/>
-      <c r="R56" s="47"/>
-      <c r="S56" s="47" t="s">
-        <v>299</v>
-      </c>
-      <c r="T56" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="U56" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="V56" s="47" t="s">
-        <v>372</v>
-      </c>
-      <c r="W56" s="45" t="s">
+      <c r="A56" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="12">
+        <v>2019</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G56" s="17">
+        <v>2010</v>
+      </c>
+      <c r="H56" s="12">
+        <v>2050</v>
+      </c>
+      <c r="I56" s="11">
+        <v>2010</v>
+      </c>
+      <c r="J56" s="11">
+        <v>2050</v>
+      </c>
+      <c r="K56" s="15">
+        <v>2010</v>
+      </c>
+      <c r="L56" s="11">
+        <v>2050</v>
+      </c>
+      <c r="M56" s="13"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="13"/>
+      <c r="S56" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="T56" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="U56" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="V56" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="W56" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="X56" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y56" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z56" s="44" t="s">
+      <c r="X56" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y56" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z56" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="AA56" s="46" t="s">
-        <v>314</v>
-      </c>
-      <c r="AB56" s="44" t="s">
+      <c r="AA56" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB56" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="AC56" s="42"/>
-      <c r="AD56" s="42" t="s">
-        <v>305</v>
+      <c r="AC56" s="11"/>
+      <c r="AD56" s="11" t="s">
+        <v>307</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="72" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B57" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="79">
-        <v>2023</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>75</v>
+    <row r="57" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="23">
+        <v>2022</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>82</v>
       </c>
       <c r="E57" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="F57" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G57" s="17">
-        <v>2017</v>
-      </c>
-      <c r="H57" s="6">
-        <v>2060</v>
-      </c>
-      <c r="I57" s="11">
-        <v>2017</v>
-      </c>
-      <c r="J57" s="11">
-        <v>2060</v>
-      </c>
-      <c r="K57" s="5">
-        <v>2017</v>
-      </c>
-      <c r="L57" s="13">
-        <v>2060</v>
-      </c>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="12"/>
-      <c r="S57" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="T57" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="U57" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="V57" s="6" t="s">
+      <c r="F57" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G57" s="30">
+        <v>2018</v>
+      </c>
+      <c r="H57" s="23">
+        <v>2050</v>
+      </c>
+      <c r="I57" s="27">
+        <v>2018</v>
+      </c>
+      <c r="J57" s="27">
+        <v>2050</v>
+      </c>
+      <c r="K57" s="20">
+        <v>2018</v>
+      </c>
+      <c r="L57" s="23">
+        <v>2050</v>
+      </c>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="27"/>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="27"/>
+      <c r="S57" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="T57" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="U57" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="V57" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="W57" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="X57" s="11" t="s">
+      <c r="W57" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="X57" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="Y57" s="11" t="s">
+      <c r="Y57" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="Z57" s="5" t="s">
+      <c r="Z57" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="AA57" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="AB57" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC57" s="11" t="s">
-        <v>269</v>
-      </c>
+      <c r="AA57" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB57" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC57" s="18"/>
       <c r="AD57" s="11" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A58" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="B58" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="C58" s="27">
-        <v>2012</v>
+        <v>56</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="84">
+        <v>2020</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="E58" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="F58" s="23" t="s">
-        <v>138</v>
+        <v>33</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F58" s="41" t="s">
+        <v>277</v>
       </c>
       <c r="G58" s="30">
-        <v>2010</v>
-      </c>
-      <c r="H58" s="23">
-        <v>2040</v>
-      </c>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="23"/>
-      <c r="M58" s="27">
-        <v>2010</v>
-      </c>
-      <c r="N58" s="27">
-        <v>2040</v>
-      </c>
-      <c r="O58" s="27"/>
-      <c r="P58" s="27"/>
-      <c r="Q58" s="27"/>
+        <v>2015</v>
+      </c>
+      <c r="H58" s="22">
+        <v>2050</v>
+      </c>
+      <c r="I58" s="18">
+        <v>2015</v>
+      </c>
+      <c r="J58" s="18">
+        <v>2050</v>
+      </c>
+      <c r="K58" s="54"/>
+      <c r="L58" s="41">
+        <v>2050</v>
+      </c>
+      <c r="M58" s="18">
+        <v>2015</v>
+      </c>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
       <c r="R58" s="27"/>
       <c r="S58" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="T58" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="U58" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="V58" s="27"/>
-      <c r="W58" s="23" t="s">
-        <v>124</v>
+        <v>345</v>
+      </c>
+      <c r="T58" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="U58" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="V58" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="W58" s="41" t="s">
+        <v>135</v>
       </c>
       <c r="X58" s="18" t="s">
         <v>171</v>
       </c>
       <c r="Y58" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z58" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z58" s="54" t="s">
         <v>294</v>
       </c>
-      <c r="AA58" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="AB58" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC58" s="11"/>
+      <c r="AA58" s="91" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB58" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC58" s="11" t="s">
+        <v>275</v>
+      </c>
       <c r="AD58" s="11" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
-    <row r="59" spans="1:30" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="B59" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" s="27">
-        <v>2022</v>
-      </c>
-      <c r="D59" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="E59" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="F59" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" s="30">
-        <v>2020</v>
-      </c>
-      <c r="H59" s="27">
-        <v>2050</v>
-      </c>
-      <c r="I59" s="27">
-        <v>2020</v>
-      </c>
-      <c r="J59" s="27">
-        <v>2050</v>
-      </c>
-      <c r="K59" s="31">
-        <v>2020</v>
-      </c>
-      <c r="L59" s="27">
-        <v>2050</v>
-      </c>
-      <c r="M59" s="27"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="27"/>
-      <c r="P59" s="27"/>
-      <c r="Q59" s="27"/>
-      <c r="R59" s="27"/>
-      <c r="S59" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="T59" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="U59" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="V59" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="W59" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="X59" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y59" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="Z59" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA59" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB59" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="AC59" s="11" t="s">
-        <v>265</v>
+    <row r="59" spans="1:30" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" s="81">
+        <v>2021</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59" s="17">
+        <v>2018</v>
+      </c>
+      <c r="H59" s="6">
+        <v>2050</v>
+      </c>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="6">
+        <v>2018</v>
+      </c>
+      <c r="N59" s="11">
+        <v>2030</v>
+      </c>
+      <c r="O59" s="11">
+        <v>2035</v>
+      </c>
+      <c r="P59" s="11">
+        <v>2040</v>
+      </c>
+      <c r="Q59" s="11">
+        <v>2045</v>
+      </c>
+      <c r="R59" s="13">
+        <v>2050</v>
+      </c>
+      <c r="S59" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="T59" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="U59" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="V59" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="W59" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="X59" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y59" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z59" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA59" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB59" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC59" s="18" t="s">
+        <v>274</v>
       </c>
       <c r="AD59" s="11" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -6991,199 +7000,199 @@
     <col min="32" max="32" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="62" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:32" s="60" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="60" t="s">
         <v>280</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="60" t="s">
         <v>276</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="62" t="s">
+      <c r="N1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="62" t="s">
+      <c r="O1" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="62" t="s">
+      <c r="P1" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="62" t="s">
+      <c r="Q1" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="62" t="s">
+      <c r="R1" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="62" t="s">
+      <c r="S1" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="T1" s="62" t="s">
+      <c r="T1" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="U1" s="62" t="s">
+      <c r="U1" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="V1" s="62" t="s">
+      <c r="V1" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="W1" s="62" t="s">
+      <c r="W1" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="X1" s="62" t="s">
+      <c r="X1" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="Y1" s="62" t="s">
+      <c r="Y1" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="Z1" s="62" t="s">
+      <c r="Z1" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="AA1" s="62" t="s">
+      <c r="AA1" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="AB1" s="62" t="s">
+      <c r="AB1" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="AC1" s="62" t="s">
+      <c r="AC1" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="AD1" s="62" t="s">
+      <c r="AD1" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="AE1" s="62" t="s">
+      <c r="AE1" s="60" t="s">
         <v>259</v>
       </c>
-      <c r="AF1" s="62" t="s">
+      <c r="AF1" s="60" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="62" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
+    <row r="2" spans="1:32" s="60" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="60" t="s">
         <v>350</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="60" t="s">
         <v>351</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="60" t="s">
         <v>352</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="60" t="s">
         <v>353</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="60" t="s">
         <v>353</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="60" t="s">
         <v>354</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="H2" s="62" t="s">
+      <c r="H2" s="60" t="s">
         <v>356</v>
       </c>
-      <c r="I2" s="62" t="s">
+      <c r="I2" s="60" t="s">
         <v>357</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="J2" s="59" t="s">
         <v>358</v>
       </c>
-      <c r="K2" s="62" t="s">
+      <c r="K2" s="60" t="s">
         <v>359</v>
       </c>
-      <c r="L2" s="62" t="s">
+      <c r="L2" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="62" t="s">
+      <c r="M2" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="N2" s="62" t="s">
+      <c r="N2" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="62" t="s">
+      <c r="O2" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="P2" s="62" t="s">
+      <c r="P2" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="Q2" s="62" t="s">
+      <c r="Q2" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="R2" s="62" t="s">
+      <c r="R2" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="S2" s="62" t="s">
+      <c r="S2" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="T2" s="62" t="s">
+      <c r="T2" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="U2" s="62" t="s">
+      <c r="U2" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="V2" s="62" t="s">
+      <c r="V2" s="60" t="s">
         <v>360</v>
       </c>
-      <c r="W2" s="62" t="s">
+      <c r="W2" s="60" t="s">
         <v>362</v>
       </c>
-      <c r="X2" s="62" t="s">
+      <c r="X2" s="60" t="s">
         <v>361</v>
       </c>
-      <c r="Y2" s="62" t="s">
+      <c r="Y2" s="60" t="s">
         <v>363</v>
       </c>
-      <c r="Z2" s="62" t="s">
+      <c r="Z2" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="AA2" s="62" t="s">
+      <c r="AA2" s="60" t="s">
         <v>365</v>
       </c>
-      <c r="AB2" s="62" t="s">
+      <c r="AB2" s="60" t="s">
         <v>366</v>
       </c>
-      <c r="AC2" s="62" t="s">
+      <c r="AC2" s="60" t="s">
         <v>367</v>
       </c>
-      <c r="AD2" s="62" t="s">
+      <c r="AD2" s="60" t="s">
         <v>368</v>
       </c>
-      <c r="AE2" s="62" t="s">
+      <c r="AE2" s="60" t="s">
         <v>369</v>
       </c>
-      <c r="AF2" s="62" t="s">
+      <c r="AF2" s="60" t="s">
         <v>370</v>
       </c>
     </row>
